--- a/BackTest/2019-10-25 BackTest MIX.xlsx
+++ b/BackTest/2019-10-25 BackTest MIX.xlsx
@@ -973,7 +973,9 @@
       <c r="J12" t="n">
         <v>0.9199999999999982</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L12" t="n">
         <v>8.695</v>
       </c>
@@ -1018,7 +1020,9 @@
       <c r="J13" t="n">
         <v>1.009999999999998</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>56.52173913043506</v>
+      </c>
       <c r="L13" t="n">
         <v>8.713000000000001</v>
       </c>
@@ -1063,7 +1067,9 @@
       <c r="J14" t="n">
         <v>1.039999999999997</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>49.29577464788771</v>
+      </c>
       <c r="L14" t="n">
         <v>8.749000000000001</v>
       </c>
@@ -1108,7 +1114,9 @@
       <c r="J15" t="n">
         <v>1.179999999999998</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>26.19047619047632</v>
+      </c>
       <c r="L15" t="n">
         <v>8.770000000000001</v>
       </c>
@@ -1153,7 +1161,9 @@
       <c r="J16" t="n">
         <v>1.379999999999997</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>38.61386138613864</v>
+      </c>
       <c r="L16" t="n">
         <v>8.812000000000001</v>
       </c>
@@ -1198,7 +1208,9 @@
       <c r="J17" t="n">
         <v>1.459999999999997</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>42.0560747663552</v>
+      </c>
       <c r="L17" t="n">
         <v>8.859000000000002</v>
       </c>
@@ -1243,7 +1255,9 @@
       <c r="J18" t="n">
         <v>1.469999999999997</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>36.63366336633669</v>
+      </c>
       <c r="L18" t="n">
         <v>8.903000000000002</v>
       </c>
@@ -1288,7 +1302,9 @@
       <c r="J19" t="n">
         <v>1.609999999999996</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-5.747126436781516</v>
+      </c>
       <c r="L19" t="n">
         <v>8.926</v>
       </c>
@@ -1333,7 +1349,9 @@
       <c r="J20" t="n">
         <v>1.739999999999995</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>13.68421052631575</v>
+      </c>
       <c r="L20" t="n">
         <v>8.934000000000001</v>
       </c>
@@ -1378,7 +1396,9 @@
       <c r="J21" t="n">
         <v>1.839999999999995</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-10.86956521739131</v>
+      </c>
       <c r="L21" t="n">
         <v>8.937000000000001</v>
       </c>
@@ -1425,7 +1445,9 @@
       <c r="J22" t="n">
         <v>1.849999999999994</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-2.380952380952341</v>
+      </c>
       <c r="L22" t="n">
         <v>8.926</v>
       </c>
@@ -1473,7 +1495,7 @@
         <v>1.859999999999994</v>
       </c>
       <c r="K23" t="n">
-        <v>8.571428571428617</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>8.923</v>
@@ -1522,7 +1544,7 @@
         <v>1.889999999999995</v>
       </c>
       <c r="K24" t="n">
-        <v>21.01910828025485</v>
+        <v>15.49295774647885</v>
       </c>
       <c r="L24" t="n">
         <v>8.92</v>
@@ -1571,7 +1593,7 @@
         <v>2.119999999999994</v>
       </c>
       <c r="K25" t="n">
-        <v>5.027932960893963</v>
+        <v>-43.24324324324323</v>
       </c>
       <c r="L25" t="n">
         <v>8.907999999999999</v>
@@ -1620,7 +1642,7 @@
         <v>2.329999999999993</v>
       </c>
       <c r="K26" t="n">
-        <v>15.57788944723626</v>
+        <v>-21.83908045977017</v>
       </c>
       <c r="L26" t="n">
         <v>8.897</v>
@@ -1669,7 +1691,7 @@
         <v>2.349999999999993</v>
       </c>
       <c r="K27" t="n">
-        <v>13.13131313131318</v>
+        <v>-22.72727272727276</v>
       </c>
       <c r="L27" t="n">
         <v>8.875999999999999</v>
@@ -1718,7 +1740,7 @@
         <v>2.349999999999993</v>
       </c>
       <c r="K28" t="n">
-        <v>12.24489795918374</v>
+        <v>-8.108108108108212</v>
       </c>
       <c r="L28" t="n">
         <v>8.855999999999998</v>
@@ -1767,7 +1789,7 @@
         <v>2.569999999999991</v>
       </c>
       <c r="K29" t="n">
-        <v>18.4834123222749</v>
+        <v>3.614457831325239</v>
       </c>
       <c r="L29" t="n">
         <v>8.872</v>
@@ -1816,7 +1838,7 @@
         <v>2.579999999999991</v>
       </c>
       <c r="K30" t="n">
-        <v>5.434782608695659</v>
+        <v>16.21621621621618</v>
       </c>
       <c r="L30" t="n">
         <v>8.873999999999999</v>
@@ -1865,7 +1887,7 @@
         <v>2.619999999999992</v>
       </c>
       <c r="K31" t="n">
-        <v>10.3825136612022</v>
+        <v>22.07792207792213</v>
       </c>
       <c r="L31" t="n">
         <v>8.890000000000001</v>
@@ -1916,7 +1938,7 @@
         <v>2.719999999999992</v>
       </c>
       <c r="K32" t="n">
-        <v>-2.222222222222183</v>
+        <v>9.302325581395381</v>
       </c>
       <c r="L32" t="n">
         <v>8.897</v>
@@ -1967,7 +1989,7 @@
         <v>2.749999999999991</v>
       </c>
       <c r="K33" t="n">
-        <v>4.597701149425309</v>
+        <v>16.27906976744201</v>
       </c>
       <c r="L33" t="n">
         <v>8.907999999999999</v>
@@ -2018,7 +2040,7 @@
         <v>2.77999999999999</v>
       </c>
       <c r="K34" t="n">
-        <v>4.597701149425309</v>
+        <v>51.51515151515176</v>
       </c>
       <c r="L34" t="n">
         <v>8.919</v>
@@ -2069,7 +2091,7 @@
         <v>2.81999999999999</v>
       </c>
       <c r="K35" t="n">
-        <v>15.85365853658543</v>
+        <v>34.69387755102063</v>
       </c>
       <c r="L35" t="n">
         <v>8.957000000000001</v>
@@ -2120,7 +2142,7 @@
         <v>2.929999999999989</v>
       </c>
       <c r="K36" t="n">
-        <v>-3.225806451612852</v>
+        <v>13.79310344827596</v>
       </c>
       <c r="L36" t="n">
         <v>8.963000000000001</v>
@@ -2171,7 +2193,7 @@
         <v>2.999999999999989</v>
       </c>
       <c r="K37" t="n">
-        <v>-3.896103896103833</v>
+        <v>23.07692307692324</v>
       </c>
       <c r="L37" t="n">
         <v>8.978</v>
@@ -2222,7 +2244,7 @@
         <v>3.05999999999999</v>
       </c>
       <c r="K38" t="n">
-        <v>-6.918238993710688</v>
+        <v>-26.53061224489784</v>
       </c>
       <c r="L38" t="n">
         <v>8.987</v>
@@ -2273,7 +2295,7 @@
         <v>3.12999999999999</v>
       </c>
       <c r="K39" t="n">
-        <v>6.578947368421054</v>
+        <v>-9.090909090908914</v>
       </c>
       <c r="L39" t="n">
         <v>8.981</v>
@@ -2324,7 +2346,7 @@
         <v>3.22999999999999</v>
       </c>
       <c r="K40" t="n">
-        <v>-8.724832214765064</v>
+        <v>-31.1475409836066</v>
       </c>
       <c r="L40" t="n">
         <v>8.965999999999999</v>
@@ -2375,7 +2397,7 @@
         <v>3.349999999999989</v>
       </c>
       <c r="K41" t="n">
-        <v>5.960264900662264</v>
+        <v>4.761904761904681</v>
       </c>
       <c r="L41" t="n">
         <v>8.959</v>
@@ -2426,7 +2448,7 @@
         <v>3.389999999999988</v>
       </c>
       <c r="K42" t="n">
-        <v>3.896103896103944</v>
+        <v>-6.249999999999896</v>
       </c>
       <c r="L42" t="n">
         <v>8.958000000000002</v>
@@ -2477,7 +2499,7 @@
         <v>3.399999999999988</v>
       </c>
       <c r="K43" t="n">
-        <v>5.194805194805221</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>8.955000000000002</v>
@@ -2528,7 +2550,7 @@
         <v>3.409999999999988</v>
       </c>
       <c r="K44" t="n">
-        <v>6.578947368421178</v>
+        <v>-8.474576271186288</v>
       </c>
       <c r="L44" t="n">
         <v>8.954000000000002</v>
@@ -2579,7 +2601,7 @@
         <v>3.489999999999986</v>
       </c>
       <c r="K45" t="n">
-        <v>29.92700729927013</v>
+        <v>24.99999999999992</v>
       </c>
       <c r="L45" t="n">
         <v>8.957000000000001</v>
@@ -2630,7 +2652,7 @@
         <v>3.559999999999986</v>
       </c>
       <c r="K46" t="n">
-        <v>21.95121951219521</v>
+        <v>24.99999999999992</v>
       </c>
       <c r="L46" t="n">
         <v>8.978</v>
@@ -2681,7 +2703,7 @@
         <v>3.579999999999986</v>
       </c>
       <c r="K47" t="n">
-        <v>21.95121951219521</v>
+        <v>34.61538461538483</v>
       </c>
       <c r="L47" t="n">
         <v>8.99</v>
@@ -2732,7 +2754,7 @@
         <v>3.589999999999986</v>
       </c>
       <c r="K48" t="n">
-        <v>22.5806451612904</v>
+        <v>26.08695652173921</v>
       </c>
       <c r="L48" t="n">
         <v>9.009</v>
@@ -2783,7 +2805,7 @@
         <v>3.649999999999986</v>
       </c>
       <c r="K49" t="n">
-        <v>0</v>
+        <v>38.09523809523803</v>
       </c>
       <c r="L49" t="n">
         <v>9.014999999999999</v>
@@ -2834,7 +2856,7 @@
         <v>3.729999999999984</v>
       </c>
       <c r="K50" t="n">
-        <v>-6.086956521739037</v>
+        <v>-10.52631578947359</v>
       </c>
       <c r="L50" t="n">
         <v>9.023</v>
@@ -2885,7 +2907,7 @@
         <v>3.869999999999985</v>
       </c>
       <c r="K51" t="n">
-        <v>-20.00000000000011</v>
+        <v>-29.16666666666697</v>
       </c>
       <c r="L51" t="n">
         <v>9.004999999999999</v>
@@ -2936,7 +2958,7 @@
         <v>3.989999999999986</v>
       </c>
       <c r="K52" t="n">
-        <v>-21.25984251968524</v>
+        <v>-45.76271186440716</v>
       </c>
       <c r="L52" t="n">
         <v>8.978999999999999</v>
@@ -2987,7 +3009,7 @@
         <v>4.159999999999986</v>
       </c>
       <c r="K53" t="n">
-        <v>-9.219858156028458</v>
+        <v>-12.00000000000025</v>
       </c>
       <c r="L53" t="n">
         <v>8.968999999999999</v>
@@ -3038,7 +3060,7 @@
         <v>4.229999999999984</v>
       </c>
       <c r="K54" t="n">
-        <v>-11.72413793103453</v>
+        <v>-32.43243243243229</v>
       </c>
       <c r="L54" t="n">
         <v>8.952999999999999</v>
@@ -3089,7 +3111,7 @@
         <v>4.389999999999985</v>
       </c>
       <c r="K55" t="n">
-        <v>-3.184713375796121</v>
+        <v>-18.07228915662637</v>
       </c>
       <c r="L55" t="n">
         <v>8.945000000000002</v>
@@ -3140,7 +3162,7 @@
         <v>4.539999999999985</v>
       </c>
       <c r="K56" t="n">
-        <v>-5.590062111801248</v>
+        <v>-29.16666666666663</v>
       </c>
       <c r="L56" t="n">
         <v>8.915000000000003</v>
@@ -3191,7 +3213,7 @@
         <v>4.579999999999986</v>
       </c>
       <c r="K57" t="n">
-        <v>-12.65822784810136</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L57" t="n">
         <v>8.883000000000001</v>
@@ -3242,7 +3264,7 @@
         <v>4.639999999999986</v>
       </c>
       <c r="K58" t="n">
-        <v>-5.063291139240523</v>
+        <v>-21.21212121212112</v>
       </c>
       <c r="L58" t="n">
         <v>8.856000000000002</v>
@@ -3293,7 +3315,7 @@
         <v>4.719999999999986</v>
       </c>
       <c r="K59" t="n">
-        <v>-4.402515723270469</v>
+        <v>-5.050505050505112</v>
       </c>
       <c r="L59" t="n">
         <v>8.843</v>
@@ -3344,7 +3366,7 @@
         <v>4.809999999999986</v>
       </c>
       <c r="K60" t="n">
-        <v>-3.79746835443042</v>
+        <v>0</v>
       </c>
       <c r="L60" t="n">
         <v>8.828999999999999</v>
@@ -3395,7 +3417,7 @@
         <v>4.909999999999986</v>
       </c>
       <c r="K61" t="n">
-        <v>-5.128205128205143</v>
+        <v>23.91304347826094</v>
       </c>
       <c r="L61" t="n">
         <v>8.838999999999999</v>
@@ -3446,7 +3468,7 @@
         <v>4.919999999999986</v>
       </c>
       <c r="K62" t="n">
-        <v>-3.267973856209202</v>
+        <v>5.263157894736965</v>
       </c>
       <c r="L62" t="n">
         <v>8.859999999999998</v>
@@ -3497,7 +3519,7 @@
         <v>4.999999999999986</v>
       </c>
       <c r="K63" t="n">
-        <v>-8.750000000000046</v>
+        <v>3.896103896103806</v>
       </c>
       <c r="L63" t="n">
         <v>8.855999999999998</v>
@@ -3548,7 +3570,7 @@
         <v>5.049999999999986</v>
       </c>
       <c r="K64" t="n">
-        <v>-4.878048780487813</v>
+        <v>-12.1212121212121</v>
       </c>
       <c r="L64" t="n">
         <v>8.863999999999997</v>
@@ -3599,7 +3621,7 @@
         <v>5.099999999999987</v>
       </c>
       <c r="K65" t="n">
-        <v>-13.0434782608695</v>
+        <v>3.571428571428481</v>
       </c>
       <c r="L65" t="n">
         <v>8.850999999999996</v>
@@ -3650,7 +3672,7 @@
         <v>5.159999999999988</v>
       </c>
       <c r="K66" t="n">
-        <v>-21.24999999999997</v>
+        <v>0</v>
       </c>
       <c r="L66" t="n">
         <v>8.846999999999996</v>
@@ -3701,7 +3723,7 @@
         <v>5.159999999999988</v>
       </c>
       <c r="K67" t="n">
-        <v>-20.25316455696202</v>
+        <v>-11.5384615384616</v>
       </c>
       <c r="L67" t="n">
         <v>8.846999999999996</v>
@@ -3752,7 +3774,7 @@
         <v>5.169999999999987</v>
       </c>
       <c r="K68" t="n">
-        <v>-21.51898734177212</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L68" t="n">
         <v>8.839999999999996</v>
@@ -3803,7 +3825,7 @@
         <v>5.219999999999988</v>
       </c>
       <c r="K69" t="n">
-        <v>-14.64968152866231</v>
+        <v>-2.439024390243839</v>
       </c>
       <c r="L69" t="n">
         <v>8.829999999999997</v>
@@ -3854,7 +3876,7 @@
         <v>5.219999999999988</v>
       </c>
       <c r="K70" t="n">
-        <v>-10.06711409395973</v>
+        <v>-35.4838709677415</v>
       </c>
       <c r="L70" t="n">
         <v>8.828999999999997</v>
@@ -3905,7 +3927,7 @@
         <v>5.249999999999988</v>
       </c>
       <c r="K71" t="n">
-        <v>1.449275362318807</v>
+        <v>-21.21212121212118</v>
       </c>
       <c r="L71" t="n">
         <v>8.820999999999996</v>
@@ -3956,7 +3978,7 @@
         <v>5.289999999999988</v>
       </c>
       <c r="K72" t="n">
-        <v>13.84615384615394</v>
+        <v>17.24137931034491</v>
       </c>
       <c r="L72" t="n">
         <v>8.817999999999996</v>
@@ -4007,7 +4029,7 @@
         <v>5.289999999999988</v>
       </c>
       <c r="K73" t="n">
-        <v>0.8849557522125258</v>
+        <v>0</v>
       </c>
       <c r="L73" t="n">
         <v>8.822999999999997</v>
@@ -4058,7 +4080,7 @@
         <v>5.319999999999988</v>
       </c>
       <c r="K74" t="n">
-        <v>10.09174311926597</v>
+        <v>36.3636363636363</v>
       </c>
       <c r="L74" t="n">
         <v>8.825999999999997</v>
@@ -4109,7 +4131,7 @@
         <v>5.329999999999988</v>
       </c>
       <c r="K75" t="n">
-        <v>-4.255319148936255</v>
+        <v>88.2352941176473</v>
       </c>
       <c r="L75" t="n">
         <v>8.834999999999997</v>
@@ -4160,7 +4182,7 @@
         <v>5.349999999999987</v>
       </c>
       <c r="K76" t="n">
-        <v>11.11111111111106</v>
+        <v>68.42105263157954</v>
       </c>
       <c r="L76" t="n">
         <v>8.847999999999997</v>
@@ -4211,7 +4233,7 @@
         <v>5.349999999999987</v>
       </c>
       <c r="K77" t="n">
-        <v>16.88311688311695</v>
+        <v>77.77777777777821</v>
       </c>
       <c r="L77" t="n">
         <v>8.860999999999999</v>
@@ -4262,7 +4284,7 @@
         <v>5.379999999999987</v>
       </c>
       <c r="K78" t="n">
-        <v>13.51351351351346</v>
+        <v>75.00000000000028</v>
       </c>
       <c r="L78" t="n">
         <v>8.877999999999998</v>
@@ -4313,7 +4335,7 @@
         <v>5.399999999999986</v>
       </c>
       <c r="K79" t="n">
-        <v>0</v>
+        <v>55.55555555555599</v>
       </c>
       <c r="L79" t="n">
         <v>8.887999999999998</v>
@@ -4364,7 +4386,7 @@
         <v>5.409999999999986</v>
       </c>
       <c r="K80" t="n">
-        <v>16.66666666666662</v>
+        <v>50.00000000000055</v>
       </c>
       <c r="L80" t="n">
         <v>8.898999999999997</v>
@@ -4415,7 +4437,7 @@
         <v>5.489999999999986</v>
       </c>
       <c r="K81" t="n">
-        <v>-13.79310344827587</v>
+        <v>-20.00000000000071</v>
       </c>
       <c r="L81" t="n">
         <v>8.898999999999997</v>
@@ -4466,7 +4488,7 @@
         <v>5.589999999999986</v>
       </c>
       <c r="K82" t="n">
-        <v>4.477611940298413</v>
+        <v>19.99999999999976</v>
       </c>
       <c r="L82" t="n">
         <v>8.904999999999998</v>
@@ -4517,7 +4539,7 @@
         <v>5.669999999999986</v>
       </c>
       <c r="K83" t="n">
-        <v>4.477611940298413</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L83" t="n">
         <v>8.902999999999999</v>
@@ -4568,7 +4590,7 @@
         <v>5.709999999999987</v>
       </c>
       <c r="K84" t="n">
-        <v>3.030303030302965</v>
+        <v>-5.263157894736744</v>
       </c>
       <c r="L84" t="n">
         <v>8.901999999999999</v>
@@ -4619,7 +4641,7 @@
         <v>5.749999999999988</v>
       </c>
       <c r="K85" t="n">
-        <v>4.615384615384515</v>
+        <v>-10.00000000000022</v>
       </c>
       <c r="L85" t="n">
         <v>8.895999999999999</v>
@@ -4670,7 +4692,7 @@
         <v>5.799999999999986</v>
       </c>
       <c r="K86" t="n">
-        <v>6.250000000000157</v>
+        <v>-20</v>
       </c>
       <c r="L86" t="n">
         <v>8.886999999999999</v>
@@ -4721,7 +4743,7 @@
         <v>5.799999999999986</v>
       </c>
       <c r="K87" t="n">
-        <v>6.250000000000157</v>
+        <v>-28.57142857142839</v>
       </c>
       <c r="L87" t="n">
         <v>8.877999999999998</v>
@@ -4772,7 +4794,7 @@
         <v>5.839999999999987</v>
       </c>
       <c r="K88" t="n">
-        <v>1.492537313432804</v>
+        <v>-31.81818181818186</v>
       </c>
       <c r="L88" t="n">
         <v>8.861999999999998</v>
@@ -4823,7 +4845,7 @@
         <v>5.909999999999988</v>
       </c>
       <c r="K89" t="n">
-        <v>4.347826086956432</v>
+        <v>-15.99999999999996</v>
       </c>
       <c r="L89" t="n">
         <v>8.854999999999999</v>
@@ -4874,7 +4896,7 @@
         <v>5.909999999999988</v>
       </c>
       <c r="K90" t="n">
-        <v>4.347826086956432</v>
+        <v>0</v>
       </c>
       <c r="L90" t="n">
         <v>8.846999999999998</v>
@@ -4925,7 +4947,7 @@
         <v>5.919999999999987</v>
       </c>
       <c r="K91" t="n">
-        <v>1.492537313432804</v>
+        <v>-27.27272727272708</v>
       </c>
       <c r="L91" t="n">
         <v>8.847999999999997</v>
@@ -4976,7 +4998,7 @@
         <v>5.959999999999987</v>
       </c>
       <c r="K92" t="n">
-        <v>-10.44776119402992</v>
+        <v>-17.2413793103444</v>
       </c>
       <c r="L92" t="n">
         <v>8.834999999999997</v>
@@ -5027,7 +5049,7 @@
         <v>6.039999999999987</v>
       </c>
       <c r="K93" t="n">
-        <v>1.333333333333308</v>
+        <v>-3.030303030302965</v>
       </c>
       <c r="L93" t="n">
         <v>8.837999999999997</v>
@@ -5078,7 +5100,7 @@
         <v>6.049999999999986</v>
       </c>
       <c r="K94" t="n">
-        <v>-1.369863013698603</v>
+        <v>13.33333333333369</v>
       </c>
       <c r="L94" t="n">
         <v>8.837999999999997</v>
@@ -5129,7 +5151,7 @@
         <v>6.099999999999987</v>
       </c>
       <c r="K95" t="n">
-        <v>-9.090909090909133</v>
+        <v>13.33333333333302</v>
       </c>
       <c r="L95" t="n">
         <v>8.836999999999998</v>
@@ -5180,7 +5202,7 @@
         <v>6.149999999999986</v>
       </c>
       <c r="K96" t="n">
-        <v>-12.49999999999997</v>
+        <v>-2.857142857142799</v>
       </c>
       <c r="L96" t="n">
         <v>8.835999999999997</v>
@@ -5231,7 +5253,7 @@
         <v>6.189999999999987</v>
       </c>
       <c r="K97" t="n">
-        <v>-16.66666666666674</v>
+        <v>-2.857142857142799</v>
       </c>
       <c r="L97" t="n">
         <v>8.830999999999998</v>
@@ -5282,7 +5304,7 @@
         <v>6.209999999999987</v>
       </c>
       <c r="K98" t="n">
-        <v>-18.07228915662655</v>
+        <v>-20.00000000000024</v>
       </c>
       <c r="L98" t="n">
         <v>8.831999999999997</v>
@@ -5333,7 +5355,7 @@
         <v>6.279999999999985</v>
       </c>
       <c r="K99" t="n">
-        <v>-22.72727272727267</v>
+        <v>-35.13513513513511</v>
       </c>
       <c r="L99" t="n">
         <v>8.818999999999997</v>
@@ -5384,7 +5406,7 @@
         <v>6.309999999999985</v>
       </c>
       <c r="K100" t="n">
-        <v>-20</v>
+        <v>-28.20512820512828</v>
       </c>
       <c r="L100" t="n">
         <v>8.808999999999996</v>
@@ -5435,7 +5457,7 @@
         <v>6.359999999999983</v>
       </c>
       <c r="K101" t="n">
-        <v>-5.747126436781707</v>
+        <v>-5.000000000000377</v>
       </c>
       <c r="L101" t="n">
         <v>8.802999999999997</v>
@@ -5486,7 +5508,7 @@
         <v>6.359999999999983</v>
       </c>
       <c r="K102" t="n">
-        <v>-19.48051948051958</v>
+        <v>-31.25000000000077</v>
       </c>
       <c r="L102" t="n">
         <v>8.800999999999997</v>
@@ -5537,7 +5559,7 @@
         <v>6.409999999999982</v>
       </c>
       <c r="K103" t="n">
-        <v>-16.21621621621618</v>
+        <v>-44.44444444444499</v>
       </c>
       <c r="L103" t="n">
         <v>8.785999999999996</v>
@@ -5588,7 +5610,7 @@
         <v>6.519999999999982</v>
       </c>
       <c r="K104" t="n">
-        <v>-33.33333333333348</v>
+        <v>-52.38095238095278</v>
       </c>
       <c r="L104" t="n">
         <v>8.758999999999995</v>
@@ -5639,7 +5661,7 @@
         <v>6.529999999999982</v>
       </c>
       <c r="K105" t="n">
-        <v>-28.20512820512828</v>
+        <v>-42.10526315789528</v>
       </c>
       <c r="L105" t="n">
         <v>8.737999999999996</v>
@@ -5690,7 +5712,7 @@
         <v>6.639999999999983</v>
       </c>
       <c r="K106" t="n">
-        <v>-33.33333333333361</v>
+        <v>-51.1111111111117</v>
       </c>
       <c r="L106" t="n">
         <v>8.710999999999995</v>
@@ -5741,7 +5763,7 @@
         <v>6.649999999999983</v>
       </c>
       <c r="K107" t="n">
-        <v>-31.76470588235324</v>
+        <v>-54.54545454545509</v>
       </c>
       <c r="L107" t="n">
         <v>8.688999999999995</v>
@@ -5792,7 +5814,7 @@
         <v>6.659999999999984</v>
       </c>
       <c r="K108" t="n">
-        <v>-26.82926829268289</v>
+        <v>-42.10526315789488</v>
       </c>
       <c r="L108" t="n">
         <v>8.665999999999993</v>
@@ -5843,7 +5865,7 @@
         <v>6.669999999999984</v>
       </c>
       <c r="K109" t="n">
-        <v>-36.84210526315799</v>
+        <v>-50</v>
       </c>
       <c r="L109" t="n">
         <v>8.650999999999993</v>
@@ -5894,7 +5916,7 @@
         <v>6.829999999999984</v>
       </c>
       <c r="K110" t="n">
-        <v>-13.04347826086953</v>
+        <v>-14.89361702127626</v>
       </c>
       <c r="L110" t="n">
         <v>8.648999999999994</v>
@@ -5945,7 +5967,7 @@
         <v>6.859999999999985</v>
       </c>
       <c r="K111" t="n">
-        <v>-17.02127659574474</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L111" t="n">
         <v>8.638999999999992</v>
@@ -5996,7 +6018,7 @@
         <v>6.999999999999984</v>
       </c>
       <c r="K112" t="n">
-        <v>-25.00000000000004</v>
+        <v>-32.2033898305083</v>
       </c>
       <c r="L112" t="n">
         <v>8.614999999999991</v>
@@ -6047,7 +6069,7 @@
         <v>7.079999999999984</v>
       </c>
       <c r="K113" t="n">
-        <v>-25.00000000000004</v>
+        <v>0</v>
       </c>
       <c r="L113" t="n">
         <v>8.603999999999992</v>
@@ -6098,7 +6120,7 @@
         <v>7.149999999999983</v>
       </c>
       <c r="K114" t="n">
-        <v>-18.18181818181834</v>
+        <v>9.677419354838488</v>
       </c>
       <c r="L114" t="n">
         <v>8.610999999999994</v>
@@ -6149,7 +6171,7 @@
         <v>7.169999999999984</v>
       </c>
       <c r="K115" t="n">
-        <v>-12.14953271028032</v>
+        <v>35.84905660377375</v>
       </c>
       <c r="L115" t="n">
         <v>8.618999999999993</v>
@@ -6200,7 +6222,7 @@
         <v>7.189999999999985</v>
       </c>
       <c r="K116" t="n">
-        <v>-9.615384615384761</v>
+        <v>29.62962962962951</v>
       </c>
       <c r="L116" t="n">
         <v>8.635999999999992</v>
@@ -6251,7 +6273,7 @@
         <v>7.339999999999984</v>
       </c>
       <c r="K117" t="n">
-        <v>-18.26086956521736</v>
+        <v>0</v>
       </c>
       <c r="L117" t="n">
         <v>8.636999999999992</v>
@@ -6302,7 +6324,7 @@
         <v>7.489999999999982</v>
       </c>
       <c r="K118" t="n">
-        <v>-6.250000000000027</v>
+        <v>17.0731707317072</v>
       </c>
       <c r="L118" t="n">
         <v>8.651999999999992</v>
@@ -6353,7 +6375,7 @@
         <v>7.599999999999982</v>
       </c>
       <c r="K119" t="n">
-        <v>-9.090909090909188</v>
+        <v>-16.88311688311703</v>
       </c>
       <c r="L119" t="n">
         <v>8.654999999999992</v>
@@ -6404,7 +6426,7 @@
         <v>7.599999999999982</v>
       </c>
       <c r="K120" t="n">
-        <v>-11.62790697674424</v>
+        <v>-13.51351351351352</v>
       </c>
       <c r="L120" t="n">
         <v>8.641999999999992</v>
@@ -6455,7 +6477,7 @@
         <v>7.679999999999982</v>
       </c>
       <c r="K121" t="n">
-        <v>-9.090909090909042</v>
+        <v>17.64705882352935</v>
       </c>
       <c r="L121" t="n">
         <v>8.639999999999993</v>
@@ -6506,7 +6528,7 @@
         <v>7.689999999999982</v>
       </c>
       <c r="K122" t="n">
-        <v>-8.270676691729291</v>
+        <v>8.196721311475267</v>
       </c>
       <c r="L122" t="n">
         <v>8.652999999999993</v>
@@ -6557,7 +6579,7 @@
         <v>7.819999999999981</v>
       </c>
       <c r="K123" t="n">
-        <v>-13.47517730496452</v>
+        <v>-22.38805970149239</v>
       </c>
       <c r="L123" t="n">
         <v>8.644999999999992</v>
@@ -6608,7 +6630,7 @@
         <v>7.92999999999998</v>
       </c>
       <c r="K124" t="n">
-        <v>2.127659574468042</v>
+        <v>-7.894736842105369</v>
       </c>
       <c r="L124" t="n">
         <v>8.640999999999993</v>
@@ -6659,7 +6681,7 @@
         <v>7.93999999999998</v>
       </c>
       <c r="K125" t="n">
-        <v>2.127659574468042</v>
+        <v>-3.999999999999943</v>
       </c>
       <c r="L125" t="n">
         <v>8.635999999999992</v>
@@ -6710,7 +6732,7 @@
         <v>7.93999999999998</v>
       </c>
       <c r="K126" t="n">
-        <v>10.76923076923084</v>
+        <v>20</v>
       </c>
       <c r="L126" t="n">
         <v>8.632999999999992</v>
@@ -6761,7 +6783,7 @@
         <v>8.02999999999998</v>
       </c>
       <c r="K127" t="n">
-        <v>15.94202898550733</v>
+        <v>11.11111111111126</v>
       </c>
       <c r="L127" t="n">
         <v>8.653999999999993</v>
@@ -6812,7 +6834,7 @@
         <v>8.219999999999979</v>
       </c>
       <c r="K128" t="n">
-        <v>1.282051282051259</v>
+        <v>-3.225806451612848</v>
       </c>
       <c r="L128" t="n">
         <v>8.640999999999993</v>
@@ -6863,7 +6885,7 @@
         <v>8.409999999999979</v>
       </c>
       <c r="K129" t="n">
-        <v>11.49425287356321</v>
+        <v>20.98765432098773</v>
       </c>
       <c r="L129" t="n">
         <v>8.657999999999992</v>
@@ -6914,7 +6936,7 @@
         <v>8.409999999999979</v>
       </c>
       <c r="K130" t="n">
-        <v>2.531645569620208</v>
+        <v>12.3287671232877</v>
       </c>
       <c r="L130" t="n">
         <v>8.674999999999994</v>
@@ -6965,7 +6987,7 @@
         <v>8.409999999999979</v>
       </c>
       <c r="K131" t="n">
-        <v>4.516129032258101</v>
+        <v>11.11111111111117</v>
       </c>
       <c r="L131" t="n">
         <v>8.683999999999994</v>
@@ -7016,7 +7038,7 @@
         <v>8.409999999999979</v>
       </c>
       <c r="K132" t="n">
-        <v>14.89361702127658</v>
+        <v>35.59322033898301</v>
       </c>
       <c r="L132" t="n">
         <v>8.691999999999993</v>
@@ -7067,7 +7089,7 @@
         <v>8.409999999999979</v>
       </c>
       <c r="K133" t="n">
-        <v>9.774436090225528</v>
+        <v>20.83333333333332</v>
       </c>
       <c r="L133" t="n">
         <v>8.712999999999994</v>
@@ -7118,7 +7140,7 @@
         <v>8.409999999999979</v>
       </c>
       <c r="K134" t="n">
-        <v>4.761904761904816</v>
+        <v>19.14893617021278</v>
       </c>
       <c r="L134" t="n">
         <v>8.722999999999995</v>
@@ -7169,7 +7191,7 @@
         <v>8.409999999999979</v>
       </c>
       <c r="K135" t="n">
-        <v>3.225806451612848</v>
+        <v>19.14893617021278</v>
       </c>
       <c r="L135" t="n">
         <v>8.731999999999996</v>
@@ -7220,7 +7242,7 @@
         <v>8.409999999999979</v>
       </c>
       <c r="K136" t="n">
-        <v>4.918032786885313</v>
+        <v>0</v>
       </c>
       <c r="L136" t="n">
         <v>8.740999999999996</v>
@@ -7271,7 +7293,7 @@
         <v>8.429999999999978</v>
       </c>
       <c r="K137" t="n">
-        <v>17.4311926605505</v>
+        <v>80.95238095238128</v>
       </c>
       <c r="L137" t="n">
         <v>8.738999999999994</v>
@@ -7322,7 +7344,7 @@
         <v>8.429999999999978</v>
       </c>
       <c r="K138" t="n">
-        <v>4.255319148936286</v>
+        <v>-100</v>
       </c>
       <c r="L138" t="n">
         <v>8.755999999999995</v>
@@ -7373,7 +7395,7 @@
         <v>8.429999999999978</v>
       </c>
       <c r="K139" t="n">
-        <v>18.07228915662662</v>
+        <v>-100</v>
       </c>
       <c r="L139" t="n">
         <v>8.753999999999994</v>
@@ -7424,7 +7446,7 @@
         <v>8.629999999999979</v>
       </c>
       <c r="K140" t="n">
-        <v>-4.854368932038915</v>
+        <v>-100</v>
       </c>
       <c r="L140" t="n">
         <v>8.731999999999992</v>
@@ -7475,7 +7497,7 @@
         <v>8.809999999999981</v>
       </c>
       <c r="K141" t="n">
-        <v>4.424778761062013</v>
+        <v>-9.999999999999734</v>
       </c>
       <c r="L141" t="n">
         <v>8.727999999999991</v>
@@ -7526,7 +7548,7 @@
         <v>8.819999999999981</v>
       </c>
       <c r="K142" t="n">
-        <v>2.654867256637271</v>
+        <v>-12.1951219512192</v>
       </c>
       <c r="L142" t="n">
         <v>8.722999999999992</v>
@@ -7577,7 +7599,7 @@
         <v>8.829999999999982</v>
       </c>
       <c r="K143" t="n">
-        <v>14.85148514851469</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L143" t="n">
         <v>8.716999999999992</v>
@@ -7628,7 +7650,7 @@
         <v>8.829999999999982</v>
       </c>
       <c r="K144" t="n">
-        <v>4.444444444444339</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L144" t="n">
         <v>8.710999999999991</v>
@@ -7679,7 +7701,7 @@
         <v>8.889999999999981</v>
       </c>
       <c r="K145" t="n">
-        <v>-3.157894736842035</v>
+        <v>-24.99999999999972</v>
       </c>
       <c r="L145" t="n">
         <v>8.698999999999991</v>
@@ -7730,7 +7752,7 @@
         <v>8.889999999999981</v>
       </c>
       <c r="K146" t="n">
-        <v>-3.157894736842035</v>
+        <v>-21.73913043478241</v>
       </c>
       <c r="L146" t="n">
         <v>8.686999999999991</v>
@@ -7781,7 +7803,7 @@
         <v>8.889999999999981</v>
       </c>
       <c r="K147" t="n">
-        <v>-13.95348837209291</v>
+        <v>-21.73913043478241</v>
       </c>
       <c r="L147" t="n">
         <v>8.676999999999991</v>
@@ -7832,7 +7854,7 @@
         <v>8.92999999999998</v>
       </c>
       <c r="K148" t="n">
-        <v>15.49295774647877</v>
+        <v>-12.00000000000006</v>
       </c>
       <c r="L148" t="n">
         <v>8.67099999999999</v>
@@ -7883,7 +7905,7 @@
         <v>8.92999999999998</v>
       </c>
       <c r="K149" t="n">
-        <v>-15.38461538461536</v>
+        <v>46.66666666666674</v>
       </c>
       <c r="L149" t="n">
         <v>8.66499999999999</v>
@@ -7934,7 +7956,7 @@
         <v>8.92999999999998</v>
       </c>
       <c r="K150" t="n">
-        <v>-15.38461538461536</v>
+        <v>-33.33333333333432</v>
       </c>
       <c r="L150" t="n">
         <v>8.678999999999991</v>
@@ -7985,7 +8007,7 @@
         <v>8.92999999999998</v>
       </c>
       <c r="K151" t="n">
-        <v>-15.38461538461536</v>
+        <v>-27.27272727272845</v>
       </c>
       <c r="L151" t="n">
         <v>8.674999999999992</v>
@@ -8036,7 +8058,7 @@
         <v>8.989999999999981</v>
       </c>
       <c r="K152" t="n">
-        <v>-24.13793103448278</v>
+        <v>-50.00000000000055</v>
       </c>
       <c r="L152" t="n">
         <v>8.665999999999991</v>
@@ -8087,7 +8109,7 @@
         <v>9.00999999999998</v>
       </c>
       <c r="K153" t="n">
-        <v>-26.66666666666663</v>
+        <v>-55.55555555555599</v>
       </c>
       <c r="L153" t="n">
         <v>8.65599999999999</v>
@@ -8138,7 +8160,7 @@
         <v>9.02999999999998</v>
       </c>
       <c r="K154" t="n">
-        <v>-29.03225806451604</v>
+        <v>-42.85714285714358</v>
       </c>
       <c r="L154" t="n">
         <v>8.643999999999989</v>
@@ -8189,7 +8211,7 @@
         <v>9.03999999999998</v>
       </c>
       <c r="K155" t="n">
-        <v>-26.98412698412694</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L155" t="n">
         <v>8.63899999999999</v>
@@ -8240,7 +8262,7 @@
         <v>9.03999999999998</v>
       </c>
       <c r="K156" t="n">
-        <v>-26.98412698412694</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L156" t="n">
         <v>8.63399999999999</v>
@@ -8291,7 +8313,7 @@
         <v>9.129999999999979</v>
       </c>
       <c r="K157" t="n">
-        <v>-8.57142857142863</v>
+        <v>0</v>
       </c>
       <c r="L157" t="n">
         <v>8.637999999999989</v>
@@ -8342,7 +8364,7 @@
         <v>9.139999999999979</v>
       </c>
       <c r="K158" t="n">
-        <v>-9.859154929577493</v>
+        <v>-4.761904761904681</v>
       </c>
       <c r="L158" t="n">
         <v>8.63699999999999</v>
@@ -8393,7 +8415,7 @@
         <v>9.139999999999979</v>
       </c>
       <c r="K159" t="n">
-        <v>-9.859154929577493</v>
+        <v>-4.761904761904681</v>
       </c>
       <c r="L159" t="n">
         <v>8.63599999999999</v>
@@ -8444,7 +8466,7 @@
         <v>9.139999999999979</v>
       </c>
       <c r="K160" t="n">
-        <v>25.49019607843154</v>
+        <v>-4.761904761904681</v>
       </c>
       <c r="L160" t="n">
         <v>8.634999999999991</v>
@@ -8495,7 +8517,7 @@
         <v>9.219999999999979</v>
       </c>
       <c r="K161" t="n">
-        <v>-31.70731707317105</v>
+        <v>-13.04347826086937</v>
       </c>
       <c r="L161" t="n">
         <v>8.625999999999991</v>
@@ -8546,7 +8568,7 @@
         <v>9.319999999999979</v>
       </c>
       <c r="K162" t="n">
-        <v>-4.000000000000284</v>
+        <v>29.0322580645162</v>
       </c>
       <c r="L162" t="n">
         <v>8.63299999999999</v>
@@ -8597,7 +8619,7 @@
         <v>9.33999999999998</v>
       </c>
       <c r="K163" t="n">
-        <v>1.960784313725805</v>
+        <v>41.93548387096793</v>
       </c>
       <c r="L163" t="n">
         <v>8.643999999999991</v>
@@ -8648,7 +8670,7 @@
         <v>9.33999999999998</v>
       </c>
       <c r="K164" t="n">
-        <v>1.960784313725805</v>
+        <v>40.00000000000023</v>
       </c>
       <c r="L164" t="n">
         <v>8.656999999999993</v>
@@ -8699,7 +8721,7 @@
         <v>9.35999999999998</v>
       </c>
       <c r="K165" t="n">
-        <v>19.14893617021278</v>
+        <v>43.75000000000014</v>
       </c>
       <c r="L165" t="n">
         <v>8.670999999999992</v>
@@ -8750,7 +8772,7 @@
         <v>9.42999999999998</v>
       </c>
       <c r="K166" t="n">
-        <v>29.6296296296297</v>
+        <v>40.00000000000023</v>
       </c>
       <c r="L166" t="n">
         <v>8.691999999999991</v>
@@ -8801,7 +8823,7 @@
         <v>9.42999999999998</v>
       </c>
       <c r="K167" t="n">
-        <v>29.6296296296297</v>
+        <v>44.82758620689668</v>
       </c>
       <c r="L167" t="n">
         <v>8.70399999999999</v>
@@ -8852,7 +8874,7 @@
         <v>9.42999999999998</v>
       </c>
       <c r="K168" t="n">
-        <v>24.0000000000002</v>
+        <v>44.82758620689668</v>
       </c>
       <c r="L168" t="n">
         <v>8.71699999999999</v>
@@ -8903,7 +8925,7 @@
         <v>9.43999999999998</v>
       </c>
       <c r="K169" t="n">
-        <v>25.49019607843154</v>
+        <v>46.66666666666674</v>
       </c>
       <c r="L169" t="n">
         <v>8.730999999999991</v>
@@ -8954,7 +8976,7 @@
         <v>9.479999999999979</v>
       </c>
       <c r="K170" t="n">
-        <v>30.90909090909096</v>
+        <v>100</v>
       </c>
       <c r="L170" t="n">
         <v>8.74899999999999</v>
@@ -9005,7 +9027,7 @@
         <v>9.489999999999979</v>
       </c>
       <c r="K171" t="n">
-        <v>32.14285714285717</v>
+        <v>100</v>
       </c>
       <c r="L171" t="n">
         <v>8.775999999999989</v>
@@ -9056,7 +9078,7 @@
         <v>9.549999999999978</v>
       </c>
       <c r="K172" t="n">
-        <v>32.14285714285759</v>
+        <v>42.85714285714334</v>
       </c>
       <c r="L172" t="n">
         <v>8.786999999999988</v>
@@ -9107,7 +9129,7 @@
         <v>9.549999999999978</v>
       </c>
       <c r="K173" t="n">
-        <v>37.03703703703741</v>
+        <v>42.85714285714334</v>
       </c>
       <c r="L173" t="n">
         <v>8.795999999999989</v>
@@ -9158,7 +9180,7 @@
         <v>9.589999999999977</v>
       </c>
       <c r="K174" t="n">
-        <v>46.42857142857164</v>
+        <v>47.82608695652214</v>
       </c>
       <c r="L174" t="n">
         <v>8.808999999999989</v>
@@ -9209,7 +9231,7 @@
         <v>9.599999999999977</v>
       </c>
       <c r="K175" t="n">
-        <v>46.42857142857164</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L175" t="n">
         <v>8.820999999999987</v>
@@ -9260,7 +9282,7 @@
         <v>9.609999999999976</v>
       </c>
       <c r="K176" t="n">
-        <v>47.36842105263177</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L176" t="n">
         <v>8.826999999999988</v>
@@ -9311,7 +9333,7 @@
         <v>9.629999999999978</v>
       </c>
       <c r="K177" t="n">
-        <v>40.00000000000036</v>
+        <v>40.00000000000053</v>
       </c>
       <c r="L177" t="n">
         <v>8.834999999999988</v>
@@ -9362,7 +9384,7 @@
         <v>9.629999999999978</v>
       </c>
       <c r="K178" t="n">
-        <v>42.85714285714317</v>
+        <v>36.84210526315849</v>
       </c>
       <c r="L178" t="n">
         <v>8.842999999999988</v>
@@ -9413,7 +9435,7 @@
         <v>9.739999999999979</v>
       </c>
       <c r="K179" t="n">
-        <v>16.66666666666662</v>
+        <v>-30.76923076923082</v>
       </c>
       <c r="L179" t="n">
         <v>8.838999999999988</v>
@@ -9464,7 +9486,7 @@
         <v>9.739999999999979</v>
       </c>
       <c r="K180" t="n">
-        <v>16.66666666666662</v>
+        <v>-35.99999999999994</v>
       </c>
       <c r="L180" t="n">
         <v>8.830999999999987</v>
@@ -9515,7 +9537,7 @@
         <v>9.779999999999978</v>
       </c>
       <c r="K181" t="n">
-        <v>25.00000000000016</v>
+        <v>-30.43478260869572</v>
       </c>
       <c r="L181" t="n">
         <v>8.817999999999987</v>
@@ -9566,7 +9588,7 @@
         <v>9.779999999999978</v>
       </c>
       <c r="K182" t="n">
-        <v>8.695652173913262</v>
+        <v>-30.43478260869572</v>
       </c>
       <c r="L182" t="n">
         <v>8.810999999999989</v>
@@ -9617,7 +9639,7 @@
         <v>9.779999999999978</v>
       </c>
       <c r="K183" t="n">
-        <v>4.545454545454472</v>
+        <v>-57.89473684210458</v>
       </c>
       <c r="L183" t="n">
         <v>8.80399999999999</v>
@@ -9668,7 +9690,7 @@
         <v>9.799999999999978</v>
       </c>
       <c r="K184" t="n">
-        <v>0</v>
+        <v>-69.99999999999902</v>
       </c>
       <c r="L184" t="n">
         <v>8.790999999999988</v>
@@ -9719,7 +9741,7 @@
         <v>9.959999999999976</v>
       </c>
       <c r="K185" t="n">
-        <v>23.33333333333328</v>
+        <v>2.857142857142799</v>
       </c>
       <c r="L185" t="n">
         <v>8.792999999999989</v>
@@ -9770,7 +9792,7 @@
         <v>9.959999999999976</v>
       </c>
       <c r="K186" t="n">
-        <v>13.20754716981114</v>
+        <v>-3.03030303030352</v>
       </c>
       <c r="L186" t="n">
         <v>8.79399999999999</v>
@@ -9821,7 +9843,7 @@
         <v>9.969999999999978</v>
       </c>
       <c r="K187" t="n">
-        <v>14.8148148148149</v>
+        <v>0</v>
       </c>
       <c r="L187" t="n">
         <v>8.79399999999999</v>
@@ -9872,7 +9894,7 @@
         <v>9.979999999999979</v>
       </c>
       <c r="K188" t="n">
-        <v>12.72727272727248</v>
+        <v>41.66666666666648</v>
       </c>
       <c r="L188" t="n">
         <v>8.79299999999999</v>
@@ -9923,7 +9945,7 @@
         <v>10.00999999999998</v>
       </c>
       <c r="K189" t="n">
-        <v>15.78947368421049</v>
+        <v>48.14814814814819</v>
       </c>
       <c r="L189" t="n">
         <v>8.805999999999992</v>
@@ -9974,7 +9996,7 @@
         <v>10.04999999999998</v>
       </c>
       <c r="K190" t="n">
-        <v>15.78947368421049</v>
+        <v>77.77777777777705</v>
       </c>
       <c r="L190" t="n">
         <v>8.822999999999992</v>
@@ -10025,7 +10047,7 @@
         <v>10.04999999999998</v>
       </c>
       <c r="K191" t="n">
-        <v>14.28571428571428</v>
+        <v>77.77777777777705</v>
       </c>
       <c r="L191" t="n">
         <v>8.843999999999991</v>
@@ -10076,7 +10098,7 @@
         <v>10.07999999999998</v>
       </c>
       <c r="K192" t="n">
-        <v>32.07547169811302</v>
+        <v>79.9999999999994</v>
       </c>
       <c r="L192" t="n">
         <v>8.867999999999991</v>
@@ -10127,7 +10149,7 @@
         <v>10.07999999999998</v>
       </c>
       <c r="K193" t="n">
-        <v>32.07547169811302</v>
+        <v>92.85714285714181</v>
       </c>
       <c r="L193" t="n">
         <v>8.891999999999991</v>
@@ -10178,7 +10200,7 @@
         <v>10.07999999999998</v>
       </c>
       <c r="K194" t="n">
-        <v>26.53061224489792</v>
+        <v>83.33333333333137</v>
       </c>
       <c r="L194" t="n">
         <v>8.917999999999989</v>
@@ -10229,7 +10251,7 @@
         <v>10.14999999999998</v>
       </c>
       <c r="K195" t="n">
-        <v>9.09090909090915</v>
+        <v>15.78947368421072</v>
       </c>
       <c r="L195" t="n">
         <v>8.920999999999989</v>
@@ -10280,7 +10302,7 @@
         <v>10.21999999999998</v>
       </c>
       <c r="K196" t="n">
-        <v>18.03278688524596</v>
+        <v>35.99999999999943</v>
       </c>
       <c r="L196" t="n">
         <v>8.930999999999989</v>
@@ -10331,7 +10353,7 @@
         <v>10.21999999999998</v>
       </c>
       <c r="K197" t="n">
-        <v>15.25423728813548</v>
+        <v>41.66666666666691</v>
       </c>
       <c r="L197" t="n">
         <v>8.939999999999989</v>
@@ -10382,7 +10404,7 @@
         <v>10.21999999999998</v>
       </c>
       <c r="K198" t="n">
-        <v>15.25423728813548</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L198" t="n">
         <v>8.949999999999989</v>
@@ -10433,7 +10455,7 @@
         <v>10.21999999999998</v>
       </c>
       <c r="K199" t="n">
-        <v>41.6666666666667</v>
+        <v>17.6470588235299</v>
       </c>
       <c r="L199" t="n">
         <v>8.956999999999988</v>
@@ -10484,7 +10506,7 @@
         <v>10.34999999999998</v>
       </c>
       <c r="K200" t="n">
-        <v>11.47540983606556</v>
+        <v>-33.33333333333294</v>
       </c>
       <c r="L200" t="n">
         <v>8.946999999999989</v>
@@ -10535,7 +10557,7 @@
         <v>10.35999999999998</v>
       </c>
       <c r="K201" t="n">
-        <v>17.24137931034466</v>
+        <v>-50</v>
       </c>
       <c r="L201" t="n">
         <v>8.935999999999989</v>
@@ -10586,7 +10608,7 @@
         <v>10.46999999999998</v>
       </c>
       <c r="K202" t="n">
-        <v>-1.449275362318803</v>
+        <v>-64.102564102564</v>
       </c>
       <c r="L202" t="n">
         <v>8.910999999999989</v>
@@ -10637,7 +10659,7 @@
         <v>10.54999999999998</v>
       </c>
       <c r="K203" t="n">
-        <v>9.090909090909092</v>
+        <v>-36.17021276595738</v>
       </c>
       <c r="L203" t="n">
         <v>8.893999999999988</v>
@@ -10688,7 +10710,7 @@
         <v>10.62999999999998</v>
       </c>
       <c r="K204" t="n">
-        <v>1.204819277108403</v>
+        <v>-37.49999999999991</v>
       </c>
       <c r="L204" t="n">
         <v>8.868999999999989</v>
@@ -10739,7 +10761,7 @@
         <v>10.63999999999998</v>
       </c>
       <c r="K205" t="n">
-        <v>-20.58823529411731</v>
+        <v>-57.14285714285721</v>
       </c>
       <c r="L205" t="n">
         <v>8.851999999999988</v>
@@ -10790,7 +10812,7 @@
         <v>10.75999999999998</v>
       </c>
       <c r="K206" t="n">
-        <v>-32.49999999999973</v>
+        <v>-66.66666666666677</v>
       </c>
       <c r="L206" t="n">
         <v>8.815999999999988</v>
@@ -10841,7 +10863,7 @@
         <v>10.84999999999998</v>
       </c>
       <c r="K207" t="n">
-        <v>-20.45454545454552</v>
+        <v>-42.85714285714302</v>
       </c>
       <c r="L207" t="n">
         <v>8.788999999999989</v>
@@ -10892,7 +10914,7 @@
         <v>10.84999999999998</v>
       </c>
       <c r="K208" t="n">
-        <v>-19.5402298850574</v>
+        <v>-42.85714285714302</v>
       </c>
       <c r="L208" t="n">
         <v>8.76199999999999</v>
@@ -10943,7 +10965,7 @@
         <v>10.93999999999998</v>
       </c>
       <c r="K209" t="n">
-        <v>-31.18279569892478</v>
+        <v>-38.9830508474577</v>
       </c>
       <c r="L209" t="n">
         <v>8.725999999999988</v>
@@ -10994,7 +11016,7 @@
         <v>10.94999999999998</v>
       </c>
       <c r="K210" t="n">
-        <v>-37.77777777777767</v>
+        <v>-38.9830508474577</v>
       </c>
       <c r="L210" t="n">
         <v>8.701999999999988</v>
@@ -11045,7 +11067,7 @@
         <v>10.98999999999998</v>
       </c>
       <c r="K211" t="n">
-        <v>-40.42553191489346</v>
+        <v>-30.76923076923082</v>
       </c>
       <c r="L211" t="n">
         <v>8.674999999999988</v>
@@ -11096,7 +11118,7 @@
         <v>10.98999999999998</v>
       </c>
       <c r="K212" t="n">
-        <v>-45.05494505494506</v>
+        <v>-54.54545454545465</v>
       </c>
       <c r="L212" t="n">
         <v>8.658999999999988</v>
@@ -11147,7 +11169,7 @@
         <v>10.98999999999998</v>
       </c>
       <c r="K213" t="n">
-        <v>-45.05494505494506</v>
+        <v>-44.44444444444456</v>
       </c>
       <c r="L213" t="n">
         <v>8.634999999999989</v>
@@ -11198,7 +11220,7 @@
         <v>10.99999999999998</v>
       </c>
       <c r="K214" t="n">
-        <v>-45.65217391304348</v>
+        <v>-50</v>
       </c>
       <c r="L214" t="n">
         <v>8.61799999999999</v>
@@ -11249,7 +11271,7 @@
         <v>11.01999999999998</v>
       </c>
       <c r="K215" t="n">
-        <v>-37.93103448275866</v>
+        <v>-15.38461538461517</v>
       </c>
       <c r="L215" t="n">
         <v>8.601999999999988</v>
@@ -11300,7 +11322,7 @@
         <v>11.04999999999998</v>
       </c>
       <c r="K216" t="n">
-        <v>-51.80722891566283</v>
+        <v>-80.00000000000036</v>
       </c>
       <c r="L216" t="n">
         <v>8.594999999999988</v>
@@ -11351,7 +11373,7 @@
         <v>11.06999999999998</v>
       </c>
       <c r="K217" t="n">
-        <v>-48.23529411764699</v>
+        <v>-63.6363636363629</v>
       </c>
       <c r="L217" t="n">
         <v>8.580999999999989</v>
@@ -11402,7 +11424,7 @@
         <v>11.07999999999998</v>
       </c>
       <c r="K218" t="n">
-        <v>-46.51162790697672</v>
+        <v>-28.57142857142785</v>
       </c>
       <c r="L218" t="n">
         <v>8.567999999999987</v>
@@ -11453,7 +11475,7 @@
         <v>11.08999999999998</v>
       </c>
       <c r="K219" t="n">
-        <v>-47.12643678160916</v>
+        <v>-28.57142857142785</v>
       </c>
       <c r="L219" t="n">
         <v>8.562999999999988</v>
@@ -11504,7 +11526,7 @@
         <v>11.08999999999998</v>
       </c>
       <c r="K220" t="n">
-        <v>-37.83783783783774</v>
+        <v>0</v>
       </c>
       <c r="L220" t="n">
         <v>8.558999999999989</v>
@@ -11555,7 +11577,7 @@
         <v>11.11999999999998</v>
       </c>
       <c r="K221" t="n">
-        <v>-39.47368421052633</v>
+        <v>-23.0769230769235</v>
       </c>
       <c r="L221" t="n">
         <v>8.555999999999989</v>
@@ -11606,7 +11628,7 @@
         <v>11.11999999999998</v>
       </c>
       <c r="K222" t="n">
-        <v>-29.23076923076933</v>
+        <v>-23.0769230769235</v>
       </c>
       <c r="L222" t="n">
         <v>8.552999999999988</v>
@@ -11657,7 +11679,7 @@
         <v>11.13999999999998</v>
       </c>
       <c r="K223" t="n">
-        <v>-49.15254237288138</v>
+        <v>-28.57142857142875</v>
       </c>
       <c r="L223" t="n">
         <v>8.547999999999989</v>
@@ -11708,7 +11730,7 @@
         <v>11.14999999999998</v>
       </c>
       <c r="K224" t="n">
-        <v>-38.46153846153857</v>
+        <v>-38.46153846153825</v>
       </c>
       <c r="L224" t="n">
         <v>8.544999999999989</v>
@@ -11759,7 +11781,7 @@
         <v>11.19999999999998</v>
       </c>
       <c r="K225" t="n">
-        <v>-46.42857142857135</v>
+        <v>-46.66666666666556</v>
       </c>
       <c r="L225" t="n">
         <v>8.534999999999988</v>
@@ -11810,7 +11832,7 @@
         <v>11.21999999999998</v>
       </c>
       <c r="K226" t="n">
-        <v>-26.08695652173901</v>
+        <v>-46.6666666666673</v>
       </c>
       <c r="L226" t="n">
         <v>8.529999999999987</v>
@@ -11861,7 +11883,7 @@
         <v>11.29999999999998</v>
       </c>
       <c r="K227" t="n">
-        <v>-28.88888888888872</v>
+        <v>0</v>
       </c>
       <c r="L227" t="n">
         <v>8.530999999999986</v>
@@ -11912,7 +11934,7 @@
         <v>11.37999999999998</v>
       </c>
       <c r="K228" t="n">
-        <v>-39.62264150943383</v>
+        <v>-24.13793103448293</v>
       </c>
       <c r="L228" t="n">
         <v>8.522999999999985</v>
@@ -11963,7 +11985,7 @@
         <v>11.44999999999998</v>
       </c>
       <c r="K229" t="n">
-        <v>-9.803921568627246</v>
+        <v>0</v>
       </c>
       <c r="L229" t="n">
         <v>8.522999999999985</v>
@@ -12014,7 +12036,7 @@
         <v>11.44999999999998</v>
       </c>
       <c r="K230" t="n">
-        <v>-7.999999999999829</v>
+        <v>9.090909090909483</v>
       </c>
       <c r="L230" t="n">
         <v>8.522999999999985</v>
@@ -12065,7 +12087,7 @@
         <v>11.45999999999998</v>
       </c>
       <c r="K231" t="n">
-        <v>2.127659574468037</v>
+        <v>11.76470588235328</v>
       </c>
       <c r="L231" t="n">
         <v>8.526999999999983</v>
@@ -12116,7 +12138,7 @@
         <v>11.45999999999998</v>
       </c>
       <c r="K232" t="n">
-        <v>2.127659574468037</v>
+        <v>18.75000000000025</v>
       </c>
       <c r="L232" t="n">
         <v>8.530999999999983</v>
@@ -12167,7 +12189,7 @@
         <v>11.52999999999998</v>
       </c>
       <c r="K233" t="n">
-        <v>-11.11111111111118</v>
+        <v>-5.263157894736744</v>
       </c>
       <c r="L233" t="n">
         <v>8.529999999999983</v>
@@ -12218,7 +12240,7 @@
         <v>11.61999999999998</v>
       </c>
       <c r="K234" t="n">
-        <v>6.45161290322566</v>
+        <v>28.57142857142839</v>
       </c>
       <c r="L234" t="n">
         <v>8.536999999999983</v>
@@ -12269,7 +12291,7 @@
         <v>11.61999999999998</v>
       </c>
       <c r="K235" t="n">
-        <v>3.333333333333254</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L235" t="n">
         <v>8.548999999999984</v>
@@ -12320,7 +12342,7 @@
         <v>11.69999999999998</v>
       </c>
       <c r="K236" t="n">
-        <v>-4.615384615384515</v>
+        <v>-15.00000000000011</v>
       </c>
       <c r="L236" t="n">
         <v>8.550999999999984</v>
@@ -12371,7 +12393,7 @@
         <v>11.69999999999998</v>
       </c>
       <c r="K237" t="n">
-        <v>-7.936507936508062</v>
+        <v>6.249999999999861</v>
       </c>
       <c r="L237" t="n">
         <v>8.544999999999984</v>
@@ -12422,7 +12444,7 @@
         <v>11.71999999999998</v>
       </c>
       <c r="K238" t="n">
-        <v>-12.50000000000004</v>
+        <v>-25.92592592592607</v>
       </c>
       <c r="L238" t="n">
         <v>8.544999999999984</v>
@@ -12473,7 +12495,7 @@
         <v>11.74999999999998</v>
       </c>
       <c r="K239" t="n">
-        <v>-15.15151515151513</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L239" t="n">
         <v>8.534999999999986</v>
@@ -12524,7 +12546,7 @@
         <v>11.74999999999998</v>
       </c>
       <c r="K240" t="n">
-        <v>-15.15151515151513</v>
+        <v>-37.93103448275853</v>
       </c>
       <c r="L240" t="n">
         <v>8.524999999999986</v>
@@ -12575,7 +12597,7 @@
         <v>11.76999999999998</v>
       </c>
       <c r="K241" t="n">
-        <v>-13.84615384615386</v>
+        <v>-41.93548387096793</v>
       </c>
       <c r="L241" t="n">
         <v>8.511999999999986</v>
@@ -12626,7 +12648,7 @@
         <v>11.80999999999998</v>
       </c>
       <c r="K242" t="n">
-        <v>-18.84057971014484</v>
+        <v>-35.71428571428567</v>
       </c>
       <c r="L242" t="n">
         <v>8.494999999999987</v>
@@ -12677,7 +12699,7 @@
         <v>11.91999999999998</v>
       </c>
       <c r="K243" t="n">
-        <v>0</v>
+        <v>-26.66666666666678</v>
       </c>
       <c r="L243" t="n">
         <v>8.495999999999988</v>
@@ -12728,7 +12750,7 @@
         <v>11.92999999999998</v>
       </c>
       <c r="K244" t="n">
-        <v>-2.564102564102518</v>
+        <v>-29.0322580645162</v>
       </c>
       <c r="L244" t="n">
         <v>8.486999999999988</v>
@@ -12779,7 +12801,7 @@
         <v>11.93999999999998</v>
       </c>
       <c r="K245" t="n">
-        <v>2.702702702702651</v>
+        <v>-8.33333333333321</v>
       </c>
       <c r="L245" t="n">
         <v>8.476999999999986</v>
@@ -12830,7 +12852,7 @@
         <v>12.01999999999998</v>
       </c>
       <c r="K246" t="n">
-        <v>-10.00000000000002</v>
+        <v>-31.25000000000003</v>
       </c>
       <c r="L246" t="n">
         <v>8.466999999999986</v>
@@ -12881,7 +12903,7 @@
         <v>12.03999999999998</v>
       </c>
       <c r="K247" t="n">
-        <v>-18.91891891891904</v>
+        <v>-18.75000000000025</v>
       </c>
       <c r="L247" t="n">
         <v>8.458999999999985</v>
@@ -12932,7 +12954,7 @@
         <v>12.03999999999998</v>
       </c>
       <c r="K248" t="n">
-        <v>-9.090909090909188</v>
+        <v>-10.34482758620732</v>
       </c>
       <c r="L248" t="n">
         <v>8.452999999999985</v>
@@ -12983,7 +13005,7 @@
         <v>12.06999999999998</v>
       </c>
       <c r="K249" t="n">
-        <v>-25.80645161290335</v>
+        <v>-18.75000000000025</v>
       </c>
       <c r="L249" t="n">
         <v>8.446999999999985</v>
@@ -13034,7 +13056,7 @@
         <v>12.06999999999998</v>
       </c>
       <c r="K250" t="n">
-        <v>-25.80645161290335</v>
+        <v>-13.33333333333318</v>
       </c>
       <c r="L250" t="n">
         <v>8.440999999999985</v>
@@ -13085,7 +13107,7 @@
         <v>12.09999999999998</v>
       </c>
       <c r="K251" t="n">
-        <v>-21.87500000000019</v>
+        <v>10.34482758620677</v>
       </c>
       <c r="L251" t="n">
         <v>8.439999999999987</v>
@@ -13136,7 +13158,7 @@
         <v>12.09999999999998</v>
       </c>
       <c r="K252" t="n">
-        <v>-21.87500000000019</v>
+        <v>-44.44444444444499</v>
       </c>
       <c r="L252" t="n">
         <v>8.442999999999987</v>
@@ -13187,7 +13209,7 @@
         <v>12.09999999999998</v>
       </c>
       <c r="K253" t="n">
-        <v>-12.28070175438608</v>
+        <v>-41.17647058823591</v>
       </c>
       <c r="L253" t="n">
         <v>8.434999999999986</v>
@@ -13238,7 +13260,7 @@
         <v>12.12999999999998</v>
       </c>
       <c r="K254" t="n">
-        <v>-25.49019607843127</v>
+        <v>-15.78947368421023</v>
       </c>
       <c r="L254" t="n">
         <v>8.430999999999987</v>
@@ -13289,7 +13311,7 @@
         <v>12.12999999999998</v>
       </c>
       <c r="K255" t="n">
-        <v>-25.49019607843127</v>
+        <v>45.45454545454633</v>
       </c>
       <c r="L255" t="n">
         <v>8.427999999999987</v>
@@ -13340,7 +13362,7 @@
         <v>12.14999999999998</v>
       </c>
       <c r="K256" t="n">
-        <v>-6.666666666666561</v>
+        <v>45.45454545454633</v>
       </c>
       <c r="L256" t="n">
         <v>8.434999999999988</v>
@@ -13391,7 +13413,7 @@
         <v>12.22999999999998</v>
       </c>
       <c r="K257" t="n">
-        <v>-20.75471698113206</v>
+        <v>-15.78947368421023</v>
       </c>
       <c r="L257" t="n">
         <v>8.431999999999988</v>
@@ -13442,7 +13464,7 @@
         <v>12.23999999999998</v>
       </c>
       <c r="K258" t="n">
-        <v>-19.23076923076924</v>
+        <v>-5.882352941176348</v>
       </c>
       <c r="L258" t="n">
         <v>8.427999999999988</v>
@@ -13493,7 +13515,7 @@
         <v>12.27999999999998</v>
       </c>
       <c r="K259" t="n">
-        <v>-20.75471698113233</v>
+        <v>-23.80952380952405</v>
       </c>
       <c r="L259" t="n">
         <v>8.422999999999988</v>
@@ -13544,7 +13566,7 @@
         <v>12.29999999999998</v>
       </c>
       <c r="K260" t="n">
-        <v>-23.63636363636382</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L260" t="n">
         <v>8.415999999999986</v>
@@ -13595,7 +13617,7 @@
         <v>12.29999999999998</v>
       </c>
       <c r="K261" t="n">
-        <v>-20.75471698113206</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L261" t="n">
         <v>8.405999999999986</v>
@@ -13646,7 +13668,7 @@
         <v>12.31999999999998</v>
       </c>
       <c r="K262" t="n">
-        <v>-17.64705882352945</v>
+        <v>-54.54545454545403</v>
       </c>
       <c r="L262" t="n">
         <v>8.393999999999986</v>
@@ -13697,7 +13719,7 @@
         <v>12.35999999999998</v>
       </c>
       <c r="K263" t="n">
-        <v>-36.36363636363658</v>
+        <v>-47.82608695652254</v>
       </c>
       <c r="L263" t="n">
         <v>8.385999999999985</v>
@@ -13748,7 +13770,7 @@
         <v>12.44999999999998</v>
       </c>
       <c r="K264" t="n">
-        <v>-11.53846153846168</v>
+        <v>-6.250000000000451</v>
       </c>
       <c r="L264" t="n">
         <v>8.383999999999983</v>
@@ -13799,7 +13821,7 @@
         <v>12.46999999999998</v>
       </c>
       <c r="K265" t="n">
-        <v>-5.660377358490452</v>
+        <v>-6.249999999999861</v>
       </c>
       <c r="L265" t="n">
         <v>8.383999999999983</v>
@@ -13850,7 +13872,7 @@
         <v>12.51999999999998</v>
       </c>
       <c r="K266" t="n">
-        <v>0</v>
+        <v>3.448275862068881</v>
       </c>
       <c r="L266" t="n">
         <v>8.376999999999983</v>
@@ -13901,7 +13923,7 @@
         <v>12.65999999999998</v>
       </c>
       <c r="K267" t="n">
-        <v>19.35483870967755</v>
+        <v>38.09523809523797</v>
       </c>
       <c r="L267" t="n">
         <v>8.391999999999982</v>
@@ -13952,7 +13974,7 @@
         <v>12.66999999999998</v>
       </c>
       <c r="K268" t="n">
-        <v>17.4603174603173</v>
+        <v>48.7179487179483</v>
       </c>
       <c r="L268" t="n">
         <v>8.40699999999998</v>
@@ -14003,7 +14025,7 @@
         <v>12.77999999999998</v>
       </c>
       <c r="K269" t="n">
-        <v>4.225352112675951</v>
+        <v>20.83333333333317</v>
       </c>
       <c r="L269" t="n">
         <v>8.414999999999981</v>
@@ -14054,7 +14076,7 @@
         <v>12.86999999999998</v>
       </c>
       <c r="K270" t="n">
-        <v>14.99999999999985</v>
+        <v>33.33333333333313</v>
       </c>
       <c r="L270" t="n">
         <v>8.43399999999998</v>
@@ -14105,7 +14127,7 @@
         <v>12.95999999999998</v>
       </c>
       <c r="K271" t="n">
-        <v>0</v>
+        <v>18.74999999999981</v>
       </c>
       <c r="L271" t="n">
         <v>8.443999999999981</v>
@@ -14156,7 +14178,7 @@
         <v>13.03999999999998</v>
       </c>
       <c r="K272" t="n">
-        <v>8.510638297872321</v>
+        <v>23.52941176470579</v>
       </c>
       <c r="L272" t="n">
         <v>8.463999999999981</v>
@@ -14207,7 +14229,7 @@
         <v>13.06999999999998</v>
       </c>
       <c r="K273" t="n">
-        <v>11.34020618556692</v>
+        <v>16.12903225806439</v>
       </c>
       <c r="L273" t="n">
         <v>8.482999999999981</v>
@@ -14258,7 +14280,7 @@
         <v>13.06999999999998</v>
       </c>
       <c r="K274" t="n">
-        <v>8.510638297872147</v>
+        <v>13.33333333333302</v>
       </c>
       <c r="L274" t="n">
         <v>8.492999999999981</v>
@@ -14309,7 +14331,7 @@
         <v>13.08999999999998</v>
       </c>
       <c r="K275" t="n">
-        <v>10.4166666666666</v>
+        <v>26.31578947368418</v>
       </c>
       <c r="L275" t="n">
         <v>8.502999999999981</v>
@@ -14360,7 +14382,7 @@
         <v>13.09999999999998</v>
       </c>
       <c r="K276" t="n">
-        <v>9.473684210526272</v>
+        <v>4.545454545454435</v>
       </c>
       <c r="L276" t="n">
         <v>8.518999999999981</v>
@@ -14411,7 +14433,7 @@
         <v>13.19999999999998</v>
       </c>
       <c r="K277" t="n">
-        <v>7.216494845360836</v>
+        <v>-13.20754716981105</v>
       </c>
       <c r="L277" t="n">
         <v>8.51099999999998</v>
@@ -14462,7 +14484,7 @@
         <v>13.26999999999998</v>
       </c>
       <c r="K278" t="n">
-        <v>14.56310679611635</v>
+        <v>22.44897959183669</v>
       </c>
       <c r="L278" t="n">
         <v>8.510999999999981</v>
@@ -14513,7 +14535,7 @@
         <v>13.26999999999998</v>
       </c>
       <c r="K279" t="n">
-        <v>19.19191919191914</v>
+        <v>4.999999999999911</v>
       </c>
       <c r="L279" t="n">
         <v>8.521999999999981</v>
@@ -14564,7 +14586,7 @@
         <v>13.36999999999998</v>
       </c>
       <c r="K280" t="n">
-        <v>28.97196261682242</v>
+        <v>51.21951219512214</v>
       </c>
       <c r="L280" t="n">
         <v>8.533999999999981</v>
@@ -14615,7 +14637,7 @@
         <v>13.37999999999998</v>
       </c>
       <c r="K281" t="n">
-        <v>29.6296296296296</v>
+        <v>41.17647058823548</v>
       </c>
       <c r="L281" t="n">
         <v>8.55599999999998</v>
@@ -14666,7 +14688,7 @@
         <v>13.48999999999998</v>
       </c>
       <c r="K282" t="n">
-        <v>19.65811965811949</v>
+        <v>0</v>
       </c>
       <c r="L282" t="n">
         <v>8.55899999999998</v>
@@ -14717,7 +14739,7 @@
         <v>13.48999999999998</v>
       </c>
       <c r="K283" t="n">
-        <v>16.81415929203529</v>
+        <v>0</v>
       </c>
       <c r="L283" t="n">
         <v>8.55899999999998</v>
@@ -14768,7 +14790,7 @@
         <v>13.50999999999998</v>
       </c>
       <c r="K284" t="n">
-        <v>7.547169811320733</v>
+        <v>-9.523809523809746</v>
       </c>
       <c r="L284" t="n">
         <v>8.556999999999979</v>
@@ -14819,7 +14841,7 @@
         <v>13.56999999999998</v>
       </c>
       <c r="K285" t="n">
-        <v>10.90909090909081</v>
+        <v>2.127659574468037</v>
       </c>
       <c r="L285" t="n">
         <v>8.55899999999998</v>
@@ -14870,7 +14892,7 @@
         <v>13.56999999999998</v>
       </c>
       <c r="K286" t="n">
-        <v>16.19047619047614</v>
+        <v>29.7297297297295</v>
       </c>
       <c r="L286" t="n">
         <v>8.559999999999979</v>
@@ -14921,7 +14943,7 @@
         <v>13.62999999999998</v>
       </c>
       <c r="K287" t="n">
-        <v>-3.092783505154749</v>
+        <v>-5.555555555555391</v>
       </c>
       <c r="L287" t="n">
         <v>8.56499999999998</v>
@@ -14972,7 +14994,7 @@
         <v>13.63999999999998</v>
       </c>
       <c r="K288" t="n">
-        <v>-3.092783505154571</v>
+        <v>-8.108108108107874</v>
       </c>
       <c r="L288" t="n">
         <v>8.56199999999998</v>
@@ -15023,7 +15045,7 @@
         <v>13.66999999999998</v>
       </c>
       <c r="K289" t="n">
-        <v>5.617977528089964</v>
+        <v>-53.33333333333326</v>
       </c>
       <c r="L289" t="n">
         <v>8.55599999999998</v>
@@ -15074,7 +15096,7 @@
         <v>13.68999999999998</v>
       </c>
       <c r="K290" t="n">
-        <v>-2.43902439024385</v>
+        <v>-48.38709677419358</v>
       </c>
       <c r="L290" t="n">
         <v>8.54199999999998</v>
@@ -15125,7 +15147,7 @@
         <v>13.68999999999998</v>
       </c>
       <c r="K291" t="n">
-        <v>9.589041095890444</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L291" t="n">
         <v>8.52699999999998</v>
@@ -15176,7 +15198,7 @@
         <v>13.71999999999998</v>
       </c>
       <c r="K292" t="n">
-        <v>2.941176470588174</v>
+        <v>-4.347826086956454</v>
       </c>
       <c r="L292" t="n">
         <v>8.525999999999978</v>
@@ -15227,7 +15249,7 @@
         <v>13.77999999999998</v>
       </c>
       <c r="K293" t="n">
-        <v>7.042253521126852</v>
+        <v>25.92592592592607</v>
       </c>
       <c r="L293" t="n">
         <v>8.530999999999981</v>
@@ -15278,7 +15300,7 @@
         <v>13.77999999999998</v>
       </c>
       <c r="K294" t="n">
-        <v>7.042253521126852</v>
+        <v>4.761904761904681</v>
       </c>
       <c r="L294" t="n">
         <v>8.537999999999981</v>
@@ -15329,7 +15351,7 @@
         <v>13.83999999999998</v>
       </c>
       <c r="K295" t="n">
-        <v>11.99999999999998</v>
+        <v>25.92592592592607</v>
       </c>
       <c r="L295" t="n">
         <v>8.544999999999982</v>
@@ -15380,7 +15402,7 @@
         <v>13.88999999999998</v>
       </c>
       <c r="K296" t="n">
-        <v>3.797468354430294</v>
+        <v>30.76923076923082</v>
       </c>
       <c r="L296" t="n">
         <v>8.546999999999981</v>
@@ -15431,7 +15453,7 @@
         <v>13.91999999999998</v>
       </c>
       <c r="K297" t="n">
-        <v>13.88888888888883</v>
+        <v>21.42857142857165</v>
       </c>
       <c r="L297" t="n">
         <v>8.551999999999982</v>
@@ -15482,7 +15504,7 @@
         <v>13.93999999999998</v>
       </c>
       <c r="K298" t="n">
-        <v>1.492537313433065</v>
+        <v>25.92592592592607</v>
       </c>
       <c r="L298" t="n">
         <v>8.555999999999981</v>
@@ -15533,7 +15555,7 @@
         <v>13.93999999999998</v>
       </c>
       <c r="K299" t="n">
-        <v>1.492537313433065</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L299" t="n">
         <v>8.562999999999981</v>
@@ -15584,7 +15606,7 @@
         <v>13.93999999999998</v>
       </c>
       <c r="K300" t="n">
-        <v>-15.78947368421049</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L300" t="n">
         <v>8.56799999999998</v>
@@ -15635,7 +15657,7 @@
         <v>13.98999999999998</v>
       </c>
       <c r="K301" t="n">
-        <v>-8.196721311475534</v>
+        <v>25.92592592592607</v>
       </c>
       <c r="L301" t="n">
         <v>8.57799999999998</v>
@@ -15686,7 +15708,7 @@
         <v>13.98999999999998</v>
       </c>
       <c r="K302" t="n">
-        <v>12.00000000000014</v>
+        <v>4.761904761904681</v>
       </c>
       <c r="L302" t="n">
         <v>8.58499999999998</v>
@@ -15737,7 +15759,7 @@
         <v>14.01999999999998</v>
       </c>
       <c r="K303" t="n">
-        <v>5.660377358490806</v>
+        <v>-8.33333333333321</v>
       </c>
       <c r="L303" t="n">
         <v>8.582999999999979</v>
@@ -15788,7 +15810,7 @@
         <v>14.06999999999998</v>
       </c>
       <c r="K304" t="n">
-        <v>17.85714285714289</v>
+        <v>-13.04347826087024</v>
       </c>
       <c r="L304" t="n">
         <v>8.585999999999979</v>
@@ -15839,7 +15861,7 @@
         <v>14.08999999999998</v>
       </c>
       <c r="K305" t="n">
-        <v>11.53846153846168</v>
+        <v>20.00000000000071</v>
       </c>
       <c r="L305" t="n">
         <v>8.584999999999978</v>
@@ -15890,7 +15912,7 @@
         <v>14.08999999999998</v>
       </c>
       <c r="K306" t="n">
-        <v>11.53846153846168</v>
+        <v>41.17647058823591</v>
       </c>
       <c r="L306" t="n">
         <v>8.588999999999979</v>
@@ -15941,7 +15963,7 @@
         <v>14.12999999999998</v>
       </c>
       <c r="K307" t="n">
-        <v>16.00000000000007</v>
+        <v>26.31578947368372</v>
       </c>
       <c r="L307" t="n">
         <v>8.591999999999979</v>
@@ -15992,7 +16014,7 @@
         <v>14.12999999999998</v>
       </c>
       <c r="K308" t="n">
-        <v>18.36734693877554</v>
+        <v>26.31578947368372</v>
       </c>
       <c r="L308" t="n">
         <v>8.596999999999978</v>
@@ -16043,7 +16065,7 @@
         <v>14.14999999999998</v>
       </c>
       <c r="K309" t="n">
-        <v>29.1666666666665</v>
+        <v>33.33333333333277</v>
       </c>
       <c r="L309" t="n">
         <v>8.60399999999998</v>
@@ -16094,7 +16116,7 @@
         <v>14.17999999999998</v>
       </c>
       <c r="K310" t="n">
-        <v>30.61224489795925</v>
+        <v>26.31578947368441</v>
       </c>
       <c r="L310" t="n">
         <v>8.613999999999979</v>
@@ -16145,7 +16167,7 @@
         <v>14.21999999999998</v>
       </c>
       <c r="K311" t="n">
-        <v>35.84905660377353</v>
+        <v>39.13043478260856</v>
       </c>
       <c r="L311" t="n">
         <v>8.62299999999998</v>
@@ -16196,7 +16218,7 @@
         <v>14.25999999999998</v>
       </c>
       <c r="K312" t="n">
-        <v>37.03703703703717</v>
+        <v>66.66666666666617</v>
       </c>
       <c r="L312" t="n">
         <v>8.635999999999981</v>
@@ -16247,7 +16269,7 @@
         <v>14.31999999999998</v>
       </c>
       <c r="K313" t="n">
-        <v>37.03703703703696</v>
+        <v>67.99999999999949</v>
       </c>
       <c r="L313" t="n">
         <v>8.657999999999982</v>
@@ -16298,7 +16320,7 @@
         <v>14.32999999999998</v>
       </c>
       <c r="K314" t="n">
-        <v>38.18181818181829</v>
+        <v>66.66666666666617</v>
       </c>
       <c r="L314" t="n">
         <v>8.675999999999981</v>
@@ -16349,7 +16371,7 @@
         <v>14.34999999999998</v>
       </c>
       <c r="K315" t="n">
-        <v>25.4901960784311</v>
+        <v>53.84615384615269</v>
       </c>
       <c r="L315" t="n">
         <v>8.68999999999998</v>
@@ -16400,7 +16422,7 @@
         <v>14.36999999999999</v>
       </c>
       <c r="K316" t="n">
-        <v>41.6666666666667</v>
+        <v>83.33333333333248</v>
       </c>
       <c r="L316" t="n">
         <v>8.70599999999998</v>
@@ -16451,7 +16473,7 @@
         <v>14.47999999999999</v>
       </c>
       <c r="K317" t="n">
-        <v>21.42857142857113</v>
+        <v>25.71428571428531</v>
       </c>
       <c r="L317" t="n">
         <v>8.71499999999998</v>
@@ -16502,7 +16524,7 @@
         <v>14.54999999999999</v>
       </c>
       <c r="K318" t="n">
-        <v>11.47540983606524</v>
+        <v>0</v>
       </c>
       <c r="L318" t="n">
         <v>8.716999999999981</v>
@@ -16553,7 +16575,7 @@
         <v>14.65999999999999</v>
       </c>
       <c r="K319" t="n">
-        <v>24.99999999999975</v>
+        <v>16.66666666666648</v>
       </c>
       <c r="L319" t="n">
         <v>8.727999999999982</v>
@@ -16604,7 +16626,7 @@
         <v>14.79999999999999</v>
       </c>
       <c r="K320" t="n">
-        <v>4.65116279069754</v>
+        <v>-17.24137931034456</v>
       </c>
       <c r="L320" t="n">
         <v>8.721999999999982</v>
@@ -16655,7 +16677,7 @@
         <v>14.80999999999999</v>
       </c>
       <c r="K321" t="n">
-        <v>0</v>
+        <v>-23.63636363636352</v>
       </c>
       <c r="L321" t="n">
         <v>8.712999999999981</v>
@@ -16706,7 +16728,7 @@
         <v>14.82999999999999</v>
       </c>
       <c r="K322" t="n">
-        <v>-2.38095238095231</v>
+        <v>-41.17647058823455</v>
       </c>
       <c r="L322" t="n">
         <v>8.697999999999981</v>
@@ -16757,7 +16779,7 @@
         <v>14.85999999999999</v>
       </c>
       <c r="K323" t="n">
-        <v>4.761904761904621</v>
+        <v>-35.84905660377351</v>
       </c>
       <c r="L323" t="n">
         <v>8.679999999999982</v>
@@ -16808,7 +16830,7 @@
         <v>14.85999999999999</v>
       </c>
       <c r="K324" t="n">
-        <v>-1.265822784810087</v>
+        <v>-33.3333333333331</v>
       </c>
       <c r="L324" t="n">
         <v>8.660999999999982</v>
@@ -16859,7 +16881,7 @@
         <v>14.85999999999999</v>
       </c>
       <c r="K325" t="n">
-        <v>-3.89610389610401</v>
+        <v>-38.77551020408173</v>
       </c>
       <c r="L325" t="n">
         <v>8.643999999999981</v>
@@ -16910,7 +16932,7 @@
         <v>14.85999999999999</v>
       </c>
       <c r="K326" t="n">
-        <v>-3.89610389610401</v>
+        <v>-21.05263157894735</v>
       </c>
       <c r="L326" t="n">
         <v>8.624999999999982</v>
@@ -16961,7 +16983,7 @@
         <v>14.86999999999999</v>
       </c>
       <c r="K327" t="n">
-        <v>2.702702702702625</v>
+        <v>0</v>
       </c>
       <c r="L327" t="n">
         <v>8.617999999999983</v>
@@ -17012,7 +17034,7 @@
         <v>14.92999999999999</v>
       </c>
       <c r="K328" t="n">
-        <v>9.999999999999934</v>
+        <v>-18.51851851851881</v>
       </c>
       <c r="L328" t="n">
         <v>8.623999999999981</v>
@@ -17063,7 +17085,7 @@
         <v>14.93999999999999</v>
       </c>
       <c r="K329" t="n">
-        <v>6.329113924050672</v>
+        <v>57.14285714285769</v>
       </c>
       <c r="L329" t="n">
         <v>8.617999999999981</v>
@@ -17114,7 +17136,7 @@
         <v>15.07999999999999</v>
       </c>
       <c r="K330" t="n">
-        <v>-13.33333333333336</v>
+        <v>-25.92592592592607</v>
       </c>
       <c r="L330" t="n">
         <v>8.611999999999981</v>
@@ -17165,7 +17187,7 @@
         <v>15.14999999999999</v>
       </c>
       <c r="K331" t="n">
-        <v>-9.677419354838623</v>
+        <v>6.249999999999861</v>
       </c>
       <c r="L331" t="n">
         <v>8.611999999999981</v>
@@ -17267,7 +17289,7 @@
         <v>15.20999999999999</v>
       </c>
       <c r="K333" t="n">
-        <v>-28.0898876404492</v>
+        <v>-20</v>
       </c>
       <c r="L333" t="n">
         <v>8.600999999999981</v>
@@ -17318,7 +17340,7 @@
         <v>15.20999999999999</v>
       </c>
       <c r="K334" t="n">
-        <v>-29.54545454545452</v>
+        <v>-20</v>
       </c>
       <c r="L334" t="n">
         <v>8.593999999999982</v>
@@ -17369,7 +17391,7 @@
         <v>15.20999999999999</v>
       </c>
       <c r="K335" t="n">
-        <v>-27.90697674418592</v>
+        <v>-20</v>
       </c>
       <c r="L335" t="n">
         <v>8.586999999999982</v>
@@ -17420,7 +17442,7 @@
         <v>15.23999999999999</v>
       </c>
       <c r="K336" t="n">
-        <v>-33.33333333333333</v>
+        <v>-29.7297297297295</v>
       </c>
       <c r="L336" t="n">
         <v>8.576999999999982</v>
@@ -17471,7 +17493,7 @@
         <v>15.24999999999999</v>
       </c>
       <c r="K337" t="n">
-        <v>-24.67532467532457</v>
+        <v>-56.24999999999986</v>
       </c>
       <c r="L337" t="n">
         <v>8.564999999999982</v>
@@ -17522,7 +17544,7 @@
         <v>15.31999999999999</v>
       </c>
       <c r="K338" t="n">
-        <v>-6.493506493506343</v>
+        <v>-26.31578947368406</v>
       </c>
       <c r="L338" t="n">
         <v>8.553999999999983</v>
@@ -17573,7 +17595,7 @@
         <v>15.32999999999999</v>
       </c>
       <c r="K339" t="n">
-        <v>-22.38805970149259</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L339" t="n">
         <v>8.544999999999982</v>
@@ -17624,7 +17646,7 @@
         <v>15.33999999999999</v>
       </c>
       <c r="K340" t="n">
-        <v>-3.70370370370363</v>
+        <v>-15.78947368421023</v>
       </c>
       <c r="L340" t="n">
         <v>8.548999999999982</v>
@@ -17675,7 +17697,7 @@
         <v>15.37999999999999</v>
       </c>
       <c r="K341" t="n">
-        <v>-12.28070175438601</v>
+        <v>-5.882352941176348</v>
       </c>
       <c r="L341" t="n">
         <v>8.541999999999982</v>
@@ -17726,7 +17748,7 @@
         <v>15.37999999999999</v>
       </c>
       <c r="K342" t="n">
-        <v>-9.090909090909207</v>
+        <v>-5.882352941176348</v>
       </c>
       <c r="L342" t="n">
         <v>8.540999999999983</v>
@@ -17777,7 +17799,7 @@
         <v>15.40999999999999</v>
       </c>
       <c r="K343" t="n">
-        <v>-9.090909090908857</v>
+        <v>10.00000000000062</v>
       </c>
       <c r="L343" t="n">
         <v>8.542999999999983</v>
@@ -17828,7 +17850,7 @@
         <v>15.44999999999999</v>
       </c>
       <c r="K344" t="n">
-        <v>-15.25423728813548</v>
+        <v>-8.333333333333087</v>
       </c>
       <c r="L344" t="n">
         <v>8.540999999999983</v>
@@ -17879,7 +17901,7 @@
         <v>15.44999999999999</v>
       </c>
       <c r="K345" t="n">
-        <v>-15.25423728813548</v>
+        <v>4.761904761904601</v>
       </c>
       <c r="L345" t="n">
         <v>8.538999999999982</v>
@@ -17930,7 +17952,7 @@
         <v>15.44999999999999</v>
       </c>
       <c r="K346" t="n">
-        <v>-15.25423728813548</v>
+        <v>9.999999999999645</v>
       </c>
       <c r="L346" t="n">
         <v>8.539999999999981</v>
@@ -17981,7 +18003,7 @@
         <v>15.44999999999999</v>
       </c>
       <c r="K347" t="n">
-        <v>-17.24137931034466</v>
+        <v>-38.46153846153825</v>
       </c>
       <c r="L347" t="n">
         <v>8.54199999999998</v>
@@ -18032,7 +18054,7 @@
         <v>15.48999999999999</v>
       </c>
       <c r="K348" t="n">
-        <v>-21.42857142857113</v>
+        <v>-12.49999999999945</v>
       </c>
       <c r="L348" t="n">
         <v>8.540999999999979</v>
@@ -18083,7 +18105,7 @@
         <v>15.48999999999999</v>
       </c>
       <c r="K349" t="n">
-        <v>-19.99999999999974</v>
+        <v>-6.666666666666352</v>
       </c>
       <c r="L349" t="n">
         <v>8.53899999999998</v>
@@ -18134,7 +18156,7 @@
         <v>15.48999999999999</v>
       </c>
       <c r="K350" t="n">
-        <v>7.317073170731919</v>
+        <v>27.27272727272756</v>
       </c>
       <c r="L350" t="n">
         <v>8.537999999999979</v>
@@ -18185,7 +18207,7 @@
         <v>15.48999999999999</v>
       </c>
       <c r="K351" t="n">
-        <v>-11.76470588235257</v>
+        <v>27.27272727272756</v>
       </c>
       <c r="L351" t="n">
         <v>8.540999999999979</v>
@@ -18236,7 +18258,7 @@
         <v>15.48999999999999</v>
       </c>
       <c r="K352" t="n">
-        <v>7.142857142857551</v>
+        <v>0</v>
       </c>
       <c r="L352" t="n">
         <v>8.543999999999979</v>
@@ -18287,7 +18309,7 @@
         <v>15.51999999999999</v>
       </c>
       <c r="K353" t="n">
-        <v>-3.225806451612792</v>
+        <v>14.28571428571356</v>
       </c>
       <c r="L353" t="n">
         <v>8.540999999999979</v>
@@ -18338,7 +18360,7 @@
         <v>15.51999999999999</v>
       </c>
       <c r="K354" t="n">
-        <v>-3.225806451612792</v>
+        <v>14.28571428571356</v>
       </c>
       <c r="L354" t="n">
         <v>8.54199999999998</v>
@@ -18389,7 +18411,7 @@
         <v>15.53999999999999</v>
       </c>
       <c r="K355" t="n">
-        <v>3.030303030303454</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L355" t="n">
         <v>8.54499999999998</v>
@@ -18440,7 +18462,7 @@
         <v>15.55</v>
       </c>
       <c r="K356" t="n">
-        <v>9.677419354838266</v>
+        <v>19.99999999999858</v>
       </c>
       <c r="L356" t="n">
         <v>8.546999999999981</v>
@@ -18491,7 +18513,7 @@
         <v>15.56</v>
       </c>
       <c r="K357" t="n">
-        <v>16.12903225806426</v>
+        <v>-14.28571428571284</v>
       </c>
       <c r="L357" t="n">
         <v>8.549999999999981</v>
@@ -18542,7 +18564,7 @@
         <v>15.56</v>
       </c>
       <c r="K358" t="n">
-        <v>-8.33333333333284</v>
+        <v>-14.28571428571284</v>
       </c>
       <c r="L358" t="n">
         <v>8.548999999999982</v>
@@ -18593,7 +18615,7 @@
         <v>15.59</v>
       </c>
       <c r="K359" t="n">
-        <v>0</v>
+        <v>19.99999999999858</v>
       </c>
       <c r="L359" t="n">
         <v>8.550999999999981</v>
@@ -18644,7 +18666,7 @@
         <v>15.61</v>
       </c>
       <c r="K360" t="n">
-        <v>11.11111111111053</v>
+        <v>33.33333333333136</v>
       </c>
       <c r="L360" t="n">
         <v>8.55499999999998</v>
@@ -18695,7 +18717,7 @@
         <v>15.62</v>
       </c>
       <c r="K361" t="n">
-        <v>33.33333333333235</v>
+        <v>38.46153846153636</v>
       </c>
       <c r="L361" t="n">
         <v>8.559999999999979</v>
@@ -18746,7 +18768,7 @@
         <v>15.66</v>
       </c>
       <c r="K362" t="n">
-        <v>42.85714285714195</v>
+        <v>85.7142857142839</v>
       </c>
       <c r="L362" t="n">
         <v>8.56899999999998</v>
@@ -18797,7 +18819,7 @@
         <v>15.69</v>
       </c>
       <c r="K363" t="n">
-        <v>42.85714285714159</v>
+        <v>88.23529411764545</v>
       </c>
       <c r="L363" t="n">
         <v>8.58399999999998</v>
@@ -18848,7 +18870,7 @@
         <v>15.71</v>
       </c>
       <c r="K364" t="n">
-        <v>69.23076923076776</v>
+        <v>88.23529411764534</v>
       </c>
       <c r="L364" t="n">
         <v>8.600999999999981</v>
@@ -18899,7 +18921,7 @@
         <v>15.72</v>
       </c>
       <c r="K365" t="n">
-        <v>70.3703703703691</v>
+        <v>100</v>
       </c>
       <c r="L365" t="n">
         <v>8.61699999999998</v>
@@ -18950,7 +18972,7 @@
         <v>15.73</v>
       </c>
       <c r="K366" t="n">
-        <v>64.28571428571229</v>
+        <v>88.23529411764534</v>
       </c>
       <c r="L366" t="n">
         <v>8.632999999999981</v>
@@ -19001,7 +19023,7 @@
         <v>15.74</v>
       </c>
       <c r="K367" t="n">
-        <v>65.51724137930857</v>
+        <v>88.88888888888735</v>
       </c>
       <c r="L367" t="n">
         <v>8.648999999999983</v>
@@ -19052,7 +19074,7 @@
         <v>15.78</v>
       </c>
       <c r="K368" t="n">
-        <v>37.93103448275714</v>
+        <v>47.3684210526303</v>
       </c>
       <c r="L368" t="n">
         <v>8.660999999999984</v>
@@ -19103,7 +19125,7 @@
         <v>15.82</v>
       </c>
       <c r="K369" t="n">
-        <v>21.21212121212072</v>
+        <v>14.28571428571453</v>
       </c>
       <c r="L369" t="n">
         <v>8.665999999999983</v>
@@ -19154,7 +19176,7 @@
         <v>15.88</v>
       </c>
       <c r="K370" t="n">
-        <v>33.33333333333242</v>
+        <v>30.7692307692304</v>
       </c>
       <c r="L370" t="n">
         <v>8.674999999999983</v>
@@ -19205,7 +19227,7 @@
         <v>15.92</v>
       </c>
       <c r="K371" t="n">
-        <v>20.93023255813917</v>
+        <v>0</v>
       </c>
       <c r="L371" t="n">
         <v>8.678999999999984</v>
@@ -19256,7 +19278,7 @@
         <v>15.96</v>
       </c>
       <c r="K372" t="n">
-        <v>27.65957446808454</v>
+        <v>3.703703703703606</v>
       </c>
       <c r="L372" t="n">
         <v>8.682999999999982</v>
@@ -19307,7 +19329,7 @@
         <v>15.96</v>
       </c>
       <c r="K373" t="n">
-        <v>36.363636363636</v>
+        <v>-3.999999999999886</v>
       </c>
       <c r="L373" t="n">
         <v>8.683999999999983</v>
@@ -19358,7 +19380,7 @@
         <v>15.96</v>
       </c>
       <c r="K374" t="n">
-        <v>36.363636363636</v>
+        <v>-8.333333333333888</v>
       </c>
       <c r="L374" t="n">
         <v>8.682999999999982</v>
@@ -19409,7 +19431,7 @@
         <v>15.98</v>
       </c>
       <c r="K375" t="n">
-        <v>36.363636363636</v>
+        <v>4.000000000000625</v>
       </c>
       <c r="L375" t="n">
         <v>8.682999999999982</v>
@@ -19460,7 +19482,7 @@
         <v>15.98</v>
       </c>
       <c r="K376" t="n">
-        <v>39.53488372093033</v>
+        <v>0</v>
       </c>
       <c r="L376" t="n">
         <v>8.683999999999982</v>
@@ -19511,7 +19533,7 @@
         <v>15.99</v>
       </c>
       <c r="K377" t="n">
-        <v>34.88372093023197</v>
+        <v>14.28571428571404</v>
       </c>
       <c r="L377" t="n">
         <v>8.682999999999982</v>
@@ -19562,7 +19584,7 @@
         <v>15.99</v>
       </c>
       <c r="K378" t="n">
-        <v>34.88372093023197</v>
+        <v>41.17647058823443</v>
       </c>
       <c r="L378" t="n">
         <v>8.685999999999982</v>
@@ -19613,7 +19635,7 @@
         <v>16</v>
       </c>
       <c r="K379" t="n">
-        <v>31.70731707317064</v>
+        <v>16.66666666666766</v>
       </c>
       <c r="L379" t="n">
         <v>8.693999999999983</v>
@@ -19664,7 +19686,7 @@
         <v>16.06</v>
       </c>
       <c r="K380" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L380" t="n">
         <v>8.689999999999984</v>
@@ -19715,7 +19737,7 @@
         <v>16.08</v>
       </c>
       <c r="K381" t="n">
-        <v>4.347826086956757</v>
+        <v>-49.99999999999704</v>
       </c>
       <c r="L381" t="n">
         <v>8.687999999999983</v>
@@ -19766,7 +19788,7 @@
         <v>16.09</v>
       </c>
       <c r="K382" t="n">
-        <v>-6.976744186046665</v>
+        <v>-53.84615384615154</v>
       </c>
       <c r="L382" t="n">
         <v>8.680999999999983</v>
@@ -19817,7 +19839,7 @@
         <v>16.1</v>
       </c>
       <c r="K383" t="n">
-        <v>-17.07317073170716</v>
+        <v>-57.1428571428555</v>
       </c>
       <c r="L383" t="n">
         <v>8.672999999999984</v>
@@ -19868,7 +19890,7 @@
         <v>16.11</v>
       </c>
       <c r="K384" t="n">
-        <v>-19.99999999999982</v>
+        <v>-69.23076923077008</v>
       </c>
       <c r="L384" t="n">
         <v>8.665999999999984</v>
@@ -19919,7 +19941,7 @@
         <v>16.13</v>
       </c>
       <c r="K385" t="n">
-        <v>-26.8292682926831</v>
+        <v>-73.33333333333397</v>
       </c>
       <c r="L385" t="n">
         <v>8.654999999999983</v>
@@ -19970,7 +19992,7 @@
         <v>16.13</v>
       </c>
       <c r="K386" t="n">
-        <v>-24.99999999999989</v>
+        <v>-71.4285714285718</v>
       </c>
       <c r="L386" t="n">
         <v>8.643999999999982</v>
@@ -20021,7 +20043,7 @@
         <v>16.21</v>
       </c>
       <c r="K387" t="n">
-        <v>-6.382978723404488</v>
+        <v>-9.09090909090887</v>
       </c>
       <c r="L387" t="n">
         <v>8.641999999999983</v>
@@ -20072,7 +20094,7 @@
         <v>16.22</v>
       </c>
       <c r="K388" t="n">
-        <v>4.545454545454472</v>
+        <v>-9.090909090909753</v>
       </c>
       <c r="L388" t="n">
         <v>8.640999999999982</v>
@@ -20123,7 +20145,7 @@
         <v>16.24</v>
       </c>
       <c r="K389" t="n">
-        <v>9.523809523809362</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L389" t="n">
         <v>8.636999999999983</v>
@@ -20174,7 +20196,7 @@
         <v>16.25</v>
       </c>
       <c r="K390" t="n">
-        <v>-2.702702702702638</v>
+        <v>29.41176470588204</v>
       </c>
       <c r="L390" t="n">
         <v>8.639999999999983</v>
@@ -20225,7 +20247,7 @@
         <v>16.25</v>
       </c>
       <c r="K391" t="n">
-        <v>9.090909090908847</v>
+        <v>37.50000000000111</v>
       </c>
       <c r="L391" t="n">
         <v>8.644999999999985</v>
@@ -20276,7 +20298,7 @@
         <v>16.25</v>
       </c>
       <c r="K392" t="n">
-        <v>-3.44827586206886</v>
+        <v>46.6666666666673</v>
       </c>
       <c r="L392" t="n">
         <v>8.650999999999986</v>
@@ -20327,7 +20349,7 @@
         <v>16.25</v>
       </c>
       <c r="K393" t="n">
-        <v>-3.44827586206886</v>
+        <v>42.85714285714304</v>
       </c>
       <c r="L393" t="n">
         <v>8.657999999999985</v>
@@ -20378,7 +20400,7 @@
         <v>16.28</v>
       </c>
       <c r="K394" t="n">
-        <v>-12.49999999999958</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L394" t="n">
         <v>8.660999999999985</v>
@@ -20429,7 +20451,7 @@
         <v>16.31</v>
       </c>
       <c r="K395" t="n">
-        <v>-9.090909090909335</v>
+        <v>44.44444444444368</v>
       </c>
       <c r="L395" t="n">
         <v>8.668999999999986</v>
@@ -20480,7 +20502,7 @@
         <v>16.34</v>
       </c>
       <c r="K396" t="n">
-        <v>-16.66666666666659</v>
+        <v>-23.07692307692213</v>
       </c>
       <c r="L396" t="n">
         <v>8.673999999999987</v>
@@ -20531,7 +20553,7 @@
         <v>16.34</v>
       </c>
       <c r="K397" t="n">
-        <v>-14.28571428571385</v>
+        <v>-33.33333333333136</v>
       </c>
       <c r="L397" t="n">
         <v>8.670999999999987</v>
@@ -20582,7 +20604,7 @@
         <v>16.34</v>
       </c>
       <c r="K398" t="n">
-        <v>-14.28571428571385</v>
+        <v>-19.99999999999858</v>
       </c>
       <c r="L398" t="n">
         <v>8.666999999999987</v>
@@ -20633,7 +20655,7 @@
         <v>16.34</v>
       </c>
       <c r="K399" t="n">
-        <v>-17.64705882352938</v>
+        <v>-33.33333333333136</v>
       </c>
       <c r="L399" t="n">
         <v>8.664999999999988</v>
@@ -20684,7 +20706,7 @@
         <v>16.38</v>
       </c>
       <c r="K400" t="n">
-        <v>-12.50000000000028</v>
+        <v>-53.846153846153</v>
       </c>
       <c r="L400" t="n">
         <v>8.657999999999987</v>
@@ -20735,7 +20757,7 @@
         <v>16.39</v>
       </c>
       <c r="K401" t="n">
-        <v>-9.677419354839117</v>
+        <v>-57.14285714285696</v>
       </c>
       <c r="L401" t="n">
         <v>8.649999999999986</v>
@@ -20786,7 +20808,7 @@
         <v>16.45</v>
       </c>
       <c r="K402" t="n">
-        <v>-22.22222222222228</v>
+        <v>-69.99999999999929</v>
       </c>
       <c r="L402" t="n">
         <v>8.635999999999985</v>
@@ -20837,7 +20859,7 @@
         <v>16.51000000000001</v>
       </c>
       <c r="K403" t="n">
-        <v>-2.439024390243829</v>
+        <v>-21.73913043478254</v>
       </c>
       <c r="L403" t="n">
         <v>8.627999999999982</v>
@@ -20888,7 +20910,7 @@
         <v>16.51000000000001</v>
       </c>
       <c r="K404" t="n">
-        <v>-4.999999999999822</v>
+        <v>-39.99999999999947</v>
       </c>
       <c r="L404" t="n">
         <v>8.622999999999982</v>
@@ -20939,7 +20961,7 @@
         <v>16.51000000000001</v>
       </c>
       <c r="K405" t="n">
-        <v>0</v>
+        <v>-29.41176470588248</v>
       </c>
       <c r="L405" t="n">
         <v>8.614999999999981</v>
@@ -20990,7 +21012,7 @@
         <v>16.51000000000001</v>
       </c>
       <c r="K406" t="n">
-        <v>0</v>
+        <v>-29.41176470588248</v>
       </c>
       <c r="L406" t="n">
         <v>8.60999999999998</v>
@@ -21041,7 +21063,7 @@
         <v>16.51000000000001</v>
       </c>
       <c r="K407" t="n">
-        <v>-26.66666666666631</v>
+        <v>-29.41176470588248</v>
       </c>
       <c r="L407" t="n">
         <v>8.604999999999979</v>
@@ -21092,7 +21114,7 @@
         <v>16.52</v>
       </c>
       <c r="K408" t="n">
-        <v>-33.33333333333275</v>
+        <v>-33.33333333333366</v>
       </c>
       <c r="L408" t="n">
         <v>8.598999999999979</v>
@@ -21143,7 +21165,7 @@
         <v>16.53</v>
       </c>
       <c r="K409" t="n">
-        <v>-31.03448275862035</v>
+        <v>-19.99999999999976</v>
       </c>
       <c r="L409" t="n">
         <v>8.591999999999977</v>
@@ -21194,7 +21216,7 @@
         <v>16.53</v>
       </c>
       <c r="K410" t="n">
-        <v>-35.71428571428545</v>
+        <v>-14.28571428571392</v>
       </c>
       <c r="L410" t="n">
         <v>8.588999999999977</v>
@@ -21245,7 +21267,7 @@
         <v>16.54</v>
       </c>
       <c r="K411" t="n">
-        <v>-37.93103448275853</v>
+        <v>33.33333333333596</v>
       </c>
       <c r="L411" t="n">
         <v>8.585999999999979</v>
@@ -21296,7 +21318,7 @@
         <v>16.57</v>
       </c>
       <c r="K412" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="L412" t="n">
         <v>8.591999999999979</v>
@@ -21347,7 +21369,7 @@
         <v>16.57</v>
       </c>
       <c r="K413" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="L413" t="n">
         <v>8.591999999999979</v>
@@ -21398,7 +21420,7 @@
         <v>16.57</v>
       </c>
       <c r="K414" t="n">
-        <v>-17.24137931034512</v>
+        <v>0</v>
       </c>
       <c r="L414" t="n">
         <v>8.591999999999979</v>
@@ -21449,7 +21471,7 @@
         <v>16.61</v>
       </c>
       <c r="K415" t="n">
-        <v>-40.00000000000012</v>
+        <v>-40.00000000000142</v>
       </c>
       <c r="L415" t="n">
         <v>8.58799999999998</v>
@@ -21500,7 +21522,7 @@
         <v>16.63</v>
       </c>
       <c r="K416" t="n">
-        <v>-37.93103448275915</v>
+        <v>-50.00000000000148</v>
       </c>
       <c r="L416" t="n">
         <v>8.581999999999979</v>
@@ -21551,7 +21573,7 @@
         <v>16.63</v>
       </c>
       <c r="K417" t="n">
-        <v>-37.93103448275915</v>
+        <v>-45.45454545454633</v>
       </c>
       <c r="L417" t="n">
         <v>8.575999999999979</v>
@@ -21602,7 +21624,7 @@
         <v>16.69</v>
       </c>
       <c r="K418" t="n">
-        <v>-14.28571428571443</v>
+        <v>12.49999999999945</v>
       </c>
       <c r="L418" t="n">
         <v>8.576999999999979</v>
@@ -21653,7 +21675,7 @@
         <v>16.7</v>
       </c>
       <c r="K419" t="n">
-        <v>-11.11111111111139</v>
+        <v>17.64705882352886</v>
       </c>
       <c r="L419" t="n">
         <v>8.579999999999979</v>
@@ -21704,7 +21726,7 @@
         <v>16.7</v>
       </c>
       <c r="K420" t="n">
-        <v>0</v>
+        <v>24.99999999999889</v>
       </c>
       <c r="L420" t="n">
         <v>8.582999999999979</v>
@@ -21755,7 +21777,7 @@
         <v>16.7</v>
       </c>
       <c r="K421" t="n">
-        <v>3.225806451612811</v>
+        <v>7.692307692307376</v>
       </c>
       <c r="L421" t="n">
         <v>8.586999999999978</v>
@@ -21806,7 +21828,7 @@
         <v>16.77</v>
       </c>
       <c r="K422" t="n">
-        <v>43.75000000000014</v>
+        <v>39.99999999999947</v>
       </c>
       <c r="L422" t="n">
         <v>8.594999999999979</v>
@@ -21857,7 +21879,7 @@
         <v>16.77</v>
       </c>
       <c r="K423" t="n">
-        <v>30.76923076923103</v>
+        <v>39.99999999999947</v>
       </c>
       <c r="L423" t="n">
         <v>8.60299999999998</v>
@@ -21908,7 +21930,7 @@
         <v>16.8</v>
       </c>
       <c r="K424" t="n">
-        <v>37.93103448275915</v>
+        <v>78.94736842105081</v>
       </c>
       <c r="L424" t="n">
         <v>8.613999999999981</v>
@@ -21959,7 +21981,7 @@
         <v>16.8</v>
       </c>
       <c r="K425" t="n">
-        <v>37.93103448275915</v>
+        <v>100</v>
       </c>
       <c r="L425" t="n">
         <v>8.628999999999982</v>
@@ -22010,7 +22032,7 @@
         <v>16.81000000000001</v>
       </c>
       <c r="K426" t="n">
-        <v>33.33333333333314</v>
+        <v>88.88888888888735</v>
       </c>
       <c r="L426" t="n">
         <v>8.644999999999982</v>
@@ -22061,7 +22083,7 @@
         <v>16.83000000000001</v>
       </c>
       <c r="K427" t="n">
-        <v>25</v>
+        <v>57.14285714285696</v>
       </c>
       <c r="L427" t="n">
         <v>8.658999999999983</v>
@@ -22112,7 +22134,7 @@
         <v>16.85</v>
       </c>
       <c r="K428" t="n">
-        <v>33.33333333333297</v>
+        <v>59.99999999999905</v>
       </c>
       <c r="L428" t="n">
         <v>8.668999999999984</v>
@@ -22163,7 +22185,7 @@
         <v>16.87</v>
       </c>
       <c r="K429" t="n">
-        <v>41.17647058823505</v>
+        <v>64.70588235294123</v>
       </c>
       <c r="L429" t="n">
         <v>8.679999999999984</v>
@@ -22214,7 +22236,7 @@
         <v>16.88</v>
       </c>
       <c r="K430" t="n">
-        <v>42.85714285714278</v>
+        <v>66.66666666666733</v>
       </c>
       <c r="L430" t="n">
         <v>8.691999999999984</v>
@@ -22265,7 +22287,7 @@
         <v>16.89</v>
       </c>
       <c r="K431" t="n">
-        <v>42.85714285714278</v>
+        <v>33.33333333333481</v>
       </c>
       <c r="L431" t="n">
         <v>8.702999999999985</v>
@@ -22316,7 +22338,7 @@
         <v>16.89</v>
       </c>
       <c r="K432" t="n">
-        <v>37.50000000000028</v>
+        <v>33.33333333333481</v>
       </c>
       <c r="L432" t="n">
         <v>8.706999999999985</v>
@@ -22367,7 +22389,7 @@
         <v>16.9</v>
       </c>
       <c r="K433" t="n">
-        <v>39.39393939393984</v>
+        <v>20.00000000000071</v>
       </c>
       <c r="L433" t="n">
         <v>8.711999999999986</v>
@@ -22418,7 +22440,7 @@
         <v>16.91</v>
       </c>
       <c r="K434" t="n">
-        <v>35.29411764705949</v>
+        <v>9.09090909090953</v>
       </c>
       <c r="L434" t="n">
         <v>8.712999999999985</v>
@@ -22469,7 +22491,7 @@
         <v>16.91</v>
       </c>
       <c r="K435" t="n">
-        <v>53.33333333333389</v>
+        <v>20.0000000000032</v>
       </c>
       <c r="L435" t="n">
         <v>8.713999999999984</v>
@@ -22520,7 +22542,7 @@
         <v>16.91999999999999</v>
       </c>
       <c r="K436" t="n">
-        <v>58.62068965517461</v>
+        <v>33.33333333333859</v>
       </c>
       <c r="L436" t="n">
         <v>8.714999999999986</v>
@@ -22571,7 +22593,7 @@
         <v>16.99999999999999</v>
       </c>
       <c r="K437" t="n">
-        <v>24.3243243243254</v>
+        <v>-46.66666666666943</v>
       </c>
       <c r="L437" t="n">
         <v>8.709999999999985</v>
@@ -22622,7 +22644,7 @@
         <v>17.00999999999999</v>
       </c>
       <c r="K438" t="n">
-        <v>12.50000000000083</v>
+        <v>-57.14285714286276</v>
       </c>
       <c r="L438" t="n">
         <v>8.703999999999985</v>
@@ -22673,7 +22695,7 @@
         <v>17.00999999999999</v>
       </c>
       <c r="K439" t="n">
-        <v>9.677419354839449</v>
+        <v>-69.23076923077532</v>
       </c>
       <c r="L439" t="n">
         <v>8.695999999999986</v>
@@ -22724,7 +22746,7 @@
         <v>17.05999999999999</v>
       </c>
       <c r="K440" t="n">
-        <v>22.22222222222315</v>
+        <v>-17.64705882353138</v>
       </c>
       <c r="L440" t="n">
         <v>8.691999999999984</v>
@@ -22775,7 +22797,7 @@
         <v>17.06999999999999</v>
       </c>
       <c r="K441" t="n">
-        <v>24.32432432432539</v>
+        <v>-11.11111111111276</v>
       </c>
       <c r="L441" t="n">
         <v>8.689999999999985</v>
@@ -22826,7 +22848,7 @@
         <v>17.07999999999999</v>
       </c>
       <c r="K442" t="n">
-        <v>9.677419354839561</v>
+        <v>-11.11111111111155</v>
       </c>
       <c r="L442" t="n">
         <v>8.688999999999984</v>
@@ -22877,7 +22899,7 @@
         <v>17.14999999999999</v>
       </c>
       <c r="K443" t="n">
-        <v>-10.52631578947388</v>
+        <v>-33.33333333333457</v>
       </c>
       <c r="L443" t="n">
         <v>8.679999999999984</v>
@@ -22928,7 +22950,7 @@
         <v>17.19999999999999</v>
       </c>
       <c r="K444" t="n">
-        <v>-30.00000000000142</v>
+        <v>-44.82758620689805</v>
       </c>
       <c r="L444" t="n">
         <v>8.666999999999984</v>
@@ -22979,7 +23001,7 @@
         <v>17.20999999999999</v>
       </c>
       <c r="K445" t="n">
-        <v>-26.82926829268438</v>
+        <v>-37.93103448276008</v>
       </c>
       <c r="L445" t="n">
         <v>8.654999999999983</v>
@@ -23030,7 +23052,7 @@
         <v>17.27999999999999</v>
       </c>
       <c r="K446" t="n">
-        <v>-6.382978723404376</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L446" t="n">
         <v>8.650999999999986</v>
@@ -23081,7 +23103,7 @@
         <v>17.37999999999999</v>
       </c>
       <c r="K447" t="n">
-        <v>-20.00000000000052</v>
+        <v>-18.91891891891913</v>
       </c>
       <c r="L447" t="n">
         <v>8.644999999999985</v>
@@ -23132,7 +23154,7 @@
         <v>17.37999999999999</v>
       </c>
       <c r="K448" t="n">
-        <v>-24.52830188679303</v>
+        <v>-18.91891891891913</v>
       </c>
       <c r="L448" t="n">
         <v>8.637999999999984</v>
@@ -23183,7 +23205,7 @@
         <v>17.37999999999999</v>
       </c>
       <c r="K449" t="n">
-        <v>-29.41176470588336</v>
+        <v>-37.49999999999972</v>
       </c>
       <c r="L449" t="n">
         <v>8.630999999999984</v>
@@ -23234,7 +23256,7 @@
         <v>17.43999999999999</v>
       </c>
       <c r="K450" t="n">
-        <v>-17.85714285714317</v>
+        <v>-18.91891891891828</v>
       </c>
       <c r="L450" t="n">
         <v>8.624999999999984</v>
@@ -23285,7 +23307,7 @@
         <v>17.45999999999999</v>
       </c>
       <c r="K451" t="n">
-        <v>-12.28070175438624</v>
+        <v>-15.78947368421055</v>
       </c>
       <c r="L451" t="n">
         <v>8.619999999999985</v>
@@ -23336,7 +23358,7 @@
         <v>17.55999999999999</v>
       </c>
       <c r="K452" t="n">
-        <v>-25.37313432835867</v>
+        <v>-21.95121951219508</v>
       </c>
       <c r="L452" t="n">
         <v>8.603999999999985</v>
@@ -23387,7 +23409,7 @@
         <v>17.56999999999999</v>
       </c>
       <c r="K453" t="n">
-        <v>-28.35820895522445</v>
+        <v>-13.51351351351367</v>
       </c>
       <c r="L453" t="n">
         <v>8.593999999999983</v>
@@ -23438,7 +23460,7 @@
         <v>17.57999999999999</v>
       </c>
       <c r="K454" t="n">
-        <v>-28.3582089552243</v>
+        <v>-18.91891891891876</v>
       </c>
       <c r="L454" t="n">
         <v>8.587999999999983</v>
@@ -23489,7 +23511,7 @@
         <v>17.57999999999999</v>
       </c>
       <c r="K455" t="n">
-        <v>-28.3582089552243</v>
+        <v>-46.6666666666662</v>
       </c>
       <c r="L455" t="n">
         <v>8.580999999999985</v>
@@ -23540,7 +23562,7 @@
         <v>17.65999999999999</v>
       </c>
       <c r="K456" t="n">
-        <v>-13.5135135135138</v>
+        <v>14.28571428571392</v>
       </c>
       <c r="L456" t="n">
         <v>8.574999999999985</v>
@@ -23591,7 +23613,7 @@
         <v>17.66999999999999</v>
       </c>
       <c r="K457" t="n">
-        <v>-4.477611940298713</v>
+        <v>10.34482758620671</v>
       </c>
       <c r="L457" t="n">
         <v>8.577999999999983</v>
@@ -23642,7 +23664,7 @@
         <v>17.71999999999998</v>
       </c>
       <c r="K458" t="n">
-        <v>-12.67605633802826</v>
+        <v>-5.88235294117641</v>
       </c>
       <c r="L458" t="n">
         <v>8.575999999999983</v>
@@ -23693,7 +23715,7 @@
         <v>17.81999999999999</v>
       </c>
       <c r="K459" t="n">
-        <v>1.234567901234549</v>
+        <v>5.263157894736794</v>
       </c>
       <c r="L459" t="n">
         <v>8.583999999999984</v>
@@ -23744,7 +23766,7 @@
         <v>17.85999999999999</v>
       </c>
       <c r="K460" t="n">
-        <v>-10.00000000000004</v>
+        <v>-10.00000000000036</v>
       </c>
       <c r="L460" t="n">
         <v>8.581999999999983</v>
@@ -23795,7 +23817,7 @@
         <v>17.86999999999998</v>
       </c>
       <c r="K461" t="n">
-        <v>-10.00000000000004</v>
+        <v>22.5806451612902</v>
       </c>
       <c r="L461" t="n">
         <v>8.578999999999983</v>
@@ -23846,7 +23868,7 @@
         <v>17.86999999999998</v>
       </c>
       <c r="K462" t="n">
-        <v>-11.39240506329141</v>
+        <v>26.66666666666726</v>
       </c>
       <c r="L462" t="n">
         <v>8.585999999999984</v>
@@ -23897,7 +23919,7 @@
         <v>17.93999999999998</v>
       </c>
       <c r="K463" t="n">
-        <v>6.329113924050533</v>
+        <v>44.44444444444543</v>
       </c>
       <c r="L463" t="n">
         <v>8.600999999999985</v>
@@ -23948,7 +23970,7 @@
         <v>18.00999999999998</v>
       </c>
       <c r="K464" t="n">
-        <v>3.703703703703646</v>
+        <v>20.93023255813986</v>
       </c>
       <c r="L464" t="n">
         <v>8.609999999999985</v>
@@ -23999,7 +24021,7 @@
         <v>18.00999999999998</v>
       </c>
       <c r="K465" t="n">
-        <v>2.499999999999956</v>
+        <v>2.857142857142843</v>
       </c>
       <c r="L465" t="n">
         <v>8.618999999999986</v>
@@ -24050,7 +24072,7 @@
         <v>18.06999999999999</v>
       </c>
       <c r="K466" t="n">
-        <v>1.265822784810101</v>
+        <v>20.00000000000009</v>
       </c>
       <c r="L466" t="n">
         <v>8.625999999999987</v>
@@ -24101,7 +24123,7 @@
         <v>18.14999999999998</v>
       </c>
       <c r="K467" t="n">
-        <v>3.896103896103833</v>
+        <v>11.62790697674395</v>
       </c>
       <c r="L467" t="n">
         <v>8.625999999999987</v>
@@ -24152,7 +24174,7 @@
         <v>18.14999999999998</v>
       </c>
       <c r="K468" t="n">
-        <v>3.896103896103833</v>
+        <v>-15.15151515151545</v>
       </c>
       <c r="L468" t="n">
         <v>8.630999999999986</v>
@@ -24203,7 +24225,7 @@
         <v>18.14999999999998</v>
       </c>
       <c r="K469" t="n">
-        <v>3.896103896103833</v>
+        <v>-3.448275862068902</v>
       </c>
       <c r="L469" t="n">
         <v>8.625999999999985</v>
@@ -24254,7 +24276,7 @@
         <v>18.14999999999998</v>
       </c>
       <c r="K470" t="n">
-        <v>-4.225352112676254</v>
+        <v>-7.142857142856962</v>
       </c>
       <c r="L470" t="n">
         <v>8.624999999999984</v>
@@ -24305,7 +24327,7 @@
         <v>18.15999999999998</v>
       </c>
       <c r="K471" t="n">
-        <v>-8.571428571428738</v>
+        <v>-10.34482758620671</v>
       </c>
       <c r="L471" t="n">
         <v>8.621999999999984</v>
@@ -24356,7 +24378,7 @@
         <v>18.15999999999998</v>
       </c>
       <c r="K472" t="n">
-        <v>6.666666666666588</v>
+        <v>-45.45454545454552</v>
       </c>
       <c r="L472" t="n">
         <v>8.618999999999984</v>
@@ -24407,7 +24429,7 @@
         <v>18.17999999999998</v>
       </c>
       <c r="K473" t="n">
-        <v>4.918032786885494</v>
+        <v>-29.41176470588204</v>
       </c>
       <c r="L473" t="n">
         <v>8.606999999999985</v>
@@ -24458,7 +24480,7 @@
         <v>18.20999999999998</v>
       </c>
       <c r="K474" t="n">
-        <v>1.587301587301574</v>
+        <v>-40.00000000000018</v>
       </c>
       <c r="L474" t="n">
         <v>8.598999999999984</v>
@@ -24509,7 +24531,7 @@
         <v>18.23999999999998</v>
       </c>
       <c r="K475" t="n">
-        <v>-3.030303030303014</v>
+        <v>-100.0000000000031</v>
       </c>
       <c r="L475" t="n">
         <v>8.587999999999983</v>
@@ -24560,7 +24582,7 @@
         <v>18.24999999999998</v>
       </c>
       <c r="K476" t="n">
-        <v>-18.64406779661041</v>
+        <v>-100.0000000000053</v>
       </c>
       <c r="L476" t="n">
         <v>8.569999999999984</v>
@@ -24611,7 +24633,7 @@
         <v>18.31999999999998</v>
       </c>
       <c r="K477" t="n">
-        <v>-26.15384615384649</v>
+        <v>-100.0000000000031</v>
       </c>
       <c r="L477" t="n">
         <v>8.552999999999987</v>
@@ -24662,7 +24684,7 @@
         <v>18.43999999999998</v>
       </c>
       <c r="K478" t="n">
-        <v>-33.33333333333374</v>
+        <v>-100.0000000000024</v>
       </c>
       <c r="L478" t="n">
         <v>8.523999999999987</v>
@@ -24713,7 +24735,7 @@
         <v>18.44999999999997</v>
       </c>
       <c r="K479" t="n">
-        <v>-55.55555555555652</v>
+        <v>-100.000000000003</v>
       </c>
       <c r="L479" t="n">
         <v>8.493999999999987</v>
@@ -24764,7 +24786,7 @@
         <v>18.44999999999997</v>
       </c>
       <c r="K480" t="n">
-        <v>-52.54237288135668</v>
+        <v>-100.0000000000024</v>
       </c>
       <c r="L480" t="n">
         <v>8.463999999999988</v>
@@ -24815,7 +24837,7 @@
         <v>18.46999999999998</v>
       </c>
       <c r="K481" t="n">
-        <v>-56.66666666666718</v>
+        <v>-100.0000000000017</v>
       </c>
       <c r="L481" t="n">
         <v>8.432999999999987</v>
@@ -24866,7 +24888,7 @@
         <v>18.50999999999998</v>
       </c>
       <c r="K482" t="n">
-        <v>-59.37500000000045</v>
+        <v>-100.0000000000016</v>
       </c>
       <c r="L482" t="n">
         <v>8.397999999999985</v>
@@ -24917,7 +24939,7 @@
         <v>18.56999999999998</v>
       </c>
       <c r="K483" t="n">
-        <v>-80.9523809523815</v>
+        <v>-100.000000000001</v>
       </c>
       <c r="L483" t="n">
         <v>8.358999999999986</v>
@@ -24968,7 +24990,7 @@
         <v>18.57999999999998</v>
       </c>
       <c r="K484" t="n">
-        <v>-75.43859649122892</v>
+        <v>-94.11764705882464</v>
       </c>
       <c r="L484" t="n">
         <v>8.323999999999987</v>
@@ -25019,7 +25041,7 @@
         <v>18.65999999999998</v>
       </c>
       <c r="K485" t="n">
-        <v>-53.8461538461545</v>
+        <v>-56.09756097561033</v>
       </c>
       <c r="L485" t="n">
         <v>8.299999999999986</v>
@@ -25070,7 +25092,7 @@
         <v>18.73999999999997</v>
       </c>
       <c r="K486" t="n">
-        <v>-73.13432835821035</v>
+        <v>-57.14285714285793</v>
       </c>
       <c r="L486" t="n">
         <v>8.268999999999986</v>
@@ -25121,7 +25143,7 @@
         <v>18.73999999999997</v>
       </c>
       <c r="K487" t="n">
-        <v>-69.49152542373011</v>
+        <v>-40.00000000000071</v>
       </c>
       <c r="L487" t="n">
         <v>8.244999999999985</v>
@@ -25172,7 +25194,7 @@
         <v>18.76999999999997</v>
       </c>
       <c r="K488" t="n">
-        <v>-70.9677419354849</v>
+        <v>-43.75000000000014</v>
       </c>
       <c r="L488" t="n">
         <v>8.229999999999984</v>
@@ -25223,7 +25245,7 @@
         <v>18.87999999999997</v>
       </c>
       <c r="K489" t="n">
-        <v>-45.20547945205544</v>
+        <v>-6.976744186046781</v>
       </c>
       <c r="L489" t="n">
         <v>8.226999999999984</v>
@@ -25274,7 +25296,7 @@
         <v>18.87999999999997</v>
       </c>
       <c r="K490" t="n">
-        <v>-45.20547945205544</v>
+        <v>-2.43902439024387</v>
       </c>
       <c r="L490" t="n">
         <v>8.223999999999984</v>
@@ -25325,7 +25347,7 @@
         <v>18.90999999999998</v>
       </c>
       <c r="K491" t="n">
-        <v>-46.66666666666706</v>
+        <v>0</v>
       </c>
       <c r="L491" t="n">
         <v>8.219999999999983</v>
@@ -25376,7 +25398,7 @@
         <v>18.96999999999998</v>
       </c>
       <c r="K492" t="n">
-        <v>-35.80246913580257</v>
+        <v>30.00000000000036</v>
       </c>
       <c r="L492" t="n">
         <v>8.225999999999983</v>
@@ -25427,7 +25449,7 @@
         <v>18.96999999999998</v>
       </c>
       <c r="K493" t="n">
-        <v>-34.17721518987356</v>
+        <v>28.20512820512847</v>
       </c>
       <c r="L493" t="n">
         <v>8.237999999999982</v>
@@ -25478,7 +25500,7 @@
         <v>19.01999999999998</v>
       </c>
       <c r="K494" t="n">
-        <v>-35.80246913580257</v>
+        <v>-5.555555555555391</v>
       </c>
       <c r="L494" t="n">
         <v>8.243999999999982</v>
@@ -25529,7 +25551,7 @@
         <v>19.03999999999998</v>
       </c>
       <c r="K495" t="n">
-        <v>-35.00000000000004</v>
+        <v>13.33333333333345</v>
       </c>
       <c r="L495" t="n">
         <v>8.239999999999984</v>
@@ -25580,7 +25602,7 @@
         <v>19.03999999999998</v>
       </c>
       <c r="K496" t="n">
-        <v>-34.1772151898734</v>
+        <v>13.33333333333345</v>
       </c>
       <c r="L496" t="n">
         <v>8.243999999999984</v>
@@ -25631,7 +25653,7 @@
         <v>19.10999999999998</v>
       </c>
       <c r="K497" t="n">
-        <v>-34.1772151898734</v>
+        <v>0</v>
       </c>
       <c r="L497" t="n">
         <v>8.240999999999984</v>
@@ -25682,7 +25704,7 @@
         <v>19.24999999999998</v>
       </c>
       <c r="K498" t="n">
-        <v>-1.234567901234538</v>
+        <v>8.108108108108315</v>
       </c>
       <c r="L498" t="n">
         <v>8.254999999999985</v>
@@ -25733,7 +25755,7 @@
         <v>19.32999999999998</v>
       </c>
       <c r="K499" t="n">
-        <v>-9.090909090909074</v>
+        <v>-11.1111111111108</v>
       </c>
       <c r="L499" t="n">
         <v>8.249999999999984</v>
@@ -25784,7 +25806,7 @@
         <v>19.33999999999997</v>
       </c>
       <c r="K500" t="n">
-        <v>-7.86516853932587</v>
+        <v>-2.325581395348789</v>
       </c>
       <c r="L500" t="n">
         <v>8.245999999999984</v>
@@ -25835,7 +25857,7 @@
         <v>19.41999999999997</v>
       </c>
       <c r="K501" t="n">
-        <v>3.157894736842239</v>
+        <v>2.222222222222196</v>
       </c>
       <c r="L501" t="n">
         <v>8.252999999999986</v>
@@ -25886,7 +25908,7 @@
         <v>19.42999999999997</v>
       </c>
       <c r="K502" t="n">
-        <v>8.695652173913103</v>
+        <v>4.347826086956489</v>
       </c>
       <c r="L502" t="n">
         <v>8.254999999999985</v>
@@ -25937,7 +25959,7 @@
         <v>19.47999999999997</v>
       </c>
       <c r="K503" t="n">
-        <v>9.890109890109951</v>
+        <v>4.347826086956489</v>
       </c>
       <c r="L503" t="n">
         <v>8.251999999999985</v>
@@ -25988,7 +26010,7 @@
         <v>19.49999999999997</v>
       </c>
       <c r="K504" t="n">
-        <v>6.521739130434876</v>
+        <v>4.347826086956489</v>
       </c>
       <c r="L504" t="n">
         <v>8.251999999999985</v>
@@ -26039,7 +26061,7 @@
         <v>19.52999999999997</v>
       </c>
       <c r="K505" t="n">
-        <v>1.149425287356301</v>
+        <v>10.20408163265295</v>
       </c>
       <c r="L505" t="n">
         <v>8.256999999999985</v>
@@ -26090,7 +26112,7 @@
         <v>19.58999999999997</v>
       </c>
       <c r="K506" t="n">
-        <v>17.64705882352942</v>
+        <v>37.50000000000018</v>
       </c>
       <c r="L506" t="n">
         <v>8.267999999999985</v>
@@ -26141,7 +26163,7 @@
         <v>19.59999999999997</v>
       </c>
       <c r="K507" t="n">
-        <v>16.27906976744194</v>
+        <v>8.571428571428529</v>
       </c>
       <c r="L507" t="n">
         <v>8.284999999999986</v>
@@ -26192,7 +26214,7 @@
         <v>19.59999999999997</v>
       </c>
       <c r="K508" t="n">
-        <v>20.48192771084341</v>
+        <v>40.74074074074113</v>
       </c>
       <c r="L508" t="n">
         <v>8.287999999999986</v>
@@ -26243,7 +26265,7 @@
         <v>19.62999999999997</v>
       </c>
       <c r="K509" t="n">
-        <v>11.99999999999998</v>
+        <v>44.82758620689634</v>
       </c>
       <c r="L509" t="n">
         <v>8.301999999999985</v>
@@ -26294,7 +26316,7 @@
         <v>19.73999999999997</v>
       </c>
       <c r="K510" t="n">
-        <v>-2.325581395348789</v>
+        <v>-18.75000000000014</v>
       </c>
       <c r="L510" t="n">
         <v>8.303999999999984</v>
@@ -26345,7 +26367,7 @@
         <v>19.82999999999997</v>
       </c>
       <c r="K511" t="n">
-        <v>-8.695652173913068</v>
+        <v>-39.99999999999982</v>
       </c>
       <c r="L511" t="n">
         <v>8.288999999999984</v>
@@ -26396,7 +26418,7 @@
         <v>19.85999999999997</v>
       </c>
       <c r="K512" t="n">
-        <v>-12.35955056179798</v>
+        <v>-21.05263157894744</v>
       </c>
       <c r="L512" t="n">
         <v>8.275999999999986</v>
@@ -26447,7 +26469,7 @@
         <v>19.86999999999997</v>
       </c>
       <c r="K513" t="n">
-        <v>-11.11111111111137</v>
+        <v>-13.5135135135138</v>
       </c>
       <c r="L513" t="n">
         <v>8.268999999999986</v>
@@ -26498,7 +26520,7 @@
         <v>19.94999999999997</v>
       </c>
       <c r="K514" t="n">
-        <v>3.225806451612873</v>
+        <v>0</v>
       </c>
       <c r="L514" t="n">
         <v>8.271999999999986</v>
@@ -26549,7 +26571,7 @@
         <v>19.95999999999997</v>
       </c>
       <c r="K515" t="n">
-        <v>4.347826086956489</v>
+        <v>-18.91891891891949</v>
       </c>
       <c r="L515" t="n">
         <v>8.270999999999985</v>
@@ -26600,7 +26622,7 @@
         <v>20.03999999999996</v>
       </c>
       <c r="K516" t="n">
-        <v>-4.000000000000149</v>
+        <v>-31.81818181818263</v>
       </c>
       <c r="L516" t="n">
         <v>8.255999999999984</v>
@@ -26651,7 +26673,7 @@
         <v>20.03999999999996</v>
       </c>
       <c r="K517" t="n">
-        <v>3.225806451612884</v>
+        <v>-31.81818181818263</v>
       </c>
       <c r="L517" t="n">
         <v>8.241999999999985</v>
@@ -26702,7 +26724,7 @@
         <v>20.04999999999996</v>
       </c>
       <c r="K518" t="n">
-        <v>-15.00000000000044</v>
+        <v>-42.85714285714406</v>
       </c>
       <c r="L518" t="n">
         <v>8.226999999999986</v>
@@ -26753,7 +26775,7 @@
         <v>20.06999999999996</v>
       </c>
       <c r="K519" t="n">
-        <v>-8.108108108108349</v>
+        <v>-27.27272727272825</v>
       </c>
       <c r="L519" t="n">
         <v>8.206999999999985</v>
@@ -26804,7 +26826,7 @@
         <v>20.06999999999996</v>
       </c>
       <c r="K520" t="n">
-        <v>-9.58904109589063</v>
+        <v>0</v>
       </c>
       <c r="L520" t="n">
         <v>8.197999999999984</v>
@@ -26855,7 +26877,7 @@
         <v>20.21999999999996</v>
       </c>
       <c r="K521" t="n">
-        <v>0</v>
+        <v>33.33333333333432</v>
       </c>
       <c r="L521" t="n">
         <v>8.212999999999985</v>
@@ -26906,7 +26928,7 @@
         <v>20.28999999999996</v>
       </c>
       <c r="K522" t="n">
-        <v>6.976744186046632</v>
+        <v>42.85714285714376</v>
       </c>
       <c r="L522" t="n">
         <v>8.231999999999985</v>
@@ -26957,7 +26979,7 @@
         <v>20.37999999999997</v>
       </c>
       <c r="K523" t="n">
-        <v>2.222222222222187</v>
+        <v>2.325581395348789</v>
       </c>
       <c r="L523" t="n">
         <v>8.240999999999984</v>
@@ -27008,7 +27030,7 @@
         <v>20.38999999999997</v>
       </c>
       <c r="K524" t="n">
-        <v>3.370786516853885</v>
+        <v>2.325581395348789</v>
       </c>
       <c r="L524" t="n">
         <v>8.240999999999984</v>
@@ -27059,7 +27081,7 @@
         <v>20.40999999999996</v>
       </c>
       <c r="K525" t="n">
-        <v>-2.272727272727245</v>
+        <v>18.91891891891894</v>
       </c>
       <c r="L525" t="n">
         <v>8.239999999999984</v>
@@ -27110,7 +27132,7 @@
         <v>20.41999999999997</v>
       </c>
       <c r="K526" t="n">
-        <v>-10.843373493976</v>
+        <v>15.78947368421055</v>
       </c>
       <c r="L526" t="n">
         <v>8.245999999999984</v>
@@ -27161,7 +27183,7 @@
         <v>20.46999999999997</v>
       </c>
       <c r="K527" t="n">
-        <v>-3.448275862068916</v>
+        <v>28.57142857142845</v>
       </c>
       <c r="L527" t="n">
         <v>8.256999999999985</v>
@@ -27212,7 +27234,7 @@
         <v>20.49999999999997</v>
       </c>
       <c r="K528" t="n">
-        <v>-6.666666666666758</v>
+        <v>25.58139534883667</v>
       </c>
       <c r="L528" t="n">
         <v>8.265999999999986</v>
@@ -27263,7 +27285,7 @@
         <v>20.50999999999997</v>
       </c>
       <c r="K529" t="n">
-        <v>-9.090909090909145</v>
+        <v>27.27272727272658</v>
       </c>
       <c r="L529" t="n">
         <v>8.277999999999986</v>
@@ -27314,7 +27336,7 @@
         <v>20.50999999999997</v>
       </c>
       <c r="K530" t="n">
-        <v>3.896103896103833</v>
+        <v>-10.34482758620707</v>
       </c>
       <c r="L530" t="n">
         <v>8.289999999999987</v>
@@ -27365,7 +27387,7 @@
         <v>20.59999999999997</v>
       </c>
       <c r="K531" t="n">
-        <v>27.27272727272729</v>
+        <v>-3.225806451613347</v>
       </c>
       <c r="L531" t="n">
         <v>8.295999999999987</v>
@@ -27416,7 +27438,7 @@
         <v>20.60999999999997</v>
       </c>
       <c r="K532" t="n">
-        <v>22.66666666666666</v>
+        <v>30.43478260869525</v>
       </c>
       <c r="L532" t="n">
         <v>8.293999999999986</v>
@@ -27467,7 +27489,7 @@
         <v>20.63999999999997</v>
       </c>
       <c r="K533" t="n">
-        <v>16.88311688311692</v>
+        <v>19.99999999999972</v>
       </c>
       <c r="L533" t="n">
         <v>8.297999999999988</v>
@@ -27518,7 +27540,7 @@
         <v>20.77999999999997</v>
       </c>
       <c r="K534" t="n">
-        <v>-10.84337349397582</v>
+        <v>-18.91891891891858</v>
       </c>
       <c r="L534" t="n">
         <v>8.288999999999987</v>
@@ -27569,7 +27591,7 @@
         <v>20.87999999999997</v>
       </c>
       <c r="K535" t="n">
-        <v>2.173913043478194</v>
+        <v>8.695652173912707</v>
       </c>
       <c r="L535" t="n">
         <v>8.291999999999986</v>
@@ -27620,7 +27642,7 @@
         <v>20.94999999999997</v>
       </c>
       <c r="K536" t="n">
-        <v>18.68131868131845</v>
+        <v>12.49999999999954</v>
       </c>
       <c r="L536" t="n">
         <v>8.302999999999987</v>
@@ -27722,7 +27744,7 @@
         <v>21.08999999999997</v>
       </c>
       <c r="K538" t="n">
-        <v>3.846153846153898</v>
+        <v>-10.34482758620664</v>
       </c>
       <c r="L538" t="n">
         <v>8.302999999999987</v>
@@ -27773,7 +27795,7 @@
         <v>21.09999999999997</v>
       </c>
       <c r="K539" t="n">
-        <v>6.796116504854319</v>
+        <v>-8.474576271186212</v>
       </c>
       <c r="L539" t="n">
         <v>8.297999999999986</v>
@@ -27824,7 +27846,7 @@
         <v>21.10999999999997</v>
       </c>
       <c r="K540" t="n">
-        <v>5.769230769230763</v>
+        <v>-29.41176470588198</v>
       </c>
       <c r="L540" t="n">
         <v>8.291999999999986</v>
@@ -27875,7 +27897,7 @@
         <v>21.10999999999997</v>
       </c>
       <c r="K541" t="n">
-        <v>-10.1123595505617</v>
+        <v>-27.99999999999976</v>
       </c>
       <c r="L541" t="n">
         <v>8.276999999999985</v>
@@ -27926,7 +27948,7 @@
         <v>21.14999999999997</v>
       </c>
       <c r="K542" t="n">
-        <v>-13.95348837209303</v>
+        <v>-13.72549019607854</v>
       </c>
       <c r="L542" t="n">
         <v>8.266999999999985</v>
@@ -27977,7 +27999,7 @@
         <v>21.14999999999997</v>
       </c>
       <c r="K543" t="n">
-        <v>-3.896103896103797</v>
+        <v>18.91891891891913</v>
       </c>
       <c r="L543" t="n">
         <v>8.259999999999987</v>
@@ -28028,7 +28050,7 @@
         <v>21.19999999999997</v>
       </c>
       <c r="K544" t="n">
-        <v>3.703703703703817</v>
+        <v>6.250000000000486</v>
       </c>
       <c r="L544" t="n">
         <v>8.271999999999988</v>
@@ -28079,7 +28101,7 @@
         <v>21.22999999999997</v>
       </c>
       <c r="K545" t="n">
-        <v>9.756097560975572</v>
+        <v>-7.142857142857142</v>
       </c>
       <c r="L545" t="n">
         <v>8.276999999999987</v>
@@ -28130,7 +28152,7 @@
         <v>21.25999999999997</v>
       </c>
       <c r="K546" t="n">
-        <v>14.28571428571414</v>
+        <v>6.666666666666588</v>
       </c>
       <c r="L546" t="n">
         <v>8.277999999999988</v>
@@ -28181,7 +28203,7 @@
         <v>21.25999999999997</v>
       </c>
       <c r="K547" t="n">
-        <v>8.860759493670667</v>
+        <v>88.23529411764717</v>
       </c>
       <c r="L547" t="n">
         <v>8.279999999999989</v>
@@ -28232,7 +28254,7 @@
         <v>21.30999999999997</v>
       </c>
       <c r="K548" t="n">
-        <v>18.51851851851851</v>
+        <v>90.47619047619139</v>
       </c>
       <c r="L548" t="n">
         <v>8.299999999999988</v>
@@ -28283,7 +28305,7 @@
         <v>21.30999999999997</v>
       </c>
       <c r="K549" t="n">
-        <v>17.50000000000005</v>
+        <v>100</v>
       </c>
       <c r="L549" t="n">
         <v>8.318999999999988</v>
@@ -28334,7 +28356,7 @@
         <v>21.38999999999997</v>
       </c>
       <c r="K550" t="n">
-        <v>6.818181818181855</v>
+        <v>42.85714285714241</v>
       </c>
       <c r="L550" t="n">
         <v>8.330999999999989</v>
@@ -28385,7 +28407,7 @@
         <v>21.42999999999997</v>
       </c>
       <c r="K551" t="n">
-        <v>-8.433734939758837</v>
+        <v>14.28571428571456</v>
       </c>
       <c r="L551" t="n">
         <v>8.338999999999988</v>
@@ -28436,7 +28458,7 @@
         <v>21.43999999999997</v>
       </c>
       <c r="K552" t="n">
-        <v>-6.024096385542053</v>
+        <v>17.24137931034512</v>
       </c>
       <c r="L552" t="n">
         <v>8.343999999999989</v>
@@ -28487,7 +28509,7 @@
         <v>21.46999999999997</v>
       </c>
       <c r="K553" t="n">
-        <v>1.204819277108411</v>
+        <v>11.11111111111089</v>
       </c>
       <c r="L553" t="n">
         <v>8.351999999999988</v>
@@ -28538,7 +28560,7 @@
         <v>21.50999999999997</v>
       </c>
       <c r="K554" t="n">
-        <v>15.06849315068516</v>
+        <v>-14.28571428571392</v>
       </c>
       <c r="L554" t="n">
         <v>8.350999999999988</v>
@@ -28589,7 +28611,7 @@
         <v>21.53999999999997</v>
       </c>
       <c r="K555" t="n">
-        <v>6.060606060606232</v>
+        <v>-14.28571428571392</v>
       </c>
       <c r="L555" t="n">
         <v>8.349999999999987</v>
@@ -28640,7 +28662,7 @@
         <v>21.54999999999997</v>
       </c>
       <c r="K556" t="n">
-        <v>-6.666666666666588</v>
+        <v>-17.24137931034451</v>
       </c>
       <c r="L556" t="n">
         <v>8.344999999999988</v>
@@ -28691,7 +28713,7 @@
         <v>21.54999999999997</v>
       </c>
       <c r="K557" t="n">
-        <v>-5.084745762711788</v>
+        <v>-41.66666666666679</v>
       </c>
       <c r="L557" t="n">
         <v>8.339999999999986</v>
@@ -28742,7 +28764,7 @@
         <v>21.56999999999997</v>
       </c>
       <c r="K558" t="n">
-        <v>25</v>
+        <v>-30.76923076923103</v>
       </c>
       <c r="L558" t="n">
         <v>8.331999999999987</v>
@@ -28793,7 +28815,7 @@
         <v>21.60999999999997</v>
       </c>
       <c r="K559" t="n">
-        <v>13.72549019607863</v>
+        <v>-18.18181818181818</v>
       </c>
       <c r="L559" t="n">
         <v>8.319999999999986</v>
@@ -28844,7 +28866,7 @@
         <v>21.64999999999997</v>
       </c>
       <c r="K560" t="n">
-        <v>22.22222222222226</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="L560" t="n">
         <v>8.319999999999986</v>
@@ -28895,7 +28917,7 @@
         <v>21.68999999999997</v>
       </c>
       <c r="K561" t="n">
-        <v>13.793103448276</v>
+        <v>-3.999999999999972</v>
       </c>
       <c r="L561" t="n">
         <v>8.319999999999986</v>
@@ -28946,7 +28968,7 @@
         <v>21.68999999999997</v>
       </c>
       <c r="K562" t="n">
-        <v>7.407407407407638</v>
+        <v>-18.18181818181818</v>
       </c>
       <c r="L562" t="n">
         <v>8.318999999999985</v>
@@ -28997,7 +29019,7 @@
         <v>21.68999999999997</v>
       </c>
       <c r="K563" t="n">
-        <v>7.407407407407638</v>
+        <v>0</v>
       </c>
       <c r="L563" t="n">
         <v>8.314999999999985</v>
@@ -29048,7 +29070,7 @@
         <v>21.73999999999997</v>
       </c>
       <c r="K564" t="n">
-        <v>7.40740740740731</v>
+        <v>10</v>
       </c>
       <c r="L564" t="n">
         <v>8.319999999999984</v>
@@ -29099,7 +29121,7 @@
         <v>21.80999999999997</v>
       </c>
       <c r="K565" t="n">
-        <v>13.79310344827591</v>
+        <v>38.46153846153862</v>
       </c>
       <c r="L565" t="n">
         <v>8.328999999999985</v>
@@ -29150,7 +29172,7 @@
         <v>21.88999999999997</v>
       </c>
       <c r="K566" t="n">
-        <v>-4.761904761904695</v>
+        <v>5.88235294117641</v>
       </c>
       <c r="L566" t="n">
         <v>8.330999999999985</v>
@@ -29201,7 +29223,7 @@
         <v>21.88999999999997</v>
       </c>
       <c r="K567" t="n">
-        <v>-4.761904761904695</v>
+        <v>0</v>
       </c>
       <c r="L567" t="n">
         <v>8.332999999999988</v>
@@ -29252,7 +29274,7 @@
         <v>21.88999999999997</v>
       </c>
       <c r="K568" t="n">
-        <v>-13.793103448276</v>
+        <v>14.28571428571411</v>
       </c>
       <c r="L568" t="n">
         <v>8.332999999999988</v>
@@ -29303,7 +29325,7 @@
         <v>21.96999999999996</v>
       </c>
       <c r="K569" t="n">
-        <v>0</v>
+        <v>25.00000000000028</v>
       </c>
       <c r="L569" t="n">
         <v>8.344999999999988</v>
@@ -29354,7 +29376,7 @@
         <v>22.03999999999996</v>
       </c>
       <c r="K570" t="n">
-        <v>1.538461538461526</v>
+        <v>14.28571428571407</v>
       </c>
       <c r="L570" t="n">
         <v>8.345999999999986</v>
@@ -29405,7 +29427,7 @@
         <v>22.03999999999996</v>
       </c>
       <c r="K571" t="n">
-        <v>8.196721311475338</v>
+        <v>14.28571428571407</v>
       </c>
       <c r="L571" t="n">
         <v>8.350999999999987</v>
@@ -29456,7 +29478,7 @@
         <v>22.03999999999996</v>
       </c>
       <c r="K572" t="n">
-        <v>6.666666666666588</v>
+        <v>14.28571428571407</v>
       </c>
       <c r="L572" t="n">
         <v>8.355999999999986</v>
@@ -29507,7 +29529,7 @@
         <v>22.12999999999996</v>
       </c>
       <c r="K573" t="n">
-        <v>15.15151515151526</v>
+        <v>23.07692307692322</v>
       </c>
       <c r="L573" t="n">
         <v>8.369999999999987</v>
@@ -29558,7 +29580,7 @@
         <v>22.12999999999996</v>
       </c>
       <c r="K574" t="n">
-        <v>22.58064516129035</v>
+        <v>6.249999999999931</v>
       </c>
       <c r="L574" t="n">
         <v>8.378999999999987</v>
@@ -29609,7 +29631,7 @@
         <v>22.12999999999996</v>
       </c>
       <c r="K575" t="n">
-        <v>18.6440677966103</v>
+        <v>41.66666666666679</v>
       </c>
       <c r="L575" t="n">
         <v>8.380999999999986</v>
@@ -29660,7 +29682,7 @@
         <v>22.21999999999996</v>
       </c>
       <c r="K576" t="n">
-        <v>4.477611940298448</v>
+        <v>3.030303030302981</v>
       </c>
       <c r="L576" t="n">
         <v>8.381999999999985</v>
@@ -29711,7 +29733,7 @@
         <v>22.21999999999996</v>
       </c>
       <c r="K577" t="n">
-        <v>4.477611940298448</v>
+        <v>3.030303030302981</v>
       </c>
       <c r="L577" t="n">
         <v>8.382999999999985</v>
@@ -29762,7 +29784,7 @@
         <v>22.28999999999996</v>
       </c>
       <c r="K578" t="n">
-        <v>11.11111111111119</v>
+        <v>0</v>
       </c>
       <c r="L578" t="n">
         <v>8.390999999999984</v>
@@ -29813,7 +29835,7 @@
         <v>22.35999999999996</v>
       </c>
       <c r="K579" t="n">
-        <v>6.666666666666556</v>
+        <v>0</v>
       </c>
       <c r="L579" t="n">
         <v>8.383999999999983</v>
@@ -29864,7 +29886,7 @@
         <v>22.35999999999996</v>
       </c>
       <c r="K580" t="n">
-        <v>1.408450704225328</v>
+        <v>0</v>
       </c>
       <c r="L580" t="n">
         <v>8.383999999999983</v>
@@ -29915,7 +29937,7 @@
         <v>22.38999999999997</v>
       </c>
       <c r="K581" t="n">
-        <v>2.857142857142799</v>
+        <v>-8.571428571428354</v>
       </c>
       <c r="L581" t="n">
         <v>8.380999999999982</v>
@@ -29966,7 +29988,7 @@
         <v>22.38999999999997</v>
       </c>
       <c r="K582" t="n">
-        <v>2.857142857142799</v>
+        <v>-46.15384615384557</v>
       </c>
       <c r="L582" t="n">
         <v>8.377999999999982</v>
@@ -30017,7 +30039,7 @@
         <v>22.38999999999997</v>
       </c>
       <c r="K583" t="n">
-        <v>2.857142857142799</v>
+        <v>-46.15384615384557</v>
       </c>
       <c r="L583" t="n">
         <v>8.365999999999982</v>
@@ -30068,7 +30090,7 @@
         <v>22.38999999999997</v>
       </c>
       <c r="K584" t="n">
-        <v>-4.615384615384527</v>
+        <v>-46.15384615384557</v>
       </c>
       <c r="L584" t="n">
         <v>8.353999999999981</v>
@@ -30119,7 +30141,7 @@
         <v>22.38999999999997</v>
       </c>
       <c r="K585" t="n">
-        <v>-17.24137931034482</v>
+        <v>-17.64705882352886</v>
       </c>
       <c r="L585" t="n">
         <v>8.341999999999981</v>
@@ -30170,7 +30192,7 @@
         <v>22.40999999999996</v>
       </c>
       <c r="K586" t="n">
-        <v>-7.692307692307534</v>
+        <v>-26.31578947368347</v>
       </c>
       <c r="L586" t="n">
         <v>8.336999999999982</v>
@@ -30221,7 +30243,7 @@
         <v>22.44999999999997</v>
       </c>
       <c r="K587" t="n">
-        <v>-14.28571428571424</v>
+        <v>-99.99999999999778</v>
       </c>
       <c r="L587" t="n">
         <v>8.327999999999983</v>
@@ -30272,7 +30294,7 @@
         <v>22.50999999999997</v>
       </c>
       <c r="K588" t="n">
-        <v>-3.225806451612811</v>
+        <v>-19.99999999999882</v>
       </c>
       <c r="L588" t="n">
         <v>8.317999999999982</v>
@@ -30323,7 +30345,7 @@
         <v>22.50999999999997</v>
       </c>
       <c r="K589" t="n">
-        <v>-18.51851851851824</v>
+        <v>-19.99999999999882</v>
       </c>
       <c r="L589" t="n">
         <v>8.314999999999984</v>
@@ -30374,7 +30396,7 @@
         <v>22.50999999999997</v>
       </c>
       <c r="K590" t="n">
-        <v>-6.382978723404038</v>
+        <v>0</v>
       </c>
       <c r="L590" t="n">
         <v>8.311999999999983</v>
@@ -30425,7 +30447,7 @@
         <v>22.50999999999997</v>
       </c>
       <c r="K591" t="n">
-        <v>-6.382978723404038</v>
+        <v>0</v>
       </c>
       <c r="L591" t="n">
         <v>8.311999999999983</v>
@@ -30476,7 +30498,7 @@
         <v>22.50999999999997</v>
       </c>
       <c r="K592" t="n">
-        <v>-6.382978723404038</v>
+        <v>0</v>
       </c>
       <c r="L592" t="n">
         <v>8.311999999999983</v>
@@ -30527,7 +30549,7 @@
         <v>22.53999999999997</v>
       </c>
       <c r="K593" t="n">
-        <v>-36.58536585365798</v>
+        <v>-20</v>
       </c>
       <c r="L593" t="n">
         <v>8.308999999999983</v>
@@ -30578,7 +30600,7 @@
         <v>22.53999999999997</v>
       </c>
       <c r="K594" t="n">
-        <v>-36.58536585365798</v>
+        <v>-20</v>
       </c>
       <c r="L594" t="n">
         <v>8.305999999999983</v>
@@ -30629,7 +30651,7 @@
         <v>22.54999999999997</v>
       </c>
       <c r="K595" t="n">
-        <v>-33.33333333333235</v>
+        <v>0</v>
       </c>
       <c r="L595" t="n">
         <v>8.303999999999983</v>
@@ -30680,7 +30702,7 @@
         <v>22.54999999999997</v>
       </c>
       <c r="K596" t="n">
-        <v>-15.15151515151442</v>
+        <v>39.99999999999893</v>
       </c>
       <c r="L596" t="n">
         <v>8.303999999999983</v>
@@ -30731,7 +30753,7 @@
         <v>22.58999999999997</v>
       </c>
       <c r="K597" t="n">
-        <v>-24.32432432432352</v>
+        <v>-74.99999999999557</v>
       </c>
       <c r="L597" t="n">
         <v>8.303999999999983</v>
@@ -30782,7 +30804,7 @@
         <v>22.58999999999997</v>
       </c>
       <c r="K598" t="n">
-        <v>-53.33333333333135</v>
+        <v>-74.99999999999557</v>
       </c>
       <c r="L598" t="n">
         <v>8.297999999999982</v>
@@ -30833,7 +30855,7 @@
         <v>22.60999999999997</v>
       </c>
       <c r="K599" t="n">
-        <v>-27.99999999999892</v>
+        <v>-39.99999999999893</v>
       </c>
       <c r="L599" t="n">
         <v>8.293999999999983</v>
@@ -30884,7 +30906,7 @@
         <v>22.67999999999997</v>
       </c>
       <c r="K600" t="n">
-        <v>-43.74999999999861</v>
+        <v>-64.70588235294019</v>
       </c>
       <c r="L600" t="n">
         <v>8.282999999999983</v>
@@ -30935,7 +30957,7 @@
         <v>22.68999999999997</v>
       </c>
       <c r="K601" t="n">
-        <v>-33.33333333333275</v>
+        <v>-55.55555555555544</v>
       </c>
       <c r="L601" t="n">
         <v>8.272999999999985</v>
@@ -30986,7 +31008,7 @@
         <v>22.68999999999997</v>
       </c>
       <c r="K602" t="n">
-        <v>-33.33333333333275</v>
+        <v>-46.66666666666611</v>
       </c>
       <c r="L602" t="n">
         <v>8.262999999999986</v>
@@ -31037,7 +31059,7 @@
         <v>22.75999999999997</v>
       </c>
       <c r="K603" t="n">
-        <v>-8.108108108108315</v>
+        <v>0</v>
       </c>
       <c r="L603" t="n">
         <v>8.262999999999986</v>
@@ -31088,7 +31110,7 @@
         <v>22.81999999999997</v>
       </c>
       <c r="K604" t="n">
-        <v>-20.93023255813934</v>
+        <v>-25.92592592592641</v>
       </c>
       <c r="L604" t="n">
         <v>8.256999999999985</v>
@@ -31139,7 +31161,7 @@
         <v>22.87999999999997</v>
       </c>
       <c r="K605" t="n">
-        <v>-6.122448979592044</v>
+        <v>-3.030303030303552</v>
       </c>
       <c r="L605" t="n">
         <v>8.255999999999984</v>

--- a/BackTest/2019-10-25 BackTest MIX.xlsx
+++ b/BackTest/2019-10-25 BackTest MIX.xlsx
@@ -451,20 +451,14 @@
         <v>7.952166666666668</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>8.550000000000001</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
       </c>
@@ -492,20 +486,14 @@
         <v>7.964333333333334</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>8.630000000000001</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -536,15 +524,11 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -575,15 +559,11 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -618,11 +598,7 @@
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -657,11 +633,7 @@
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -696,11 +668,7 @@
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -735,11 +703,7 @@
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -774,11 +738,7 @@
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -813,11 +773,7 @@
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -852,11 +808,7 @@
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -891,11 +843,7 @@
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -930,11 +878,7 @@
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -969,11 +913,7 @@
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1008,11 +948,7 @@
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1047,11 +983,7 @@
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1086,11 +1018,7 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1125,11 +1053,7 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1160,16 +1084,14 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1232,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1302,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1337,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1442,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1582,7 +1504,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -1617,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -1652,7 +1574,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -1722,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -1757,7 +1679,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
@@ -1792,7 +1714,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
@@ -1862,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
@@ -17574,13 +17496,17 @@
         <v>8.543000000000012</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I489" t="n">
         <v>0</v>
       </c>
-      <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>8.16</v>
+      </c>
+      <c r="K489" t="n">
+        <v>8.16</v>
+      </c>
       <c r="L489" t="inlineStr"/>
       <c r="M489" t="n">
         <v>1</v>
@@ -17609,14 +17535,22 @@
         <v>8.535333333333345</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I490" t="n">
         <v>0</v>
       </c>
-      <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
-      <c r="L490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>8.27</v>
+      </c>
+      <c r="K490" t="n">
+        <v>8.16</v>
+      </c>
+      <c r="L490" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M490" t="n">
         <v>1</v>
       </c>
@@ -17644,14 +17578,22 @@
         <v>8.527333333333344</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I491" t="n">
         <v>0</v>
       </c>
-      <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
-      <c r="L491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>8.27</v>
+      </c>
+      <c r="K491" t="n">
+        <v>8.16</v>
+      </c>
+      <c r="L491" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M491" t="n">
         <v>1</v>
       </c>
@@ -17679,13 +17621,17 @@
         <v>8.520333333333344</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I492" t="n">
         <v>0</v>
       </c>
-      <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>8.24</v>
+      </c>
+      <c r="K492" t="n">
+        <v>8.24</v>
+      </c>
       <c r="L492" t="inlineStr"/>
       <c r="M492" t="n">
         <v>1</v>
@@ -17714,14 +17660,22 @@
         <v>8.513166666666676</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I493" t="n">
         <v>0</v>
       </c>
-      <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
-      <c r="L493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="K493" t="n">
+        <v>8.24</v>
+      </c>
+      <c r="L493" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M493" t="n">
         <v>1</v>
       </c>
@@ -17749,14 +17703,22 @@
         <v>8.505333333333342</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I494" t="n">
         <v>0</v>
       </c>
-      <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
-      <c r="L494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="K494" t="n">
+        <v>8.24</v>
+      </c>
+      <c r="L494" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M494" t="n">
         <v>1</v>
       </c>
@@ -18659,17 +18621,13 @@
         <v>8.343500000000011</v>
       </c>
       <c r="H520" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I520" t="n">
         <v>0</v>
       </c>
-      <c r="J520" t="n">
-        <v>8.16</v>
-      </c>
-      <c r="K520" t="n">
-        <v>8.16</v>
-      </c>
+      <c r="J520" t="inlineStr"/>
+      <c r="K520" t="inlineStr"/>
       <c r="L520" t="inlineStr"/>
       <c r="M520" t="n">
         <v>1</v>
@@ -18698,22 +18656,14 @@
         <v>8.338333333333344</v>
       </c>
       <c r="H521" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I521" t="n">
         <v>0</v>
       </c>
-      <c r="J521" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K521" t="n">
-        <v>8.16</v>
-      </c>
-      <c r="L521" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J521" t="inlineStr"/>
+      <c r="K521" t="inlineStr"/>
+      <c r="L521" t="inlineStr"/>
       <c r="M521" t="n">
         <v>1</v>
       </c>
@@ -18741,22 +18691,14 @@
         <v>8.334333333333344</v>
       </c>
       <c r="H522" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I522" t="n">
         <v>0</v>
       </c>
-      <c r="J522" t="n">
-        <v>8.31</v>
-      </c>
-      <c r="K522" t="n">
-        <v>8.16</v>
-      </c>
-      <c r="L522" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J522" t="inlineStr"/>
+      <c r="K522" t="inlineStr"/>
+      <c r="L522" t="inlineStr"/>
       <c r="M522" t="n">
         <v>1</v>
       </c>
@@ -18784,22 +18726,14 @@
         <v>8.327666666666678</v>
       </c>
       <c r="H523" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I523" t="n">
         <v>0</v>
       </c>
-      <c r="J523" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="K523" t="n">
-        <v>8.16</v>
-      </c>
-      <c r="L523" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J523" t="inlineStr"/>
+      <c r="K523" t="inlineStr"/>
+      <c r="L523" t="inlineStr"/>
       <c r="M523" t="n">
         <v>1</v>
       </c>
@@ -18833,14 +18767,8 @@
         <v>0</v>
       </c>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="n">
-        <v>8.16</v>
-      </c>
-      <c r="L524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K524" t="inlineStr"/>
+      <c r="L524" t="inlineStr"/>
       <c r="M524" t="n">
         <v>1</v>
       </c>
@@ -18874,14 +18802,8 @@
         <v>0</v>
       </c>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="n">
-        <v>8.16</v>
-      </c>
-      <c r="L525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K525" t="inlineStr"/>
+      <c r="L525" t="inlineStr"/>
       <c r="M525" t="n">
         <v>1</v>
       </c>
@@ -18915,14 +18837,8 @@
         <v>0</v>
       </c>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="n">
-        <v>8.16</v>
-      </c>
-      <c r="L526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K526" t="inlineStr"/>
+      <c r="L526" t="inlineStr"/>
       <c r="M526" t="n">
         <v>1</v>
       </c>
@@ -18956,14 +18872,8 @@
         <v>0</v>
       </c>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="n">
-        <v>8.16</v>
-      </c>
-      <c r="L527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K527" t="inlineStr"/>
+      <c r="L527" t="inlineStr"/>
       <c r="M527" t="n">
         <v>1</v>
       </c>
@@ -18997,14 +18907,8 @@
         <v>0</v>
       </c>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="n">
-        <v>8.16</v>
-      </c>
-      <c r="L528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K528" t="inlineStr"/>
+      <c r="L528" t="inlineStr"/>
       <c r="M528" t="n">
         <v>1</v>
       </c>
@@ -19038,14 +18942,8 @@
         <v>0</v>
       </c>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="n">
-        <v>8.16</v>
-      </c>
-      <c r="L529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K529" t="inlineStr"/>
+      <c r="L529" t="inlineStr"/>
       <c r="M529" t="n">
         <v>1</v>
       </c>
@@ -19079,14 +18977,8 @@
         <v>0</v>
       </c>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="n">
-        <v>8.16</v>
-      </c>
-      <c r="L530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K530" t="inlineStr"/>
+      <c r="L530" t="inlineStr"/>
       <c r="M530" t="n">
         <v>1</v>
       </c>
@@ -19120,14 +19012,8 @@
         <v>0</v>
       </c>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="n">
-        <v>8.16</v>
-      </c>
-      <c r="L531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K531" t="inlineStr"/>
+      <c r="L531" t="inlineStr"/>
       <c r="M531" t="n">
         <v>1</v>
       </c>
@@ -19161,14 +19047,8 @@
         <v>0</v>
       </c>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="n">
-        <v>8.16</v>
-      </c>
-      <c r="L532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K532" t="inlineStr"/>
+      <c r="L532" t="inlineStr"/>
       <c r="M532" t="n">
         <v>1</v>
       </c>
@@ -19202,14 +19082,8 @@
         <v>0</v>
       </c>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="n">
-        <v>8.16</v>
-      </c>
-      <c r="L533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K533" t="inlineStr"/>
+      <c r="L533" t="inlineStr"/>
       <c r="M533" t="n">
         <v>1</v>
       </c>
@@ -19243,14 +19117,8 @@
         <v>0</v>
       </c>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="n">
-        <v>8.16</v>
-      </c>
-      <c r="L534" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K534" t="inlineStr"/>
+      <c r="L534" t="inlineStr"/>
       <c r="M534" t="n">
         <v>1</v>
       </c>
@@ -19284,14 +19152,8 @@
         <v>0</v>
       </c>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="n">
-        <v>8.16</v>
-      </c>
-      <c r="L535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K535" t="inlineStr"/>
+      <c r="L535" t="inlineStr"/>
       <c r="M535" t="n">
         <v>1</v>
       </c>
@@ -19325,14 +19187,8 @@
         <v>0</v>
       </c>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="n">
-        <v>8.16</v>
-      </c>
-      <c r="L536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K536" t="inlineStr"/>
+      <c r="L536" t="inlineStr"/>
       <c r="M536" t="n">
         <v>1</v>
       </c>
@@ -19366,14 +19222,8 @@
         <v>0</v>
       </c>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="n">
-        <v>8.16</v>
-      </c>
-      <c r="L537" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K537" t="inlineStr"/>
+      <c r="L537" t="inlineStr"/>
       <c r="M537" t="n">
         <v>1</v>
       </c>
@@ -19407,14 +19257,8 @@
         <v>0</v>
       </c>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="n">
-        <v>8.16</v>
-      </c>
-      <c r="L538" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K538" t="inlineStr"/>
+      <c r="L538" t="inlineStr"/>
       <c r="M538" t="n">
         <v>1</v>
       </c>
@@ -19448,14 +19292,8 @@
         <v>0</v>
       </c>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="n">
-        <v>8.16</v>
-      </c>
-      <c r="L539" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K539" t="inlineStr"/>
+      <c r="L539" t="inlineStr"/>
       <c r="M539" t="n">
         <v>1</v>
       </c>
@@ -19489,14 +19327,8 @@
         <v>0</v>
       </c>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="n">
-        <v>8.16</v>
-      </c>
-      <c r="L540" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K540" t="inlineStr"/>
+      <c r="L540" t="inlineStr"/>
       <c r="M540" t="n">
         <v>1</v>
       </c>
@@ -19530,14 +19362,8 @@
         <v>0</v>
       </c>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="n">
-        <v>8.16</v>
-      </c>
-      <c r="L541" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K541" t="inlineStr"/>
+      <c r="L541" t="inlineStr"/>
       <c r="M541" t="n">
         <v>1</v>
       </c>
@@ -19571,14 +19397,8 @@
         <v>0</v>
       </c>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="n">
-        <v>8.16</v>
-      </c>
-      <c r="L542" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K542" t="inlineStr"/>
+      <c r="L542" t="inlineStr"/>
       <c r="M542" t="n">
         <v>1</v>
       </c>
@@ -19612,14 +19432,8 @@
         <v>0</v>
       </c>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="n">
-        <v>8.16</v>
-      </c>
-      <c r="L543" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K543" t="inlineStr"/>
+      <c r="L543" t="inlineStr"/>
       <c r="M543" t="n">
         <v>1</v>
       </c>
@@ -19653,14 +19467,8 @@
         <v>0</v>
       </c>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="n">
-        <v>8.16</v>
-      </c>
-      <c r="L544" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K544" t="inlineStr"/>
+      <c r="L544" t="inlineStr"/>
       <c r="M544" t="n">
         <v>1</v>
       </c>
@@ -19694,14 +19502,8 @@
         <v>0</v>
       </c>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="n">
-        <v>8.16</v>
-      </c>
-      <c r="L545" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K545" t="inlineStr"/>
+      <c r="L545" t="inlineStr"/>
       <c r="M545" t="n">
         <v>1</v>
       </c>
@@ -19735,14 +19537,8 @@
         <v>0</v>
       </c>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="n">
-        <v>8.16</v>
-      </c>
-      <c r="L546" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K546" t="inlineStr"/>
+      <c r="L546" t="inlineStr"/>
       <c r="M546" t="n">
         <v>1</v>
       </c>
@@ -19776,14 +19572,8 @@
         <v>0</v>
       </c>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="n">
-        <v>8.16</v>
-      </c>
-      <c r="L547" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K547" t="inlineStr"/>
+      <c r="L547" t="inlineStr"/>
       <c r="M547" t="n">
         <v>1</v>
       </c>
@@ -19817,14 +19607,8 @@
         <v>0</v>
       </c>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="n">
-        <v>8.16</v>
-      </c>
-      <c r="L548" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K548" t="inlineStr"/>
+      <c r="L548" t="inlineStr"/>
       <c r="M548" t="n">
         <v>1</v>
       </c>
@@ -19858,14 +19642,8 @@
         <v>0</v>
       </c>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="n">
-        <v>8.16</v>
-      </c>
-      <c r="L549" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K549" t="inlineStr"/>
+      <c r="L549" t="inlineStr"/>
       <c r="M549" t="n">
         <v>1</v>
       </c>
@@ -19899,14 +19677,8 @@
         <v>0</v>
       </c>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="n">
-        <v>8.16</v>
-      </c>
-      <c r="L550" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K550" t="inlineStr"/>
+      <c r="L550" t="inlineStr"/>
       <c r="M550" t="n">
         <v>1</v>
       </c>
@@ -19940,14 +19712,8 @@
         <v>0</v>
       </c>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="n">
-        <v>8.16</v>
-      </c>
-      <c r="L551" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K551" t="inlineStr"/>
+      <c r="L551" t="inlineStr"/>
       <c r="M551" t="n">
         <v>1</v>
       </c>
@@ -19981,14 +19747,8 @@
         <v>0</v>
       </c>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="n">
-        <v>8.16</v>
-      </c>
-      <c r="L552" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K552" t="inlineStr"/>
+      <c r="L552" t="inlineStr"/>
       <c r="M552" t="n">
         <v>1</v>
       </c>
@@ -20022,14 +19782,8 @@
         <v>0</v>
       </c>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="n">
-        <v>8.16</v>
-      </c>
-      <c r="L553" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K553" t="inlineStr"/>
+      <c r="L553" t="inlineStr"/>
       <c r="M553" t="n">
         <v>1</v>
       </c>
@@ -20063,14 +19817,8 @@
         <v>0</v>
       </c>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="n">
-        <v>8.16</v>
-      </c>
-      <c r="L554" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K554" t="inlineStr"/>
+      <c r="L554" t="inlineStr"/>
       <c r="M554" t="n">
         <v>1</v>
       </c>
@@ -20104,14 +19852,8 @@
         <v>0</v>
       </c>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="n">
-        <v>8.16</v>
-      </c>
-      <c r="L555" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K555" t="inlineStr"/>
+      <c r="L555" t="inlineStr"/>
       <c r="M555" t="n">
         <v>1</v>
       </c>
@@ -20145,14 +19887,8 @@
         <v>0</v>
       </c>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="n">
-        <v>8.16</v>
-      </c>
-      <c r="L556" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K556" t="inlineStr"/>
+      <c r="L556" t="inlineStr"/>
       <c r="M556" t="n">
         <v>1</v>
       </c>
@@ -20186,14 +19922,8 @@
         <v>0</v>
       </c>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="n">
-        <v>8.16</v>
-      </c>
-      <c r="L557" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K557" t="inlineStr"/>
+      <c r="L557" t="inlineStr"/>
       <c r="M557" t="n">
         <v>1</v>
       </c>
@@ -20227,14 +19957,8 @@
         <v>0</v>
       </c>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="n">
-        <v>8.16</v>
-      </c>
-      <c r="L558" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K558" t="inlineStr"/>
+      <c r="L558" t="inlineStr"/>
       <c r="M558" t="n">
         <v>1</v>
       </c>
@@ -20268,14 +19992,8 @@
         <v>0</v>
       </c>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="n">
-        <v>8.16</v>
-      </c>
-      <c r="L559" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K559" t="inlineStr"/>
+      <c r="L559" t="inlineStr"/>
       <c r="M559" t="n">
         <v>1</v>
       </c>
@@ -20309,14 +20027,8 @@
         <v>0</v>
       </c>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="n">
-        <v>8.16</v>
-      </c>
-      <c r="L560" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K560" t="inlineStr"/>
+      <c r="L560" t="inlineStr"/>
       <c r="M560" t="n">
         <v>1</v>
       </c>
@@ -20350,14 +20062,8 @@
         <v>0</v>
       </c>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="n">
-        <v>8.16</v>
-      </c>
-      <c r="L561" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K561" t="inlineStr"/>
+      <c r="L561" t="inlineStr"/>
       <c r="M561" t="n">
         <v>1</v>
       </c>
@@ -20391,14 +20097,8 @@
         <v>0</v>
       </c>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="n">
-        <v>8.16</v>
-      </c>
-      <c r="L562" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K562" t="inlineStr"/>
+      <c r="L562" t="inlineStr"/>
       <c r="M562" t="n">
         <v>1</v>
       </c>
@@ -20432,14 +20132,8 @@
         <v>0</v>
       </c>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="n">
-        <v>8.16</v>
-      </c>
-      <c r="L563" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K563" t="inlineStr"/>
+      <c r="L563" t="inlineStr"/>
       <c r="M563" t="n">
         <v>1</v>
       </c>
@@ -20473,14 +20167,8 @@
         <v>0</v>
       </c>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="n">
-        <v>8.16</v>
-      </c>
-      <c r="L564" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K564" t="inlineStr"/>
+      <c r="L564" t="inlineStr"/>
       <c r="M564" t="n">
         <v>1</v>
       </c>
@@ -20514,14 +20202,8 @@
         <v>0</v>
       </c>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="n">
-        <v>8.16</v>
-      </c>
-      <c r="L565" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K565" t="inlineStr"/>
+      <c r="L565" t="inlineStr"/>
       <c r="M565" t="n">
         <v>1</v>
       </c>
@@ -20555,14 +20237,8 @@
         <v>0</v>
       </c>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="n">
-        <v>8.16</v>
-      </c>
-      <c r="L566" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K566" t="inlineStr"/>
+      <c r="L566" t="inlineStr"/>
       <c r="M566" t="n">
         <v>1</v>
       </c>
@@ -20596,14 +20272,8 @@
         <v>0</v>
       </c>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="n">
-        <v>8.16</v>
-      </c>
-      <c r="L567" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K567" t="inlineStr"/>
+      <c r="L567" t="inlineStr"/>
       <c r="M567" t="n">
         <v>1</v>
       </c>
@@ -20637,14 +20307,8 @@
         <v>0</v>
       </c>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="n">
-        <v>8.16</v>
-      </c>
-      <c r="L568" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K568" t="inlineStr"/>
+      <c r="L568" t="inlineStr"/>
       <c r="M568" t="n">
         <v>1</v>
       </c>
@@ -20678,14 +20342,8 @@
         <v>0</v>
       </c>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="n">
-        <v>8.16</v>
-      </c>
-      <c r="L569" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K569" t="inlineStr"/>
+      <c r="L569" t="inlineStr"/>
       <c r="M569" t="n">
         <v>1</v>
       </c>
@@ -20719,14 +20377,8 @@
         <v>0</v>
       </c>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="n">
-        <v>8.16</v>
-      </c>
-      <c r="L570" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K570" t="inlineStr"/>
+      <c r="L570" t="inlineStr"/>
       <c r="M570" t="n">
         <v>1</v>
       </c>
@@ -20760,14 +20412,8 @@
         <v>0</v>
       </c>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="n">
-        <v>8.16</v>
-      </c>
-      <c r="L571" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K571" t="inlineStr"/>
+      <c r="L571" t="inlineStr"/>
       <c r="M571" t="n">
         <v>1</v>
       </c>
@@ -20801,14 +20447,8 @@
         <v>0</v>
       </c>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="n">
-        <v>8.16</v>
-      </c>
-      <c r="L572" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K572" t="inlineStr"/>
+      <c r="L572" t="inlineStr"/>
       <c r="M572" t="n">
         <v>1</v>
       </c>
@@ -20842,14 +20482,8 @@
         <v>0</v>
       </c>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="n">
-        <v>8.16</v>
-      </c>
-      <c r="L573" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K573" t="inlineStr"/>
+      <c r="L573" t="inlineStr"/>
       <c r="M573" t="n">
         <v>1</v>
       </c>
@@ -20883,14 +20517,8 @@
         <v>0</v>
       </c>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="n">
-        <v>8.16</v>
-      </c>
-      <c r="L574" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K574" t="inlineStr"/>
+      <c r="L574" t="inlineStr"/>
       <c r="M574" t="n">
         <v>1</v>
       </c>
@@ -20924,14 +20552,8 @@
         <v>0</v>
       </c>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="n">
-        <v>8.16</v>
-      </c>
-      <c r="L575" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K575" t="inlineStr"/>
+      <c r="L575" t="inlineStr"/>
       <c r="M575" t="n">
         <v>1</v>
       </c>
@@ -20965,14 +20587,8 @@
         <v>0</v>
       </c>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="n">
-        <v>8.16</v>
-      </c>
-      <c r="L576" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K576" t="inlineStr"/>
+      <c r="L576" t="inlineStr"/>
       <c r="M576" t="n">
         <v>1</v>
       </c>
@@ -21006,14 +20622,8 @@
         <v>0</v>
       </c>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="n">
-        <v>8.16</v>
-      </c>
-      <c r="L577" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K577" t="inlineStr"/>
+      <c r="L577" t="inlineStr"/>
       <c r="M577" t="n">
         <v>1</v>
       </c>
@@ -21047,14 +20657,8 @@
         <v>0</v>
       </c>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="n">
-        <v>8.16</v>
-      </c>
-      <c r="L578" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K578" t="inlineStr"/>
+      <c r="L578" t="inlineStr"/>
       <c r="M578" t="n">
         <v>1</v>
       </c>
@@ -21088,14 +20692,8 @@
         <v>0</v>
       </c>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="n">
-        <v>8.16</v>
-      </c>
-      <c r="L579" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K579" t="inlineStr"/>
+      <c r="L579" t="inlineStr"/>
       <c r="M579" t="n">
         <v>1</v>
       </c>
@@ -21129,14 +20727,8 @@
         <v>0</v>
       </c>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="n">
-        <v>8.16</v>
-      </c>
-      <c r="L580" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K580" t="inlineStr"/>
+      <c r="L580" t="inlineStr"/>
       <c r="M580" t="n">
         <v>1</v>
       </c>
@@ -21170,14 +20762,8 @@
         <v>0</v>
       </c>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="n">
-        <v>8.16</v>
-      </c>
-      <c r="L581" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K581" t="inlineStr"/>
+      <c r="L581" t="inlineStr"/>
       <c r="M581" t="n">
         <v>1</v>
       </c>
@@ -21211,14 +20797,8 @@
         <v>0</v>
       </c>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="n">
-        <v>8.16</v>
-      </c>
-      <c r="L582" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K582" t="inlineStr"/>
+      <c r="L582" t="inlineStr"/>
       <c r="M582" t="n">
         <v>1</v>
       </c>
@@ -21252,14 +20832,8 @@
         <v>0</v>
       </c>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="n">
-        <v>8.16</v>
-      </c>
-      <c r="L583" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K583" t="inlineStr"/>
+      <c r="L583" t="inlineStr"/>
       <c r="M583" t="n">
         <v>1</v>
       </c>
@@ -21293,14 +20867,8 @@
         <v>0</v>
       </c>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="n">
-        <v>8.16</v>
-      </c>
-      <c r="L584" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K584" t="inlineStr"/>
+      <c r="L584" t="inlineStr"/>
       <c r="M584" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-25 BackTest MIX.xlsx
+++ b/BackTest/2019-10-25 BackTest MIX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>129664.2902039389</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>122467.3373039389</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>8.01</v>
@@ -523,7 +523,7 @@
         <v>90818.43010393888</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>8</v>
@@ -562,9 +562,11 @@
         <v>17824.19230393888</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>7.94</v>
+      </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
@@ -599,7 +601,7 @@
         <v>-9027.576796061123</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>7.9</v>
@@ -638,7 +640,7 @@
         <v>-26356.08919606112</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>7.86</v>
@@ -677,7 +679,7 @@
         <v>-26788.08919606112</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>7.84</v>
@@ -716,7 +718,7 @@
         <v>-26788.08919606112</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>7.82</v>
@@ -755,7 +757,7 @@
         <v>-33198.75759606112</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>7.82</v>
@@ -794,7 +796,7 @@
         <v>-13047.61549606112</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>7.8</v>
@@ -833,7 +835,7 @@
         <v>-392533.0197960611</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>7.88</v>
@@ -872,7 +874,7 @@
         <v>-392533.0197960611</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>7.82</v>
@@ -911,7 +913,7 @@
         <v>-392533.0197960611</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>7.82</v>
@@ -950,7 +952,7 @@
         <v>-392533.0197960611</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>7.82</v>
@@ -989,7 +991,7 @@
         <v>-350436.4418960611</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>7.82</v>
@@ -1028,7 +1030,7 @@
         <v>-286719.2010960612</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>7.89</v>
@@ -1067,7 +1069,7 @@
         <v>-286489.2010960612</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>7.9</v>
@@ -1106,7 +1108,7 @@
         <v>-370589.3533960612</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>7.92</v>
@@ -1145,7 +1147,7 @@
         <v>-370589.3533960612</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>7.83</v>
@@ -1184,7 +1186,7 @@
         <v>-369580.4097960612</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>7.83</v>
@@ -1223,7 +1225,7 @@
         <v>-354215.8895960611</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>7.91</v>
@@ -1262,9 +1264,11 @@
         <v>-398726.9480960611</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>7.92</v>
+      </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
@@ -1299,9 +1303,11 @@
         <v>-398726.9480960611</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>7.91</v>
+      </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
@@ -1336,7 +1342,7 @@
         <v>-398726.9480960611</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>7.91</v>
@@ -1375,7 +1381,7 @@
         <v>-1079624.774696061</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>7.91</v>
@@ -1414,7 +1420,7 @@
         <v>-1079624.774696061</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>7.83</v>
@@ -1453,7 +1459,7 @@
         <v>-1079614.774696061</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>7.83</v>
@@ -1492,7 +1498,7 @@
         <v>-1131965.842096061</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>7.9</v>
@@ -1531,7 +1537,7 @@
         <v>-1220188.863796061</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>7.89</v>
@@ -1570,7 +1576,7 @@
         <v>-1218588.813196061</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>7.83</v>
@@ -1609,7 +1615,7 @@
         <v>-1189412.833496061</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>7.9</v>
@@ -1648,9 +1654,11 @@
         <v>-1189981.910196061</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>7.91</v>
+      </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
@@ -1685,9 +1693,11 @@
         <v>-1458535.695296061</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>7.9</v>
+      </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
@@ -1722,9 +1732,11 @@
         <v>-1458535.695296061</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>7.83</v>
+      </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
@@ -1759,9 +1771,11 @@
         <v>-1457435.695296061</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>7.83</v>
+      </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
@@ -3054,16 +3068,18 @@
         <v>6393245.787983503</v>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
       <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
@@ -3089,11 +3105,15 @@
         <v>5942608.856383503</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3122,11 +3142,15 @@
         <v>4692457.461983504</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3155,11 +3179,15 @@
         <v>3803626.490283504</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3188,11 +3216,15 @@
         <v>4392091.635783504</v>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3225,7 +3257,11 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3254,11 +3290,15 @@
         <v>4555255.890883503</v>
       </c>
       <c r="H77" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3291,7 +3331,11 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3320,11 +3364,15 @@
         <v>4859173.973883503</v>
       </c>
       <c r="H79" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3353,11 +3401,15 @@
         <v>4510782.029083503</v>
       </c>
       <c r="H80" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3386,11 +3438,15 @@
         <v>4102318.749883504</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3423,7 +3479,11 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3456,7 +3516,11 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3485,11 +3549,15 @@
         <v>2049287.566483504</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3522,7 +3590,11 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3551,11 +3623,15 @@
         <v>2046433.157183504</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3588,7 +3664,11 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3617,11 +3697,15 @@
         <v>3026052.613106936</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3650,14 +3734,16 @@
         <v>2596452.545506936</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
@@ -3683,7 +3769,7 @@
         <v>3031955.617906936</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3716,7 +3802,7 @@
         <v>2859511.101706936</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3749,7 +3835,7 @@
         <v>2866205.599006936</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3815,7 +3901,7 @@
         <v>2720589.517106936</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3881,7 +3967,7 @@
         <v>2703574.694406936</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3947,7 +4033,7 @@
         <v>2847913.229306936</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -4343,7 +4429,7 @@
         <v>-1404587.526088664</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4376,7 +4462,7 @@
         <v>-1611496.902688664</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4409,7 +4495,7 @@
         <v>-1478980.334188664</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4442,7 +4528,7 @@
         <v>-1729010.380388664</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4475,7 +4561,7 @@
         <v>-1727177.380388664</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4508,7 +4594,7 @@
         <v>-1767003.676988664</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4541,7 +4627,7 @@
         <v>-1811582.908488664</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4574,7 +4660,7 @@
         <v>-1810126.532588664</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4607,7 +4693,7 @@
         <v>-1763011.695788664</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4640,7 +4726,7 @@
         <v>-2083617.617888664</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4673,7 +4759,7 @@
         <v>-2034513.996188664</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4706,7 +4792,7 @@
         <v>-2135015.407988664</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4739,7 +4825,7 @@
         <v>-2344855.524688664</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4805,7 +4891,7 @@
         <v>-2265143.020688664</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4838,7 +4924,7 @@
         <v>-2743917.935488664</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4871,7 +4957,7 @@
         <v>-2743917.935488664</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4904,7 +4990,7 @@
         <v>-2853120.052188664</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4937,7 +5023,7 @@
         <v>-2767199.904788664</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4970,7 +5056,7 @@
         <v>-2767199.904788664</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5003,7 +5089,7 @@
         <v>-2518097.841188664</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5036,7 +5122,7 @@
         <v>-2427704.248488664</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5333,7 +5419,7 @@
         <v>-1905392.058388664</v>
       </c>
       <c r="H140" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -8336,7 +8422,7 @@
         <v>-5123586.907076519</v>
       </c>
       <c r="H231" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8369,7 +8455,7 @@
         <v>-5123586.907076519</v>
       </c>
       <c r="H232" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8402,7 +8488,7 @@
         <v>-5122837.902576519</v>
       </c>
       <c r="H233" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8435,7 +8521,7 @@
         <v>-5111164.253276519</v>
       </c>
       <c r="H234" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8468,7 +8554,7 @@
         <v>-5071164.253276519</v>
       </c>
       <c r="H235" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8501,7 +8587,7 @@
         <v>-5052657.537413653</v>
       </c>
       <c r="H236" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8534,7 +8620,7 @@
         <v>-5052657.537413653</v>
       </c>
       <c r="H237" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8567,7 +8653,7 @@
         <v>-5100506.211813653</v>
       </c>
       <c r="H238" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8600,7 +8686,7 @@
         <v>-5100506.211813653</v>
       </c>
       <c r="H239" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8633,7 +8719,7 @@
         <v>-5114813.678313653</v>
       </c>
       <c r="H240" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8666,7 +8752,7 @@
         <v>-5114813.678313653</v>
       </c>
       <c r="H241" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8699,7 +8785,7 @@
         <v>-5114813.678313653</v>
       </c>
       <c r="H242" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8732,7 +8818,7 @@
         <v>-5176944.338713653</v>
       </c>
       <c r="H243" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8864,7 +8950,7 @@
         <v>-5027287.913713654</v>
       </c>
       <c r="H247" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8897,7 +8983,7 @@
         <v>-4890152.373013654</v>
       </c>
       <c r="H248" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8963,7 +9049,7 @@
         <v>-4870152.373013654</v>
       </c>
       <c r="H250" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8996,7 +9082,7 @@
         <v>-4845338.22325847</v>
       </c>
       <c r="H251" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9029,7 +9115,7 @@
         <v>-4845338.22325847</v>
       </c>
       <c r="H252" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9062,7 +9148,7 @@
         <v>-4845338.22325847</v>
       </c>
       <c r="H253" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9095,7 +9181,7 @@
         <v>-4845372.942358471</v>
       </c>
       <c r="H254" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9128,7 +9214,7 @@
         <v>-4845262.942358471</v>
       </c>
       <c r="H255" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9161,7 +9247,7 @@
         <v>-4845262.942358471</v>
       </c>
       <c r="H256" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -13022,7 +13108,7 @@
         <v>-8038236.772240206</v>
       </c>
       <c r="H373" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -13055,7 +13141,7 @@
         <v>-8202155.470640206</v>
       </c>
       <c r="H374" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -13088,7 +13174,7 @@
         <v>-8199130.243440206</v>
       </c>
       <c r="H375" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -13121,7 +13207,7 @@
         <v>-8379407.097140206</v>
       </c>
       <c r="H376" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -13154,7 +13240,7 @@
         <v>-8478288.976640206</v>
       </c>
       <c r="H377" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -13187,7 +13273,7 @@
         <v>-8478268.976640206</v>
       </c>
       <c r="H378" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -13220,7 +13306,7 @@
         <v>-9061552.222740205</v>
       </c>
       <c r="H379" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -13253,7 +13339,7 @@
         <v>-8842747.575940205</v>
       </c>
       <c r="H380" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -15035,7 +15121,7 @@
         <v>-9965544.810440205</v>
       </c>
       <c r="H434" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -15068,7 +15154,7 @@
         <v>-9965544.810440205</v>
       </c>
       <c r="H435" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -15134,7 +15220,7 @@
         <v>-9979414.875440205</v>
       </c>
       <c r="H437" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -20546,10 +20632,14 @@
         <v>-21834981.90457423</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
-      </c>
-      <c r="I601" t="inlineStr"/>
-      <c r="J601" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I601" t="n">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="J601" t="n">
+        <v>8.220000000000001</v>
+      </c>
       <c r="K601" t="inlineStr"/>
       <c r="L601" t="n">
         <v>1</v>
@@ -20582,8 +20672,14 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="J602" t="n">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -20615,8 +20711,14 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="J603" t="n">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -21437,11 +21539,17 @@
         <v>-23017160.11867423</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
-      </c>
-      <c r="I628" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I628" t="n">
+        <v>8.34</v>
+      </c>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -21470,11 +21578,17 @@
         <v>-23032142.01277423</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
-      </c>
-      <c r="I629" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I629" t="n">
+        <v>8.42</v>
+      </c>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -21503,11 +21617,17 @@
         <v>-23032142.01277423</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
-      </c>
-      <c r="I630" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I630" t="n">
+        <v>8.35</v>
+      </c>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -21536,11 +21656,17 @@
         <v>-23032142.01277423</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
-      </c>
-      <c r="I631" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I631" t="n">
+        <v>8.35</v>
+      </c>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -21569,11 +21695,17 @@
         <v>-23029825.55387422</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
-      </c>
-      <c r="I632" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I632" t="n">
+        <v>8.35</v>
+      </c>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -21602,11 +21734,17 @@
         <v>-23029825.55387422</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
-      </c>
-      <c r="I633" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I633" t="n">
+        <v>8.44</v>
+      </c>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -21639,7 +21777,11 @@
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -21672,7 +21814,11 @@
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -21705,7 +21851,11 @@
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -21738,7 +21888,11 @@
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -21767,11 +21921,17 @@
         <v>-23033050.16407423</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
-      </c>
-      <c r="I638" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I638" t="n">
+        <v>8.42</v>
+      </c>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -21804,7 +21964,11 @@
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -21837,7 +22001,11 @@
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -21870,7 +22038,11 @@
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -21899,11 +22071,17 @@
         <v>-23060387.62677423</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
-      </c>
-      <c r="I642" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I642" t="n">
+        <v>8.32</v>
+      </c>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -21932,11 +22110,17 @@
         <v>-23060387.62677423</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
-      </c>
-      <c r="I643" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I643" t="n">
+        <v>8.32</v>
+      </c>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -21969,7 +22153,11 @@
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -22002,7 +22190,11 @@
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -22031,11 +22223,17 @@
         <v>-23774271.30567423</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
-      </c>
-      <c r="I646" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I646" t="n">
+        <v>8.300000000000001</v>
+      </c>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -22064,11 +22262,17 @@
         <v>-23765559.64707423</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
-      </c>
-      <c r="I647" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I647" t="n">
+        <v>8.26</v>
+      </c>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -22097,11 +22301,17 @@
         <v>-23765559.64707423</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
-      </c>
-      <c r="I648" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I648" t="n">
+        <v>8.32</v>
+      </c>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -22130,11 +22340,17 @@
         <v>-23765559.64707423</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
-      </c>
-      <c r="I649" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I649" t="n">
+        <v>8.32</v>
+      </c>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -22163,11 +22379,17 @@
         <v>-23765559.64707423</v>
       </c>
       <c r="H650" t="n">
-        <v>0</v>
-      </c>
-      <c r="I650" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I650" t="n">
+        <v>8.32</v>
+      </c>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -22196,11 +22418,17 @@
         <v>-23765559.64707423</v>
       </c>
       <c r="H651" t="n">
-        <v>0</v>
-      </c>
-      <c r="I651" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I651" t="n">
+        <v>8.32</v>
+      </c>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -22229,11 +22457,17 @@
         <v>-23835394.36707423</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
-      </c>
-      <c r="I652" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I652" t="n">
+        <v>8.32</v>
+      </c>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -22262,17 +22496,23 @@
         <v>-23835394.36707423</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
-      </c>
-      <c r="I653" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I653" t="n">
+        <v>8.289999999999999</v>
+      </c>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
       <c r="M653" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-25 BackTest MIX.xlsx
+++ b/BackTest/2019-10-25 BackTest MIX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>129664.2902039389</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,17 +484,11 @@
         <v>122467.3373039389</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>8.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -523,17 +517,11 @@
         <v>90818.43010393888</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,17 +550,11 @@
         <v>17824.19230393888</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>7.94</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -601,17 +583,11 @@
         <v>-9027.576796061123</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>7.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -640,17 +616,11 @@
         <v>-26356.08919606112</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>7.86</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -679,17 +649,11 @@
         <v>-26788.08919606112</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>7.84</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -718,17 +682,11 @@
         <v>-26788.08919606112</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>7.82</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -757,17 +715,11 @@
         <v>-33198.75759606112</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>7.82</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -796,17 +748,11 @@
         <v>-13047.61549606112</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>7.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -835,17 +781,11 @@
         <v>-392533.0197960611</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>7.88</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -874,17 +814,11 @@
         <v>-392533.0197960611</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>7.82</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -913,17 +847,11 @@
         <v>-392533.0197960611</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>7.82</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -952,17 +880,11 @@
         <v>-392533.0197960611</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>7.82</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -991,17 +913,11 @@
         <v>-350436.4418960611</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>7.82</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1030,17 +946,11 @@
         <v>-286719.2010960612</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>7.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1069,17 +979,11 @@
         <v>-286489.2010960612</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>7.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1108,17 +1012,11 @@
         <v>-370589.3533960612</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>7.92</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1147,17 +1045,11 @@
         <v>-370589.3533960612</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>7.83</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1186,17 +1078,11 @@
         <v>-369580.4097960612</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>7.83</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1225,17 +1111,11 @@
         <v>-354215.8895960611</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>7.91</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1264,17 +1144,11 @@
         <v>-398726.9480960611</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>7.92</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1303,17 +1177,11 @@
         <v>-398726.9480960611</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>7.91</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1342,17 +1210,11 @@
         <v>-398726.9480960611</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>7.91</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1381,17 +1243,11 @@
         <v>-1079624.774696061</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>7.91</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1420,17 +1276,11 @@
         <v>-1079624.774696061</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>7.83</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1459,17 +1309,11 @@
         <v>-1079614.774696061</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>7.83</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1498,17 +1342,11 @@
         <v>-1131965.842096061</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>7.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1537,17 +1375,11 @@
         <v>-1220188.863796061</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>7.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1576,17 +1408,11 @@
         <v>-1218588.813196061</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>7.83</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1615,17 +1441,11 @@
         <v>-1189412.833496061</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>7.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1654,17 +1474,11 @@
         <v>-1189981.910196061</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>7.91</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1693,17 +1507,11 @@
         <v>-1458535.695296061</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>7.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1732,17 +1540,11 @@
         <v>-1458535.695296061</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>7.83</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1771,17 +1573,11 @@
         <v>-1457435.695296061</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>7.83</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1814,11 +1610,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1851,11 +1643,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1888,11 +1676,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1925,11 +1709,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1962,11 +1742,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1999,11 +1775,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2036,11 +1808,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2073,11 +1841,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2110,11 +1874,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2147,11 +1907,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2184,11 +1940,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2221,11 +1973,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2258,11 +2006,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2295,11 +2039,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2332,11 +2072,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2369,11 +2105,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2406,11 +2138,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2443,11 +2171,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2480,11 +2204,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2517,11 +2237,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2554,11 +2270,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2591,11 +2303,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2628,11 +2336,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2665,11 +2369,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2698,15 +2398,11 @@
         <v>5214511.522517079</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2735,15 +2431,11 @@
         <v>7905741.681688508</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2772,15 +2464,11 @@
         <v>7713051.684847964</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2809,15 +2497,11 @@
         <v>8072617.253047964</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2846,15 +2530,11 @@
         <v>8070597.303047963</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2883,15 +2563,11 @@
         <v>8302923.651547964</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2920,15 +2596,11 @@
         <v>8507251.400547964</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2957,15 +2629,11 @@
         <v>8613603.583947964</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2994,15 +2662,11 @@
         <v>10343072.40233599</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3031,15 +2695,11 @@
         <v>5926721.96673599</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3072,11 +2732,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3109,11 +2765,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3146,11 +2798,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3183,11 +2831,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3220,11 +2864,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3257,11 +2897,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3294,11 +2930,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3331,11 +2963,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3368,11 +2996,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3405,11 +3029,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3442,11 +3062,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3479,11 +3095,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3516,11 +3128,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3553,11 +3161,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3586,15 +3190,11 @@
         <v>2103157.142483504</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3627,11 +3227,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3664,11 +3260,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3701,11 +3293,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3734,16 +3322,14 @@
         <v>2596452.545506936</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
       <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
@@ -3769,7 +3355,7 @@
         <v>3031955.617906936</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3802,7 +3388,7 @@
         <v>2859511.101706936</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3835,7 +3421,7 @@
         <v>2866205.599006936</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -4429,7 +4015,7 @@
         <v>-1404587.526088664</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4462,7 +4048,7 @@
         <v>-1611496.902688664</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4495,7 +4081,7 @@
         <v>-1478980.334188664</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4528,7 +4114,7 @@
         <v>-1729010.380388664</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4561,7 +4147,7 @@
         <v>-1727177.380388664</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4594,7 +4180,7 @@
         <v>-1767003.676988664</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4627,7 +4213,7 @@
         <v>-1811582.908488664</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4660,7 +4246,7 @@
         <v>-1810126.532588664</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4693,7 +4279,7 @@
         <v>-1763011.695788664</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4726,7 +4312,7 @@
         <v>-2083617.617888664</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4759,7 +4345,7 @@
         <v>-2034513.996188664</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4792,7 +4378,7 @@
         <v>-2135015.407988664</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4825,7 +4411,7 @@
         <v>-2344855.524688664</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4891,7 +4477,7 @@
         <v>-2265143.020688664</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4924,7 +4510,7 @@
         <v>-2743917.935488664</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4957,7 +4543,7 @@
         <v>-2743917.935488664</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4990,7 +4576,7 @@
         <v>-2853120.052188664</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5023,7 +4609,7 @@
         <v>-2767199.904788664</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5056,7 +4642,7 @@
         <v>-2767199.904788664</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5089,7 +4675,7 @@
         <v>-2518097.841188664</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5122,7 +4708,7 @@
         <v>-2427704.248488664</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -19576,11 +19162,17 @@
         <v>-18550252.36227423</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
-      </c>
-      <c r="I569" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I569" t="n">
+        <v>8.359999999999999</v>
+      </c>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -19609,11 +19201,17 @@
         <v>-20829727.81817423</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
-      </c>
-      <c r="I570" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I570" t="n">
+        <v>8.25</v>
+      </c>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -19642,11 +19240,17 @@
         <v>-20770245.42217423</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
-      </c>
-      <c r="I571" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I571" t="n">
+        <v>8.16</v>
+      </c>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -19675,11 +19279,17 @@
         <v>-20706936.76367423</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
-      </c>
-      <c r="I572" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I572" t="n">
+        <v>8.19</v>
+      </c>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -19708,11 +19318,17 @@
         <v>-20700532.31927422</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
-      </c>
-      <c r="I573" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I573" t="n">
+        <v>8.199999999999999</v>
+      </c>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -19741,11 +19357,17 @@
         <v>-20748188.78837422</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
-      </c>
-      <c r="I574" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I574" t="n">
+        <v>8.279999999999999</v>
+      </c>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -19774,11 +19396,17 @@
         <v>-20963112.47857422</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
-      </c>
-      <c r="I575" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I575" t="n">
+        <v>8.27</v>
+      </c>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -19807,11 +19435,17 @@
         <v>-20963112.47857422</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
-      </c>
-      <c r="I576" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I576" t="n">
+        <v>8.19</v>
+      </c>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -19840,11 +19474,17 @@
         <v>-20998310.51447422</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
-      </c>
-      <c r="I577" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I577" t="n">
+        <v>8.19</v>
+      </c>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -19873,11 +19513,17 @@
         <v>-21034324.10117422</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
-      </c>
-      <c r="I578" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I578" t="n">
+        <v>8.18</v>
+      </c>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -19906,11 +19552,17 @@
         <v>-21034324.10117422</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
-      </c>
-      <c r="I579" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I579" t="n">
+        <v>8.16</v>
+      </c>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -19939,11 +19591,17 @@
         <v>-20485426.32967423</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
-      </c>
-      <c r="I580" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I580" t="n">
+        <v>8.16</v>
+      </c>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -19976,7 +19634,11 @@
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -20009,7 +19671,11 @@
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -20042,7 +19708,11 @@
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -20075,7 +19745,11 @@
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -20108,7 +19782,11 @@
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -20141,7 +19819,11 @@
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -20174,7 +19856,11 @@
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -20207,7 +19893,11 @@
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -20240,7 +19930,11 @@
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -20273,7 +19967,11 @@
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -20306,7 +20004,11 @@
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -20339,7 +20041,11 @@
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -20372,7 +20078,11 @@
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -20405,7 +20115,11 @@
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -20438,7 +20152,11 @@
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -20471,7 +20189,11 @@
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -20504,7 +20226,11 @@
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -20537,7 +20263,11 @@
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -20570,7 +20300,11 @@
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -20603,7 +20337,11 @@
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -20632,15 +20370,15 @@
         <v>-21834981.90457423</v>
       </c>
       <c r="H601" t="n">
-        <v>1</v>
-      </c>
-      <c r="I601" t="n">
-        <v>8.220000000000001</v>
-      </c>
-      <c r="J601" t="n">
-        <v>8.220000000000001</v>
-      </c>
-      <c r="K601" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I601" t="inlineStr"/>
+      <c r="J601" t="inlineStr"/>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -20672,12 +20410,10 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="n">
-        <v>8.220000000000001</v>
-      </c>
+      <c r="J602" t="inlineStr"/>
       <c r="K602" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L602" t="n">
@@ -20711,12 +20447,10 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="n">
-        <v>8.220000000000001</v>
-      </c>
+      <c r="J603" t="inlineStr"/>
       <c r="K603" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L603" t="n">
@@ -20751,7 +20485,11 @@
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -20784,7 +20522,11 @@
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -20817,7 +20559,11 @@
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -20850,7 +20596,11 @@
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -20883,7 +20633,11 @@
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -20916,7 +20670,11 @@
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -20949,7 +20707,11 @@
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -20982,7 +20744,11 @@
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -21015,7 +20781,11 @@
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -21048,7 +20818,11 @@
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -21081,7 +20855,11 @@
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -21114,7 +20892,11 @@
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -21147,7 +20929,11 @@
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -21180,7 +20966,11 @@
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -21213,7 +21003,11 @@
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -21246,7 +21040,11 @@
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -21279,7 +21077,11 @@
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -21312,7 +21114,11 @@
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -21345,7 +21151,11 @@
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -21378,7 +21188,11 @@
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -21411,7 +21225,11 @@
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -21444,7 +21262,11 @@
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -21477,7 +21299,11 @@
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -21510,7 +21336,11 @@
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -21539,15 +21369,13 @@
         <v>-23017160.11867423</v>
       </c>
       <c r="H628" t="n">
-        <v>1</v>
-      </c>
-      <c r="I628" t="n">
-        <v>8.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
       <c r="K628" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L628" t="n">
@@ -21578,11 +21406,9 @@
         <v>-23032142.01277423</v>
       </c>
       <c r="H629" t="n">
-        <v>1</v>
-      </c>
-      <c r="I629" t="n">
-        <v>8.42</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
       <c r="K629" t="inlineStr">
         <is>
@@ -21617,11 +21443,9 @@
         <v>-23032142.01277423</v>
       </c>
       <c r="H630" t="n">
-        <v>1</v>
-      </c>
-      <c r="I630" t="n">
-        <v>8.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
       <c r="K630" t="inlineStr">
         <is>
@@ -21656,11 +21480,9 @@
         <v>-23032142.01277423</v>
       </c>
       <c r="H631" t="n">
-        <v>1</v>
-      </c>
-      <c r="I631" t="n">
-        <v>8.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
       <c r="K631" t="inlineStr">
         <is>
@@ -21695,11 +21517,9 @@
         <v>-23029825.55387422</v>
       </c>
       <c r="H632" t="n">
-        <v>1</v>
-      </c>
-      <c r="I632" t="n">
-        <v>8.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
       <c r="K632" t="inlineStr">
         <is>
@@ -21734,11 +21554,9 @@
         <v>-23029825.55387422</v>
       </c>
       <c r="H633" t="n">
-        <v>1</v>
-      </c>
-      <c r="I633" t="n">
-        <v>8.44</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
       <c r="K633" t="inlineStr">
         <is>
@@ -21921,11 +21739,9 @@
         <v>-23033050.16407423</v>
       </c>
       <c r="H638" t="n">
-        <v>1</v>
-      </c>
-      <c r="I638" t="n">
-        <v>8.42</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
       <c r="K638" t="inlineStr">
         <is>
@@ -22071,11 +21887,9 @@
         <v>-23060387.62677423</v>
       </c>
       <c r="H642" t="n">
-        <v>1</v>
-      </c>
-      <c r="I642" t="n">
-        <v>8.32</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
       <c r="K642" t="inlineStr">
         <is>
@@ -22110,11 +21924,9 @@
         <v>-23060387.62677423</v>
       </c>
       <c r="H643" t="n">
-        <v>1</v>
-      </c>
-      <c r="I643" t="n">
-        <v>8.32</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
       <c r="K643" t="inlineStr">
         <is>
@@ -22223,11 +22035,9 @@
         <v>-23774271.30567423</v>
       </c>
       <c r="H646" t="n">
-        <v>1</v>
-      </c>
-      <c r="I646" t="n">
-        <v>8.300000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
       <c r="K646" t="inlineStr">
         <is>
@@ -22262,11 +22072,9 @@
         <v>-23765559.64707423</v>
       </c>
       <c r="H647" t="n">
-        <v>1</v>
-      </c>
-      <c r="I647" t="n">
-        <v>8.26</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
       <c r="K647" t="inlineStr">
         <is>
@@ -22301,11 +22109,9 @@
         <v>-23765559.64707423</v>
       </c>
       <c r="H648" t="n">
-        <v>1</v>
-      </c>
-      <c r="I648" t="n">
-        <v>8.32</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
       <c r="K648" t="inlineStr">
         <is>
@@ -22340,11 +22146,9 @@
         <v>-23765559.64707423</v>
       </c>
       <c r="H649" t="n">
-        <v>1</v>
-      </c>
-      <c r="I649" t="n">
-        <v>8.32</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
       <c r="K649" t="inlineStr">
         <is>
@@ -22379,11 +22183,9 @@
         <v>-23765559.64707423</v>
       </c>
       <c r="H650" t="n">
-        <v>1</v>
-      </c>
-      <c r="I650" t="n">
-        <v>8.32</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
       <c r="K650" t="inlineStr">
         <is>
@@ -22418,11 +22220,9 @@
         <v>-23765559.64707423</v>
       </c>
       <c r="H651" t="n">
-        <v>1</v>
-      </c>
-      <c r="I651" t="n">
-        <v>8.32</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
       <c r="K651" t="inlineStr">
         <is>
@@ -22513,6 +22313,6 @@
       <c r="M653" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-25 BackTest MIX.xlsx
+++ b/BackTest/2019-10-25 BackTest MIX.xlsx
@@ -2398,7 +2398,7 @@
         <v>5214511.522517079</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>7905741.681688508</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>7713051.684847964</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>8072617.253047964</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>8070597.303047963</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>8302923.651547964</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>8507251.400547964</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>8613603.583947964</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>10343072.40233599</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>5926721.96673599</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>2103157.142483504</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>3031955.617906936</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>2859511.101706936</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>2866205.599006936</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>2657050.458206936</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>2720589.517106936</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>2617673.728106936</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>2703574.694406936</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>2642261.959806936</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>2847913.229306936</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>2802550.555906936</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>3606116.17360938</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>3567005.00550938</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>3727105.736006936</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>2760735.167570852</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>3096046.687170852</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>4523473.644111336</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>4088831.323711336</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>4897552.845711336</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>2493882.058911337</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-933634.3392886636</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-1404587.526088664</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -19162,1852 +19162,1656 @@
         <v>-18550252.36227423</v>
       </c>
       <c r="H569" t="n">
-        <v>1</v>
-      </c>
-      <c r="I569" t="n">
+        <v>0</v>
+      </c>
+      <c r="I569" t="inlineStr"/>
+      <c r="J569" t="inlineStr"/>
+      <c r="K569" t="inlineStr"/>
+      <c r="L569" t="n">
+        <v>1</v>
+      </c>
+      <c r="M569" t="inlineStr"/>
+    </row>
+    <row r="570">
+      <c r="A570" s="1" t="n">
+        <v>568</v>
+      </c>
+      <c r="B570" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="C570" t="n">
+        <v>8.16</v>
+      </c>
+      <c r="D570" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="E570" t="n">
+        <v>8.16</v>
+      </c>
+      <c r="F570" t="n">
+        <v>2279475.4559</v>
+      </c>
+      <c r="G570" t="n">
+        <v>-20829727.81817423</v>
+      </c>
+      <c r="H570" t="n">
+        <v>0</v>
+      </c>
+      <c r="I570" t="inlineStr"/>
+      <c r="J570" t="inlineStr"/>
+      <c r="K570" t="inlineStr"/>
+      <c r="L570" t="n">
+        <v>1</v>
+      </c>
+      <c r="M570" t="inlineStr"/>
+    </row>
+    <row r="571">
+      <c r="A571" s="1" t="n">
+        <v>569</v>
+      </c>
+      <c r="B571" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="C571" t="n">
+        <v>8.19</v>
+      </c>
+      <c r="D571" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="E571" t="n">
+        <v>8.19</v>
+      </c>
+      <c r="F571" t="n">
+        <v>59482.396</v>
+      </c>
+      <c r="G571" t="n">
+        <v>-20770245.42217423</v>
+      </c>
+      <c r="H571" t="n">
+        <v>0</v>
+      </c>
+      <c r="I571" t="inlineStr"/>
+      <c r="J571" t="inlineStr"/>
+      <c r="K571" t="inlineStr"/>
+      <c r="L571" t="n">
+        <v>1</v>
+      </c>
+      <c r="M571" t="inlineStr"/>
+    </row>
+    <row r="572">
+      <c r="A572" s="1" t="n">
+        <v>570</v>
+      </c>
+      <c r="B572" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="C572" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="D572" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="E572" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="F572" t="n">
+        <v>63308.6585</v>
+      </c>
+      <c r="G572" t="n">
+        <v>-20706936.76367423</v>
+      </c>
+      <c r="H572" t="n">
+        <v>0</v>
+      </c>
+      <c r="I572" t="inlineStr"/>
+      <c r="J572" t="inlineStr"/>
+      <c r="K572" t="inlineStr"/>
+      <c r="L572" t="n">
+        <v>1</v>
+      </c>
+      <c r="M572" t="inlineStr"/>
+    </row>
+    <row r="573">
+      <c r="A573" s="1" t="n">
+        <v>571</v>
+      </c>
+      <c r="B573" t="n">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="C573" t="n">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="D573" t="n">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="E573" t="n">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="F573" t="n">
+        <v>6404.4444</v>
+      </c>
+      <c r="G573" t="n">
+        <v>-20700532.31927422</v>
+      </c>
+      <c r="H573" t="n">
+        <v>0</v>
+      </c>
+      <c r="I573" t="inlineStr"/>
+      <c r="J573" t="inlineStr"/>
+      <c r="K573" t="inlineStr"/>
+      <c r="L573" t="n">
+        <v>1</v>
+      </c>
+      <c r="M573" t="inlineStr"/>
+    </row>
+    <row r="574">
+      <c r="A574" s="1" t="n">
+        <v>572</v>
+      </c>
+      <c r="B574" t="n">
+        <v>8.27</v>
+      </c>
+      <c r="C574" t="n">
+        <v>8.27</v>
+      </c>
+      <c r="D574" t="n">
+        <v>8.27</v>
+      </c>
+      <c r="E574" t="n">
+        <v>8.27</v>
+      </c>
+      <c r="F574" t="n">
+        <v>47656.4691</v>
+      </c>
+      <c r="G574" t="n">
+        <v>-20748188.78837422</v>
+      </c>
+      <c r="H574" t="n">
+        <v>0</v>
+      </c>
+      <c r="I574" t="inlineStr"/>
+      <c r="J574" t="inlineStr"/>
+      <c r="K574" t="inlineStr"/>
+      <c r="L574" t="n">
+        <v>1</v>
+      </c>
+      <c r="M574" t="inlineStr"/>
+    </row>
+    <row r="575">
+      <c r="A575" s="1" t="n">
+        <v>573</v>
+      </c>
+      <c r="B575" t="n">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="C575" t="n">
+        <v>8.19</v>
+      </c>
+      <c r="D575" t="n">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="E575" t="n">
+        <v>8.19</v>
+      </c>
+      <c r="F575" t="n">
+        <v>214923.6902</v>
+      </c>
+      <c r="G575" t="n">
+        <v>-20963112.47857422</v>
+      </c>
+      <c r="H575" t="n">
+        <v>0</v>
+      </c>
+      <c r="I575" t="inlineStr"/>
+      <c r="J575" t="inlineStr"/>
+      <c r="K575" t="inlineStr"/>
+      <c r="L575" t="n">
+        <v>1</v>
+      </c>
+      <c r="M575" t="inlineStr"/>
+    </row>
+    <row r="576">
+      <c r="A576" s="1" t="n">
+        <v>574</v>
+      </c>
+      <c r="B576" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="C576" t="n">
+        <v>8.19</v>
+      </c>
+      <c r="D576" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="E576" t="n">
+        <v>8.19</v>
+      </c>
+      <c r="F576" t="n">
+        <v>13874.3122</v>
+      </c>
+      <c r="G576" t="n">
+        <v>-20963112.47857422</v>
+      </c>
+      <c r="H576" t="n">
+        <v>0</v>
+      </c>
+      <c r="I576" t="inlineStr"/>
+      <c r="J576" t="inlineStr"/>
+      <c r="K576" t="inlineStr"/>
+      <c r="L576" t="n">
+        <v>1</v>
+      </c>
+      <c r="M576" t="inlineStr"/>
+    </row>
+    <row r="577">
+      <c r="A577" s="1" t="n">
+        <v>575</v>
+      </c>
+      <c r="B577" t="n">
+        <v>8.19</v>
+      </c>
+      <c r="C577" t="n">
+        <v>8.18</v>
+      </c>
+      <c r="D577" t="n">
+        <v>8.19</v>
+      </c>
+      <c r="E577" t="n">
+        <v>8.18</v>
+      </c>
+      <c r="F577" t="n">
+        <v>35198.0359</v>
+      </c>
+      <c r="G577" t="n">
+        <v>-20998310.51447422</v>
+      </c>
+      <c r="H577" t="n">
+        <v>0</v>
+      </c>
+      <c r="I577" t="inlineStr"/>
+      <c r="J577" t="inlineStr"/>
+      <c r="K577" t="inlineStr"/>
+      <c r="L577" t="n">
+        <v>1</v>
+      </c>
+      <c r="M577" t="inlineStr"/>
+    </row>
+    <row r="578">
+      <c r="A578" s="1" t="n">
+        <v>576</v>
+      </c>
+      <c r="B578" t="n">
+        <v>8.18</v>
+      </c>
+      <c r="C578" t="n">
+        <v>8.16</v>
+      </c>
+      <c r="D578" t="n">
+        <v>8.18</v>
+      </c>
+      <c r="E578" t="n">
+        <v>8.16</v>
+      </c>
+      <c r="F578" t="n">
+        <v>36013.5867</v>
+      </c>
+      <c r="G578" t="n">
+        <v>-21034324.10117422</v>
+      </c>
+      <c r="H578" t="n">
+        <v>0</v>
+      </c>
+      <c r="I578" t="inlineStr"/>
+      <c r="J578" t="inlineStr"/>
+      <c r="K578" t="inlineStr"/>
+      <c r="L578" t="n">
+        <v>1</v>
+      </c>
+      <c r="M578" t="inlineStr"/>
+    </row>
+    <row r="579">
+      <c r="A579" s="1" t="n">
+        <v>577</v>
+      </c>
+      <c r="B579" t="n">
+        <v>8.16</v>
+      </c>
+      <c r="C579" t="n">
+        <v>8.16</v>
+      </c>
+      <c r="D579" t="n">
+        <v>8.16</v>
+      </c>
+      <c r="E579" t="n">
+        <v>8.16</v>
+      </c>
+      <c r="F579" t="n">
+        <v>7998.2628</v>
+      </c>
+      <c r="G579" t="n">
+        <v>-21034324.10117422</v>
+      </c>
+      <c r="H579" t="n">
+        <v>0</v>
+      </c>
+      <c r="I579" t="inlineStr"/>
+      <c r="J579" t="inlineStr"/>
+      <c r="K579" t="inlineStr"/>
+      <c r="L579" t="n">
+        <v>1</v>
+      </c>
+      <c r="M579" t="inlineStr"/>
+    </row>
+    <row r="580">
+      <c r="A580" s="1" t="n">
+        <v>578</v>
+      </c>
+      <c r="B580" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="C580" t="n">
+        <v>8.31</v>
+      </c>
+      <c r="D580" t="n">
+        <v>8.31</v>
+      </c>
+      <c r="E580" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="F580" t="n">
+        <v>548897.7715</v>
+      </c>
+      <c r="G580" t="n">
+        <v>-20485426.32967423</v>
+      </c>
+      <c r="H580" t="n">
+        <v>0</v>
+      </c>
+      <c r="I580" t="inlineStr"/>
+      <c r="J580" t="inlineStr"/>
+      <c r="K580" t="inlineStr"/>
+      <c r="L580" t="n">
+        <v>1</v>
+      </c>
+      <c r="M580" t="inlineStr"/>
+    </row>
+    <row r="581">
+      <c r="A581" s="1" t="n">
+        <v>579</v>
+      </c>
+      <c r="B581" t="n">
+        <v>8.31</v>
+      </c>
+      <c r="C581" t="n">
+        <v>8.380000000000001</v>
+      </c>
+      <c r="D581" t="n">
+        <v>8.380000000000001</v>
+      </c>
+      <c r="E581" t="n">
+        <v>8.31</v>
+      </c>
+      <c r="F581" t="n">
+        <v>1709.7306</v>
+      </c>
+      <c r="G581" t="n">
+        <v>-20483716.59907423</v>
+      </c>
+      <c r="H581" t="n">
+        <v>0</v>
+      </c>
+      <c r="I581" t="inlineStr"/>
+      <c r="J581" t="inlineStr"/>
+      <c r="K581" t="inlineStr"/>
+      <c r="L581" t="n">
+        <v>1</v>
+      </c>
+      <c r="M581" t="inlineStr"/>
+    </row>
+    <row r="582">
+      <c r="A582" s="1" t="n">
+        <v>580</v>
+      </c>
+      <c r="B582" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="C582" t="n">
+        <v>8.289999999999999</v>
+      </c>
+      <c r="D582" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="E582" t="n">
+        <v>8.289999999999999</v>
+      </c>
+      <c r="F582" t="n">
+        <v>14062.8103</v>
+      </c>
+      <c r="G582" t="n">
+        <v>-20497779.40937423</v>
+      </c>
+      <c r="H582" t="n">
+        <v>0</v>
+      </c>
+      <c r="I582" t="inlineStr"/>
+      <c r="J582" t="inlineStr"/>
+      <c r="K582" t="inlineStr"/>
+      <c r="L582" t="n">
+        <v>1</v>
+      </c>
+      <c r="M582" t="inlineStr"/>
+    </row>
+    <row r="583">
+      <c r="A583" s="1" t="n">
+        <v>581</v>
+      </c>
+      <c r="B583" t="n">
         <v>8.359999999999999</v>
       </c>
-      <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr">
+      <c r="C583" t="n">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="D583" t="n">
+        <v>8.359999999999999</v>
+      </c>
+      <c r="E583" t="n">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="F583" t="n">
+        <v>43627.7727</v>
+      </c>
+      <c r="G583" t="n">
+        <v>-20541407.18207423</v>
+      </c>
+      <c r="H583" t="n">
+        <v>0</v>
+      </c>
+      <c r="I583" t="inlineStr"/>
+      <c r="J583" t="inlineStr"/>
+      <c r="K583" t="inlineStr"/>
+      <c r="L583" t="n">
+        <v>1</v>
+      </c>
+      <c r="M583" t="inlineStr"/>
+    </row>
+    <row r="584">
+      <c r="A584" s="1" t="n">
+        <v>582</v>
+      </c>
+      <c r="B584" t="n">
+        <v>8.26</v>
+      </c>
+      <c r="C584" t="n">
+        <v>8.26</v>
+      </c>
+      <c r="D584" t="n">
+        <v>8.26</v>
+      </c>
+      <c r="E584" t="n">
+        <v>8.26</v>
+      </c>
+      <c r="F584" t="n">
+        <v>49562.043</v>
+      </c>
+      <c r="G584" t="n">
+        <v>-20590969.22507423</v>
+      </c>
+      <c r="H584" t="n">
+        <v>0</v>
+      </c>
+      <c r="I584" t="inlineStr"/>
+      <c r="J584" t="inlineStr"/>
+      <c r="K584" t="inlineStr"/>
+      <c r="L584" t="n">
+        <v>1</v>
+      </c>
+      <c r="M584" t="inlineStr"/>
+    </row>
+    <row r="585">
+      <c r="A585" s="1" t="n">
+        <v>583</v>
+      </c>
+      <c r="B585" t="n">
+        <v>8.26</v>
+      </c>
+      <c r="C585" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="D585" t="n">
+        <v>8.26</v>
+      </c>
+      <c r="E585" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="F585" t="n">
+        <v>20943.8982</v>
+      </c>
+      <c r="G585" t="n">
+        <v>-20611913.12327423</v>
+      </c>
+      <c r="H585" t="n">
+        <v>0</v>
+      </c>
+      <c r="I585" t="inlineStr"/>
+      <c r="J585" t="inlineStr"/>
+      <c r="K585" t="inlineStr"/>
+      <c r="L585" t="n">
+        <v>1</v>
+      </c>
+      <c r="M585" t="inlineStr"/>
+    </row>
+    <row r="586">
+      <c r="A586" s="1" t="n">
+        <v>584</v>
+      </c>
+      <c r="B586" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="C586" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="D586" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="E586" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="F586" t="n">
+        <v>11186.9879</v>
+      </c>
+      <c r="G586" t="n">
+        <v>-20600726.13537423</v>
+      </c>
+      <c r="H586" t="n">
+        <v>0</v>
+      </c>
+      <c r="I586" t="inlineStr"/>
+      <c r="J586" t="inlineStr"/>
+      <c r="K586" t="inlineStr"/>
+      <c r="L586" t="n">
+        <v>1</v>
+      </c>
+      <c r="M586" t="inlineStr"/>
+    </row>
+    <row r="587">
+      <c r="A587" s="1" t="n">
+        <v>585</v>
+      </c>
+      <c r="B587" t="n">
+        <v>8.289999999999999</v>
+      </c>
+      <c r="C587" t="n">
+        <v>8.27</v>
+      </c>
+      <c r="D587" t="n">
+        <v>8.289999999999999</v>
+      </c>
+      <c r="E587" t="n">
+        <v>8.27</v>
+      </c>
+      <c r="F587" t="n">
+        <v>49562.0431</v>
+      </c>
+      <c r="G587" t="n">
+        <v>-20650288.17847423</v>
+      </c>
+      <c r="H587" t="n">
+        <v>0</v>
+      </c>
+      <c r="I587" t="inlineStr"/>
+      <c r="J587" t="inlineStr"/>
+      <c r="K587" t="inlineStr"/>
+      <c r="L587" t="n">
+        <v>1</v>
+      </c>
+      <c r="M587" t="inlineStr"/>
+    </row>
+    <row r="588">
+      <c r="A588" s="1" t="n">
+        <v>586</v>
+      </c>
+      <c r="B588" t="n">
+        <v>8.27</v>
+      </c>
+      <c r="C588" t="n">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="D588" t="n">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="E588" t="n">
+        <v>8.27</v>
+      </c>
+      <c r="F588" t="n">
+        <v>137018.6819</v>
+      </c>
+      <c r="G588" t="n">
+        <v>-20513269.49657423</v>
+      </c>
+      <c r="H588" t="n">
+        <v>0</v>
+      </c>
+      <c r="I588" t="inlineStr"/>
+      <c r="J588" t="inlineStr"/>
+      <c r="K588" t="inlineStr"/>
+      <c r="L588" t="n">
+        <v>1</v>
+      </c>
+      <c r="M588" t="inlineStr"/>
+    </row>
+    <row r="589">
+      <c r="A589" s="1" t="n">
+        <v>587</v>
+      </c>
+      <c r="B589" t="n">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="C589" t="n">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="D589" t="n">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="E589" t="n">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="F589" t="n">
+        <v>6114.5028</v>
+      </c>
+      <c r="G589" t="n">
+        <v>-20513269.49657423</v>
+      </c>
+      <c r="H589" t="n">
+        <v>0</v>
+      </c>
+      <c r="I589" t="inlineStr"/>
+      <c r="J589" t="inlineStr"/>
+      <c r="K589" t="inlineStr"/>
+      <c r="L589" t="n">
+        <v>1</v>
+      </c>
+      <c r="M589" t="inlineStr"/>
+    </row>
+    <row r="590">
+      <c r="A590" s="1" t="n">
+        <v>588</v>
+      </c>
+      <c r="B590" t="n">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="C590" t="n">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="D590" t="n">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="E590" t="n">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="F590" t="n">
+        <v>3462.9629</v>
+      </c>
+      <c r="G590" t="n">
+        <v>-20509806.53367423</v>
+      </c>
+      <c r="H590" t="n">
+        <v>0</v>
+      </c>
+      <c r="I590" t="inlineStr"/>
+      <c r="J590" t="inlineStr"/>
+      <c r="K590" t="inlineStr"/>
+      <c r="L590" t="n">
+        <v>1</v>
+      </c>
+      <c r="M590" t="inlineStr"/>
+    </row>
+    <row r="591">
+      <c r="A591" s="1" t="n">
+        <v>589</v>
+      </c>
+      <c r="B591" t="n">
+        <v>8.359999999999999</v>
+      </c>
+      <c r="C591" t="n">
+        <v>8.359999999999999</v>
+      </c>
+      <c r="D591" t="n">
+        <v>8.359999999999999</v>
+      </c>
+      <c r="E591" t="n">
+        <v>8.359999999999999</v>
+      </c>
+      <c r="F591" t="n">
+        <v>68001.55499999999</v>
+      </c>
+      <c r="G591" t="n">
+        <v>-20577808.08867423</v>
+      </c>
+      <c r="H591" t="n">
+        <v>0</v>
+      </c>
+      <c r="I591" t="inlineStr"/>
+      <c r="J591" t="inlineStr"/>
+      <c r="K591" t="inlineStr"/>
+      <c r="L591" t="n">
+        <v>1</v>
+      </c>
+      <c r="M591" t="inlineStr"/>
+    </row>
+    <row r="592">
+      <c r="A592" s="1" t="n">
+        <v>590</v>
+      </c>
+      <c r="B592" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="C592" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="D592" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="E592" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="F592" t="n">
+        <v>3479</v>
+      </c>
+      <c r="G592" t="n">
+        <v>-20581287.08867423</v>
+      </c>
+      <c r="H592" t="n">
+        <v>0</v>
+      </c>
+      <c r="I592" t="inlineStr"/>
+      <c r="J592" t="inlineStr"/>
+      <c r="K592" t="inlineStr"/>
+      <c r="L592" t="n">
+        <v>1</v>
+      </c>
+      <c r="M592" t="inlineStr"/>
+    </row>
+    <row r="593">
+      <c r="A593" s="1" t="n">
+        <v>591</v>
+      </c>
+      <c r="B593" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="C593" t="n">
+        <v>8.19</v>
+      </c>
+      <c r="D593" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="E593" t="n">
+        <v>8.16</v>
+      </c>
+      <c r="F593" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G593" t="n">
+        <v>-20681287.08867423</v>
+      </c>
+      <c r="H593" t="n">
+        <v>0</v>
+      </c>
+      <c r="I593" t="inlineStr"/>
+      <c r="J593" t="inlineStr"/>
+      <c r="K593" t="inlineStr"/>
+      <c r="L593" t="n">
+        <v>1</v>
+      </c>
+      <c r="M593" t="inlineStr"/>
+    </row>
+    <row r="594">
+      <c r="A594" s="1" t="n">
+        <v>592</v>
+      </c>
+      <c r="B594" t="n">
+        <v>8.289999999999999</v>
+      </c>
+      <c r="C594" t="n">
+        <v>8.289999999999999</v>
+      </c>
+      <c r="D594" t="n">
+        <v>8.289999999999999</v>
+      </c>
+      <c r="E594" t="n">
+        <v>8.289999999999999</v>
+      </c>
+      <c r="F594" t="n">
+        <v>223.1604</v>
+      </c>
+      <c r="G594" t="n">
+        <v>-20681063.92827423</v>
+      </c>
+      <c r="H594" t="n">
+        <v>0</v>
+      </c>
+      <c r="I594" t="inlineStr"/>
+      <c r="J594" t="inlineStr"/>
+      <c r="K594" t="inlineStr"/>
+      <c r="L594" t="n">
+        <v>1</v>
+      </c>
+      <c r="M594" t="inlineStr"/>
+    </row>
+    <row r="595">
+      <c r="A595" s="1" t="n">
+        <v>593</v>
+      </c>
+      <c r="B595" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="C595" t="n">
+        <v>8.359999999999999</v>
+      </c>
+      <c r="D595" t="n">
+        <v>8.359999999999999</v>
+      </c>
+      <c r="E595" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="F595" t="n">
+        <v>266294.074</v>
+      </c>
+      <c r="G595" t="n">
+        <v>-20414769.85427423</v>
+      </c>
+      <c r="H595" t="n">
+        <v>0</v>
+      </c>
+      <c r="I595" t="inlineStr"/>
+      <c r="J595" t="inlineStr"/>
+      <c r="K595" t="inlineStr"/>
+      <c r="L595" t="n">
+        <v>1</v>
+      </c>
+      <c r="M595" t="inlineStr"/>
+    </row>
+    <row r="596">
+      <c r="A596" s="1" t="n">
+        <v>594</v>
+      </c>
+      <c r="B596" t="n">
+        <v>8.35</v>
+      </c>
+      <c r="C596" t="n">
+        <v>8.35</v>
+      </c>
+      <c r="D596" t="n">
+        <v>8.35</v>
+      </c>
+      <c r="E596" t="n">
+        <v>8.35</v>
+      </c>
+      <c r="F596" t="n">
+        <v>71881.67660000001</v>
+      </c>
+      <c r="G596" t="n">
+        <v>-20486651.53087423</v>
+      </c>
+      <c r="H596" t="n">
+        <v>0</v>
+      </c>
+      <c r="I596" t="inlineStr"/>
+      <c r="J596" t="inlineStr"/>
+      <c r="K596" t="inlineStr"/>
+      <c r="L596" t="n">
+        <v>1</v>
+      </c>
+      <c r="M596" t="inlineStr"/>
+    </row>
+    <row r="597">
+      <c r="A597" s="1" t="n">
+        <v>595</v>
+      </c>
+      <c r="B597" t="n">
+        <v>8.26</v>
+      </c>
+      <c r="C597" t="n">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="D597" t="n">
+        <v>8.26</v>
+      </c>
+      <c r="E597" t="n">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="F597" t="n">
+        <v>1309790</v>
+      </c>
+      <c r="G597" t="n">
+        <v>-21796441.53087423</v>
+      </c>
+      <c r="H597" t="n">
+        <v>0</v>
+      </c>
+      <c r="I597" t="inlineStr"/>
+      <c r="J597" t="inlineStr"/>
+      <c r="K597" t="inlineStr"/>
+      <c r="L597" t="n">
+        <v>1</v>
+      </c>
+      <c r="M597" t="inlineStr"/>
+    </row>
+    <row r="598">
+      <c r="A598" s="1" t="n">
+        <v>596</v>
+      </c>
+      <c r="B598" t="n">
+        <v>8.24</v>
+      </c>
+      <c r="C598" t="n">
+        <v>8.23</v>
+      </c>
+      <c r="D598" t="n">
+        <v>8.24</v>
+      </c>
+      <c r="E598" t="n">
+        <v>8.23</v>
+      </c>
+      <c r="F598" t="n">
+        <v>51796.9449</v>
+      </c>
+      <c r="G598" t="n">
+        <v>-21744644.58597423</v>
+      </c>
+      <c r="H598" t="n">
+        <v>0</v>
+      </c>
+      <c r="I598" t="inlineStr"/>
+      <c r="J598" t="inlineStr"/>
+      <c r="K598" t="inlineStr"/>
+      <c r="L598" t="n">
+        <v>1</v>
+      </c>
+      <c r="M598" t="inlineStr"/>
+    </row>
+    <row r="599">
+      <c r="A599" s="1" t="n">
+        <v>597</v>
+      </c>
+      <c r="B599" t="n">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="C599" t="n">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="D599" t="n">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="E599" t="n">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="F599" t="n">
+        <v>90402.99649999999</v>
+      </c>
+      <c r="G599" t="n">
+        <v>-21835047.58247423</v>
+      </c>
+      <c r="H599" t="n">
+        <v>0</v>
+      </c>
+      <c r="I599" t="inlineStr"/>
+      <c r="J599" t="inlineStr"/>
+      <c r="K599" t="inlineStr"/>
+      <c r="L599" t="n">
+        <v>1</v>
+      </c>
+      <c r="M599" t="inlineStr"/>
+    </row>
+    <row r="600">
+      <c r="A600" s="1" t="n">
+        <v>598</v>
+      </c>
+      <c r="B600" t="n">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="C600" t="n">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="D600" t="n">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="E600" t="n">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="F600" t="n">
+        <v>6529.3278</v>
+      </c>
+      <c r="G600" t="n">
+        <v>-21835047.58247423</v>
+      </c>
+      <c r="H600" t="n">
+        <v>1</v>
+      </c>
+      <c r="I600" t="n">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="J600" t="n">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="K600" t="inlineStr"/>
+      <c r="L600" t="n">
+        <v>1</v>
+      </c>
+      <c r="M600" t="inlineStr"/>
+    </row>
+    <row r="601">
+      <c r="A601" s="1" t="n">
+        <v>599</v>
+      </c>
+      <c r="B601" t="n">
+        <v>8.26</v>
+      </c>
+      <c r="C601" t="n">
+        <v>8.26</v>
+      </c>
+      <c r="D601" t="n">
+        <v>8.26</v>
+      </c>
+      <c r="E601" t="n">
+        <v>8.26</v>
+      </c>
+      <c r="F601" t="n">
+        <v>65.67789999999999</v>
+      </c>
+      <c r="G601" t="n">
+        <v>-21834981.90457423</v>
+      </c>
+      <c r="H601" t="n">
+        <v>1</v>
+      </c>
+      <c r="I601" t="n">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="J601" t="n">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L601" t="n">
+        <v>1</v>
+      </c>
+      <c r="M601" t="inlineStr"/>
+    </row>
+    <row r="602">
+      <c r="A602" s="1" t="n">
+        <v>600</v>
+      </c>
+      <c r="B602" t="n">
+        <v>8.26</v>
+      </c>
+      <c r="C602" t="n">
+        <v>8.26</v>
+      </c>
+      <c r="D602" t="n">
+        <v>8.26</v>
+      </c>
+      <c r="E602" t="n">
+        <v>8.26</v>
+      </c>
+      <c r="F602" t="n">
+        <v>125804.6722</v>
+      </c>
+      <c r="G602" t="n">
+        <v>-21834981.90457423</v>
+      </c>
+      <c r="H602" t="n">
+        <v>0</v>
+      </c>
+      <c r="I602" t="inlineStr"/>
+      <c r="J602" t="n">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L602" t="n">
+        <v>1</v>
+      </c>
+      <c r="M602" t="inlineStr"/>
+    </row>
+    <row r="603">
+      <c r="A603" s="1" t="n">
+        <v>601</v>
+      </c>
+      <c r="B603" t="n">
+        <v>8.31</v>
+      </c>
+      <c r="C603" t="n">
+        <v>8.31</v>
+      </c>
+      <c r="D603" t="n">
+        <v>8.31</v>
+      </c>
+      <c r="E603" t="n">
+        <v>8.31</v>
+      </c>
+      <c r="F603" t="n">
+        <v>49794.098</v>
+      </c>
+      <c r="G603" t="n">
+        <v>-21785187.80657423</v>
+      </c>
+      <c r="H603" t="n">
+        <v>0</v>
+      </c>
+      <c r="I603" t="inlineStr"/>
+      <c r="J603" t="inlineStr"/>
+      <c r="K603" t="inlineStr"/>
+      <c r="L603" t="n">
+        <v>1</v>
+      </c>
+      <c r="M603" t="inlineStr"/>
+    </row>
+    <row r="604">
+      <c r="A604" s="1" t="n">
+        <v>602</v>
+      </c>
+      <c r="B604" t="n">
+        <v>8.34</v>
+      </c>
+      <c r="C604" t="n">
+        <v>8.34</v>
+      </c>
+      <c r="D604" t="n">
+        <v>8.34</v>
+      </c>
+      <c r="E604" t="n">
+        <v>8.34</v>
+      </c>
+      <c r="F604" t="n">
+        <v>5936.1791</v>
+      </c>
+      <c r="G604" t="n">
+        <v>-21779251.62747423</v>
+      </c>
+      <c r="H604" t="n">
+        <v>0</v>
+      </c>
+      <c r="I604" t="inlineStr"/>
+      <c r="J604" t="inlineStr"/>
+      <c r="K604" t="inlineStr"/>
+      <c r="L604" t="n">
+        <v>1</v>
+      </c>
+      <c r="M604" t="inlineStr"/>
+    </row>
+    <row r="605">
+      <c r="A605" s="1" t="n">
+        <v>603</v>
+      </c>
+      <c r="B605" t="n">
+        <v>8.35</v>
+      </c>
+      <c r="C605" t="n">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="D605" t="n">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="E605" t="n">
+        <v>8.34</v>
+      </c>
+      <c r="F605" t="n">
+        <v>726071.2789</v>
+      </c>
+      <c r="G605" t="n">
+        <v>-21053180.34857423</v>
+      </c>
+      <c r="H605" t="n">
+        <v>0</v>
+      </c>
+      <c r="I605" t="inlineStr"/>
+      <c r="J605" t="inlineStr"/>
+      <c r="K605" t="inlineStr"/>
+      <c r="L605" t="n">
+        <v>1</v>
+      </c>
+      <c r="M605" t="inlineStr"/>
+    </row>
+    <row r="606">
+      <c r="A606" s="1" t="n">
+        <v>604</v>
+      </c>
+      <c r="B606" t="n">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="C606" t="n">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="D606" t="n">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="E606" t="n">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="F606" t="n">
+        <v>38209.124</v>
+      </c>
+      <c r="G606" t="n">
+        <v>-21053180.34857423</v>
+      </c>
+      <c r="H606" t="n">
+        <v>0</v>
+      </c>
+      <c r="I606" t="inlineStr"/>
+      <c r="J606" t="inlineStr"/>
+      <c r="K606" t="inlineStr"/>
+      <c r="L606" t="n">
+        <v>1</v>
+      </c>
+      <c r="M606" t="inlineStr"/>
+    </row>
+    <row r="607">
+      <c r="A607" s="1" t="n">
+        <v>605</v>
+      </c>
+      <c r="B607" t="n">
+        <v>8.42</v>
+      </c>
+      <c r="C607" t="n">
+        <v>8.42</v>
+      </c>
+      <c r="D607" t="n">
+        <v>8.42</v>
+      </c>
+      <c r="E607" t="n">
+        <v>8.42</v>
+      </c>
+      <c r="F607" t="n">
+        <v>55</v>
+      </c>
+      <c r="G607" t="n">
+        <v>-21053125.34857423</v>
+      </c>
+      <c r="H607" t="n">
+        <v>0</v>
+      </c>
+      <c r="I607" t="inlineStr"/>
+      <c r="J607" t="inlineStr"/>
+      <c r="K607" t="inlineStr"/>
+      <c r="L607" t="n">
+        <v>1</v>
+      </c>
+      <c r="M607" t="inlineStr"/>
+    </row>
+    <row r="608">
+      <c r="A608" s="1" t="n">
+        <v>606</v>
+      </c>
+      <c r="B608" t="n">
+        <v>8.42</v>
+      </c>
+      <c r="C608" t="n">
+        <v>8.42</v>
+      </c>
+      <c r="D608" t="n">
+        <v>8.42</v>
+      </c>
+      <c r="E608" t="n">
+        <v>8.42</v>
+      </c>
+      <c r="F608" t="n">
+        <v>2105</v>
+      </c>
+      <c r="G608" t="n">
+        <v>-21053125.34857423</v>
+      </c>
+      <c r="H608" t="n">
+        <v>0</v>
+      </c>
+      <c r="I608" t="inlineStr"/>
+      <c r="J608" t="inlineStr"/>
+      <c r="K608" t="inlineStr"/>
+      <c r="L608" t="n">
+        <v>1</v>
+      </c>
+      <c r="M608" t="inlineStr"/>
+    </row>
+    <row r="609">
+      <c r="A609" s="1" t="n">
+        <v>607</v>
+      </c>
+      <c r="B609" t="n">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="C609" t="n">
+        <v>8.34</v>
+      </c>
+      <c r="D609" t="n">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="E609" t="n">
+        <v>8.34</v>
+      </c>
+      <c r="F609" t="n">
+        <v>25182.2234</v>
+      </c>
+      <c r="G609" t="n">
+        <v>-21078307.57197423</v>
+      </c>
+      <c r="H609" t="n">
+        <v>0</v>
+      </c>
+      <c r="I609" t="inlineStr"/>
+      <c r="J609" t="inlineStr"/>
+      <c r="K609" t="inlineStr"/>
+      <c r="L609" t="n">
+        <v>1</v>
+      </c>
+      <c r="M609" t="inlineStr"/>
+    </row>
+    <row r="610">
+      <c r="A610" s="1" t="n">
+        <v>608</v>
+      </c>
+      <c r="B610" t="n">
+        <v>8.32</v>
+      </c>
+      <c r="C610" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="D610" t="n">
+        <v>8.34</v>
+      </c>
+      <c r="E610" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="F610" t="n">
+        <v>1965859.112</v>
+      </c>
+      <c r="G610" t="n">
+        <v>-23044166.68397423</v>
+      </c>
+      <c r="H610" t="n">
+        <v>0</v>
+      </c>
+      <c r="I610" t="inlineStr"/>
+      <c r="J610" t="inlineStr"/>
+      <c r="K610" t="inlineStr"/>
+      <c r="L610" t="n">
+        <v>1</v>
+      </c>
+      <c r="M610" t="inlineStr"/>
+    </row>
+    <row r="611">
+      <c r="A611" s="1" t="n">
+        <v>609</v>
+      </c>
+      <c r="B611" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="C611" t="n">
+        <v>8.31</v>
+      </c>
+      <c r="D611" t="n">
+        <v>8.34</v>
+      </c>
+      <c r="E611" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="F611" t="n">
+        <v>1084.5897</v>
+      </c>
+      <c r="G611" t="n">
+        <v>-23043082.09427423</v>
+      </c>
+      <c r="H611" t="n">
+        <v>0</v>
+      </c>
+      <c r="I611" t="inlineStr"/>
+      <c r="J611" t="inlineStr"/>
+      <c r="K611" t="inlineStr"/>
+      <c r="L611" t="n">
+        <v>1</v>
+      </c>
+      <c r="M611" t="inlineStr"/>
+    </row>
+    <row r="612">
+      <c r="A612" s="1" t="n">
+        <v>610</v>
+      </c>
+      <c r="B612" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="C612" t="n">
+        <v>8.34</v>
+      </c>
+      <c r="D612" t="n">
+        <v>8.34</v>
+      </c>
+      <c r="E612" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="F612" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G612" t="n">
+        <v>-23023082.09427423</v>
+      </c>
+      <c r="H612" t="n">
+        <v>0</v>
+      </c>
+      <c r="I612" t="inlineStr"/>
+      <c r="J612" t="inlineStr"/>
+      <c r="K612" t="inlineStr"/>
+      <c r="L612" t="n">
+        <v>1</v>
+      </c>
+      <c r="M612" t="inlineStr"/>
+    </row>
+    <row r="613">
+      <c r="A613" s="1" t="n">
+        <v>611</v>
+      </c>
+      <c r="B613" t="n">
+        <v>8.34</v>
+      </c>
+      <c r="C613" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="D613" t="n">
+        <v>8.34</v>
+      </c>
+      <c r="E613" t="n">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="F613" t="n">
+        <v>344221.3562</v>
+      </c>
+      <c r="G613" t="n">
+        <v>-23367303.45047423</v>
+      </c>
+      <c r="H613" t="n">
+        <v>0</v>
+      </c>
+      <c r="I613" t="inlineStr"/>
+      <c r="J613" t="inlineStr"/>
+      <c r="K613" t="inlineStr"/>
+      <c r="L613" t="n">
+        <v>1</v>
+      </c>
+      <c r="M613" t="inlineStr"/>
+    </row>
+    <row r="614">
+      <c r="A614" s="1" t="n">
+        <v>612</v>
+      </c>
+      <c r="B614" t="n">
+        <v>8.31</v>
+      </c>
+      <c r="C614" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="D614" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="E614" t="n">
+        <v>8.31</v>
+      </c>
+      <c r="F614" t="n">
+        <v>1698.5954</v>
+      </c>
+      <c r="G614" t="n">
+        <v>-23365604.85507423</v>
+      </c>
+      <c r="H614" t="n">
+        <v>0</v>
+      </c>
+      <c r="I614" t="inlineStr"/>
+      <c r="J614" t="inlineStr"/>
+      <c r="K614" t="inlineStr"/>
+      <c r="L614" t="n">
+        <v>1</v>
+      </c>
+      <c r="M614" t="inlineStr"/>
+    </row>
+    <row r="615">
+      <c r="A615" s="1" t="n">
+        <v>613</v>
+      </c>
+      <c r="B615" t="n">
+        <v>8.34</v>
+      </c>
+      <c r="C615" t="n">
+        <v>8.32</v>
+      </c>
+      <c r="D615" t="n">
+        <v>8.34</v>
+      </c>
+      <c r="E615" t="n">
+        <v>8.32</v>
+      </c>
+      <c r="F615" t="n">
+        <v>122749.2472</v>
+      </c>
+      <c r="G615" t="n">
+        <v>-23488354.10227423</v>
+      </c>
+      <c r="H615" t="n">
+        <v>0</v>
+      </c>
+      <c r="I615" t="inlineStr"/>
+      <c r="J615" t="inlineStr"/>
+      <c r="K615" t="inlineStr"/>
+      <c r="L615" t="n">
+        <v>1</v>
+      </c>
+      <c r="M615" t="inlineStr"/>
+    </row>
+    <row r="616">
+      <c r="A616" s="1" t="n">
+        <v>614</v>
+      </c>
+      <c r="B616" t="n">
+        <v>8.32</v>
+      </c>
+      <c r="C616" t="n">
+        <v>8.32</v>
+      </c>
+      <c r="D616" t="n">
+        <v>8.32</v>
+      </c>
+      <c r="E616" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="F616" t="n">
+        <v>3566</v>
+      </c>
+      <c r="G616" t="n">
+        <v>-23488354.10227423</v>
+      </c>
+      <c r="H616" t="n">
+        <v>0</v>
+      </c>
+      <c r="I616" t="inlineStr"/>
+      <c r="J616" t="inlineStr"/>
+      <c r="K616" t="inlineStr"/>
+      <c r="L616" t="n">
+        <v>1</v>
+      </c>
+      <c r="M616" t="inlineStr"/>
+    </row>
+    <row r="617">
+      <c r="A617" s="1" t="n">
+        <v>615</v>
+      </c>
+      <c r="B617" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="C617" t="n">
+        <v>8.34</v>
+      </c>
+      <c r="D617" t="n">
+        <v>8.34</v>
+      </c>
+      <c r="E617" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="F617" t="n">
+        <v>2834.9184</v>
+      </c>
+      <c r="G617" t="n">
+        <v>-23485519.18387423</v>
+      </c>
+      <c r="H617" t="n">
+        <v>1</v>
+      </c>
+      <c r="I617" t="n">
+        <v>8.32</v>
+      </c>
+      <c r="J617" t="n">
+        <v>8.32</v>
+      </c>
+      <c r="K617" t="inlineStr"/>
+      <c r="L617" t="n">
+        <v>1</v>
+      </c>
+      <c r="M617" t="inlineStr"/>
+    </row>
+    <row r="618">
+      <c r="A618" s="1" t="n">
+        <v>616</v>
+      </c>
+      <c r="B618" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="C618" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="D618" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="E618" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="F618" t="n">
+        <v>18068.0342</v>
+      </c>
+      <c r="G618" t="n">
+        <v>-23503587.21807423</v>
+      </c>
+      <c r="H618" t="n">
+        <v>0</v>
+      </c>
+      <c r="I618" t="inlineStr"/>
+      <c r="J618" t="n">
+        <v>8.32</v>
+      </c>
+      <c r="K618" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L569" t="n">
-        <v>1</v>
-      </c>
-      <c r="M569" t="inlineStr"/>
-    </row>
-    <row r="570">
-      <c r="A570" s="1" t="n">
-        <v>568</v>
-      </c>
-      <c r="B570" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="C570" t="n">
-        <v>8.16</v>
-      </c>
-      <c r="D570" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="E570" t="n">
-        <v>8.16</v>
-      </c>
-      <c r="F570" t="n">
-        <v>2279475.4559</v>
-      </c>
-      <c r="G570" t="n">
-        <v>-20829727.81817423</v>
-      </c>
-      <c r="H570" t="n">
-        <v>1</v>
-      </c>
-      <c r="I570" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L570" t="n">
-        <v>1</v>
-      </c>
-      <c r="M570" t="inlineStr"/>
-    </row>
-    <row r="571">
-      <c r="A571" s="1" t="n">
-        <v>569</v>
-      </c>
-      <c r="B571" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="C571" t="n">
-        <v>8.19</v>
-      </c>
-      <c r="D571" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="E571" t="n">
-        <v>8.19</v>
-      </c>
-      <c r="F571" t="n">
-        <v>59482.396</v>
-      </c>
-      <c r="G571" t="n">
-        <v>-20770245.42217423</v>
-      </c>
-      <c r="H571" t="n">
-        <v>1</v>
-      </c>
-      <c r="I571" t="n">
-        <v>8.16</v>
-      </c>
-      <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L571" t="n">
-        <v>1</v>
-      </c>
-      <c r="M571" t="inlineStr"/>
-    </row>
-    <row r="572">
-      <c r="A572" s="1" t="n">
-        <v>570</v>
-      </c>
-      <c r="B572" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="C572" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="D572" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="E572" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="F572" t="n">
-        <v>63308.6585</v>
-      </c>
-      <c r="G572" t="n">
-        <v>-20706936.76367423</v>
-      </c>
-      <c r="H572" t="n">
-        <v>1</v>
-      </c>
-      <c r="I572" t="n">
-        <v>8.19</v>
-      </c>
-      <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L572" t="n">
-        <v>1</v>
-      </c>
-      <c r="M572" t="inlineStr"/>
-    </row>
-    <row r="573">
-      <c r="A573" s="1" t="n">
-        <v>571</v>
-      </c>
-      <c r="B573" t="n">
-        <v>8.279999999999999</v>
-      </c>
-      <c r="C573" t="n">
-        <v>8.279999999999999</v>
-      </c>
-      <c r="D573" t="n">
-        <v>8.279999999999999</v>
-      </c>
-      <c r="E573" t="n">
-        <v>8.279999999999999</v>
-      </c>
-      <c r="F573" t="n">
-        <v>6404.4444</v>
-      </c>
-      <c r="G573" t="n">
-        <v>-20700532.31927422</v>
-      </c>
-      <c r="H573" t="n">
-        <v>1</v>
-      </c>
-      <c r="I573" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L573" t="n">
-        <v>1</v>
-      </c>
-      <c r="M573" t="inlineStr"/>
-    </row>
-    <row r="574">
-      <c r="A574" s="1" t="n">
-        <v>572</v>
-      </c>
-      <c r="B574" t="n">
-        <v>8.27</v>
-      </c>
-      <c r="C574" t="n">
-        <v>8.27</v>
-      </c>
-      <c r="D574" t="n">
-        <v>8.27</v>
-      </c>
-      <c r="E574" t="n">
-        <v>8.27</v>
-      </c>
-      <c r="F574" t="n">
-        <v>47656.4691</v>
-      </c>
-      <c r="G574" t="n">
-        <v>-20748188.78837422</v>
-      </c>
-      <c r="H574" t="n">
-        <v>1</v>
-      </c>
-      <c r="I574" t="n">
-        <v>8.279999999999999</v>
-      </c>
-      <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L574" t="n">
-        <v>1</v>
-      </c>
-      <c r="M574" t="inlineStr"/>
-    </row>
-    <row r="575">
-      <c r="A575" s="1" t="n">
-        <v>573</v>
-      </c>
-      <c r="B575" t="n">
-        <v>8.220000000000001</v>
-      </c>
-      <c r="C575" t="n">
-        <v>8.19</v>
-      </c>
-      <c r="D575" t="n">
-        <v>8.220000000000001</v>
-      </c>
-      <c r="E575" t="n">
-        <v>8.19</v>
-      </c>
-      <c r="F575" t="n">
-        <v>214923.6902</v>
-      </c>
-      <c r="G575" t="n">
-        <v>-20963112.47857422</v>
-      </c>
-      <c r="H575" t="n">
-        <v>1</v>
-      </c>
-      <c r="I575" t="n">
-        <v>8.27</v>
-      </c>
-      <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L575" t="n">
-        <v>1</v>
-      </c>
-      <c r="M575" t="inlineStr"/>
-    </row>
-    <row r="576">
-      <c r="A576" s="1" t="n">
-        <v>574</v>
-      </c>
-      <c r="B576" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="C576" t="n">
-        <v>8.19</v>
-      </c>
-      <c r="D576" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="E576" t="n">
-        <v>8.19</v>
-      </c>
-      <c r="F576" t="n">
-        <v>13874.3122</v>
-      </c>
-      <c r="G576" t="n">
-        <v>-20963112.47857422</v>
-      </c>
-      <c r="H576" t="n">
-        <v>1</v>
-      </c>
-      <c r="I576" t="n">
-        <v>8.19</v>
-      </c>
-      <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L576" t="n">
-        <v>1</v>
-      </c>
-      <c r="M576" t="inlineStr"/>
-    </row>
-    <row r="577">
-      <c r="A577" s="1" t="n">
-        <v>575</v>
-      </c>
-      <c r="B577" t="n">
-        <v>8.19</v>
-      </c>
-      <c r="C577" t="n">
-        <v>8.18</v>
-      </c>
-      <c r="D577" t="n">
-        <v>8.19</v>
-      </c>
-      <c r="E577" t="n">
-        <v>8.18</v>
-      </c>
-      <c r="F577" t="n">
-        <v>35198.0359</v>
-      </c>
-      <c r="G577" t="n">
-        <v>-20998310.51447422</v>
-      </c>
-      <c r="H577" t="n">
-        <v>1</v>
-      </c>
-      <c r="I577" t="n">
-        <v>8.19</v>
-      </c>
-      <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L577" t="n">
-        <v>1</v>
-      </c>
-      <c r="M577" t="inlineStr"/>
-    </row>
-    <row r="578">
-      <c r="A578" s="1" t="n">
-        <v>576</v>
-      </c>
-      <c r="B578" t="n">
-        <v>8.18</v>
-      </c>
-      <c r="C578" t="n">
-        <v>8.16</v>
-      </c>
-      <c r="D578" t="n">
-        <v>8.18</v>
-      </c>
-      <c r="E578" t="n">
-        <v>8.16</v>
-      </c>
-      <c r="F578" t="n">
-        <v>36013.5867</v>
-      </c>
-      <c r="G578" t="n">
-        <v>-21034324.10117422</v>
-      </c>
-      <c r="H578" t="n">
-        <v>1</v>
-      </c>
-      <c r="I578" t="n">
-        <v>8.18</v>
-      </c>
-      <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L578" t="n">
-        <v>1</v>
-      </c>
-      <c r="M578" t="inlineStr"/>
-    </row>
-    <row r="579">
-      <c r="A579" s="1" t="n">
-        <v>577</v>
-      </c>
-      <c r="B579" t="n">
-        <v>8.16</v>
-      </c>
-      <c r="C579" t="n">
-        <v>8.16</v>
-      </c>
-      <c r="D579" t="n">
-        <v>8.16</v>
-      </c>
-      <c r="E579" t="n">
-        <v>8.16</v>
-      </c>
-      <c r="F579" t="n">
-        <v>7998.2628</v>
-      </c>
-      <c r="G579" t="n">
-        <v>-21034324.10117422</v>
-      </c>
-      <c r="H579" t="n">
-        <v>1</v>
-      </c>
-      <c r="I579" t="n">
-        <v>8.16</v>
-      </c>
-      <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L579" t="n">
-        <v>1</v>
-      </c>
-      <c r="M579" t="inlineStr"/>
-    </row>
-    <row r="580">
-      <c r="A580" s="1" t="n">
-        <v>578</v>
-      </c>
-      <c r="B580" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="C580" t="n">
-        <v>8.31</v>
-      </c>
-      <c r="D580" t="n">
-        <v>8.31</v>
-      </c>
-      <c r="E580" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="F580" t="n">
-        <v>548897.7715</v>
-      </c>
-      <c r="G580" t="n">
-        <v>-20485426.32967423</v>
-      </c>
-      <c r="H580" t="n">
-        <v>1</v>
-      </c>
-      <c r="I580" t="n">
-        <v>8.16</v>
-      </c>
-      <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L580" t="n">
-        <v>1</v>
-      </c>
-      <c r="M580" t="inlineStr"/>
-    </row>
-    <row r="581">
-      <c r="A581" s="1" t="n">
-        <v>579</v>
-      </c>
-      <c r="B581" t="n">
-        <v>8.31</v>
-      </c>
-      <c r="C581" t="n">
-        <v>8.380000000000001</v>
-      </c>
-      <c r="D581" t="n">
-        <v>8.380000000000001</v>
-      </c>
-      <c r="E581" t="n">
-        <v>8.31</v>
-      </c>
-      <c r="F581" t="n">
-        <v>1709.7306</v>
-      </c>
-      <c r="G581" t="n">
-        <v>-20483716.59907423</v>
-      </c>
-      <c r="H581" t="n">
-        <v>0</v>
-      </c>
-      <c r="I581" t="inlineStr"/>
-      <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L581" t="n">
-        <v>1</v>
-      </c>
-      <c r="M581" t="inlineStr"/>
-    </row>
-    <row r="582">
-      <c r="A582" s="1" t="n">
-        <v>580</v>
-      </c>
-      <c r="B582" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="C582" t="n">
-        <v>8.289999999999999</v>
-      </c>
-      <c r="D582" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="E582" t="n">
-        <v>8.289999999999999</v>
-      </c>
-      <c r="F582" t="n">
-        <v>14062.8103</v>
-      </c>
-      <c r="G582" t="n">
-        <v>-20497779.40937423</v>
-      </c>
-      <c r="H582" t="n">
-        <v>0</v>
-      </c>
-      <c r="I582" t="inlineStr"/>
-      <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L582" t="n">
-        <v>1</v>
-      </c>
-      <c r="M582" t="inlineStr"/>
-    </row>
-    <row r="583">
-      <c r="A583" s="1" t="n">
-        <v>581</v>
-      </c>
-      <c r="B583" t="n">
-        <v>8.359999999999999</v>
-      </c>
-      <c r="C583" t="n">
-        <v>8.279999999999999</v>
-      </c>
-      <c r="D583" t="n">
-        <v>8.359999999999999</v>
-      </c>
-      <c r="E583" t="n">
-        <v>8.279999999999999</v>
-      </c>
-      <c r="F583" t="n">
-        <v>43627.7727</v>
-      </c>
-      <c r="G583" t="n">
-        <v>-20541407.18207423</v>
-      </c>
-      <c r="H583" t="n">
-        <v>0</v>
-      </c>
-      <c r="I583" t="inlineStr"/>
-      <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L583" t="n">
-        <v>1</v>
-      </c>
-      <c r="M583" t="inlineStr"/>
-    </row>
-    <row r="584">
-      <c r="A584" s="1" t="n">
-        <v>582</v>
-      </c>
-      <c r="B584" t="n">
-        <v>8.26</v>
-      </c>
-      <c r="C584" t="n">
-        <v>8.26</v>
-      </c>
-      <c r="D584" t="n">
-        <v>8.26</v>
-      </c>
-      <c r="E584" t="n">
-        <v>8.26</v>
-      </c>
-      <c r="F584" t="n">
-        <v>49562.043</v>
-      </c>
-      <c r="G584" t="n">
-        <v>-20590969.22507423</v>
-      </c>
-      <c r="H584" t="n">
-        <v>0</v>
-      </c>
-      <c r="I584" t="inlineStr"/>
-      <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L584" t="n">
-        <v>1</v>
-      </c>
-      <c r="M584" t="inlineStr"/>
-    </row>
-    <row r="585">
-      <c r="A585" s="1" t="n">
-        <v>583</v>
-      </c>
-      <c r="B585" t="n">
-        <v>8.26</v>
-      </c>
-      <c r="C585" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="D585" t="n">
-        <v>8.26</v>
-      </c>
-      <c r="E585" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="F585" t="n">
-        <v>20943.8982</v>
-      </c>
-      <c r="G585" t="n">
-        <v>-20611913.12327423</v>
-      </c>
-      <c r="H585" t="n">
-        <v>0</v>
-      </c>
-      <c r="I585" t="inlineStr"/>
-      <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L585" t="n">
-        <v>1</v>
-      </c>
-      <c r="M585" t="inlineStr"/>
-    </row>
-    <row r="586">
-      <c r="A586" s="1" t="n">
-        <v>584</v>
-      </c>
-      <c r="B586" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="C586" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="D586" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="E586" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="F586" t="n">
-        <v>11186.9879</v>
-      </c>
-      <c r="G586" t="n">
-        <v>-20600726.13537423</v>
-      </c>
-      <c r="H586" t="n">
-        <v>0</v>
-      </c>
-      <c r="I586" t="inlineStr"/>
-      <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L586" t="n">
-        <v>1</v>
-      </c>
-      <c r="M586" t="inlineStr"/>
-    </row>
-    <row r="587">
-      <c r="A587" s="1" t="n">
-        <v>585</v>
-      </c>
-      <c r="B587" t="n">
-        <v>8.289999999999999</v>
-      </c>
-      <c r="C587" t="n">
-        <v>8.27</v>
-      </c>
-      <c r="D587" t="n">
-        <v>8.289999999999999</v>
-      </c>
-      <c r="E587" t="n">
-        <v>8.27</v>
-      </c>
-      <c r="F587" t="n">
-        <v>49562.0431</v>
-      </c>
-      <c r="G587" t="n">
-        <v>-20650288.17847423</v>
-      </c>
-      <c r="H587" t="n">
-        <v>0</v>
-      </c>
-      <c r="I587" t="inlineStr"/>
-      <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L587" t="n">
-        <v>1</v>
-      </c>
-      <c r="M587" t="inlineStr"/>
-    </row>
-    <row r="588">
-      <c r="A588" s="1" t="n">
-        <v>586</v>
-      </c>
-      <c r="B588" t="n">
-        <v>8.27</v>
-      </c>
-      <c r="C588" t="n">
-        <v>8.279999999999999</v>
-      </c>
-      <c r="D588" t="n">
-        <v>8.279999999999999</v>
-      </c>
-      <c r="E588" t="n">
-        <v>8.27</v>
-      </c>
-      <c r="F588" t="n">
-        <v>137018.6819</v>
-      </c>
-      <c r="G588" t="n">
-        <v>-20513269.49657423</v>
-      </c>
-      <c r="H588" t="n">
-        <v>0</v>
-      </c>
-      <c r="I588" t="inlineStr"/>
-      <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L588" t="n">
-        <v>1</v>
-      </c>
-      <c r="M588" t="inlineStr"/>
-    </row>
-    <row r="589">
-      <c r="A589" s="1" t="n">
-        <v>587</v>
-      </c>
-      <c r="B589" t="n">
-        <v>8.279999999999999</v>
-      </c>
-      <c r="C589" t="n">
-        <v>8.279999999999999</v>
-      </c>
-      <c r="D589" t="n">
-        <v>8.279999999999999</v>
-      </c>
-      <c r="E589" t="n">
-        <v>8.279999999999999</v>
-      </c>
-      <c r="F589" t="n">
-        <v>6114.5028</v>
-      </c>
-      <c r="G589" t="n">
-        <v>-20513269.49657423</v>
-      </c>
-      <c r="H589" t="n">
-        <v>0</v>
-      </c>
-      <c r="I589" t="inlineStr"/>
-      <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L589" t="n">
-        <v>1</v>
-      </c>
-      <c r="M589" t="inlineStr"/>
-    </row>
-    <row r="590">
-      <c r="A590" s="1" t="n">
-        <v>588</v>
-      </c>
-      <c r="B590" t="n">
-        <v>8.369999999999999</v>
-      </c>
-      <c r="C590" t="n">
-        <v>8.369999999999999</v>
-      </c>
-      <c r="D590" t="n">
-        <v>8.369999999999999</v>
-      </c>
-      <c r="E590" t="n">
-        <v>8.369999999999999</v>
-      </c>
-      <c r="F590" t="n">
-        <v>3462.9629</v>
-      </c>
-      <c r="G590" t="n">
-        <v>-20509806.53367423</v>
-      </c>
-      <c r="H590" t="n">
-        <v>0</v>
-      </c>
-      <c r="I590" t="inlineStr"/>
-      <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L590" t="n">
-        <v>1</v>
-      </c>
-      <c r="M590" t="inlineStr"/>
-    </row>
-    <row r="591">
-      <c r="A591" s="1" t="n">
-        <v>589</v>
-      </c>
-      <c r="B591" t="n">
-        <v>8.359999999999999</v>
-      </c>
-      <c r="C591" t="n">
-        <v>8.359999999999999</v>
-      </c>
-      <c r="D591" t="n">
-        <v>8.359999999999999</v>
-      </c>
-      <c r="E591" t="n">
-        <v>8.359999999999999</v>
-      </c>
-      <c r="F591" t="n">
-        <v>68001.55499999999</v>
-      </c>
-      <c r="G591" t="n">
-        <v>-20577808.08867423</v>
-      </c>
-      <c r="H591" t="n">
-        <v>0</v>
-      </c>
-      <c r="I591" t="inlineStr"/>
-      <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L591" t="n">
-        <v>1</v>
-      </c>
-      <c r="M591" t="inlineStr"/>
-    </row>
-    <row r="592">
-      <c r="A592" s="1" t="n">
-        <v>590</v>
-      </c>
-      <c r="B592" t="n">
-        <v>8.33</v>
-      </c>
-      <c r="C592" t="n">
-        <v>8.33</v>
-      </c>
-      <c r="D592" t="n">
-        <v>8.33</v>
-      </c>
-      <c r="E592" t="n">
-        <v>8.33</v>
-      </c>
-      <c r="F592" t="n">
-        <v>3479</v>
-      </c>
-      <c r="G592" t="n">
-        <v>-20581287.08867423</v>
-      </c>
-      <c r="H592" t="n">
-        <v>0</v>
-      </c>
-      <c r="I592" t="inlineStr"/>
-      <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L592" t="n">
-        <v>1</v>
-      </c>
-      <c r="M592" t="inlineStr"/>
-    </row>
-    <row r="593">
-      <c r="A593" s="1" t="n">
-        <v>591</v>
-      </c>
-      <c r="B593" t="n">
-        <v>8.33</v>
-      </c>
-      <c r="C593" t="n">
-        <v>8.19</v>
-      </c>
-      <c r="D593" t="n">
-        <v>8.33</v>
-      </c>
-      <c r="E593" t="n">
-        <v>8.16</v>
-      </c>
-      <c r="F593" t="n">
-        <v>100000</v>
-      </c>
-      <c r="G593" t="n">
-        <v>-20681287.08867423</v>
-      </c>
-      <c r="H593" t="n">
-        <v>0</v>
-      </c>
-      <c r="I593" t="inlineStr"/>
-      <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L593" t="n">
-        <v>1</v>
-      </c>
-      <c r="M593" t="inlineStr"/>
-    </row>
-    <row r="594">
-      <c r="A594" s="1" t="n">
-        <v>592</v>
-      </c>
-      <c r="B594" t="n">
-        <v>8.289999999999999</v>
-      </c>
-      <c r="C594" t="n">
-        <v>8.289999999999999</v>
-      </c>
-      <c r="D594" t="n">
-        <v>8.289999999999999</v>
-      </c>
-      <c r="E594" t="n">
-        <v>8.289999999999999</v>
-      </c>
-      <c r="F594" t="n">
-        <v>223.1604</v>
-      </c>
-      <c r="G594" t="n">
-        <v>-20681063.92827423</v>
-      </c>
-      <c r="H594" t="n">
-        <v>0</v>
-      </c>
-      <c r="I594" t="inlineStr"/>
-      <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L594" t="n">
-        <v>1</v>
-      </c>
-      <c r="M594" t="inlineStr"/>
-    </row>
-    <row r="595">
-      <c r="A595" s="1" t="n">
-        <v>593</v>
-      </c>
-      <c r="B595" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="C595" t="n">
-        <v>8.359999999999999</v>
-      </c>
-      <c r="D595" t="n">
-        <v>8.359999999999999</v>
-      </c>
-      <c r="E595" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="F595" t="n">
-        <v>266294.074</v>
-      </c>
-      <c r="G595" t="n">
-        <v>-20414769.85427423</v>
-      </c>
-      <c r="H595" t="n">
-        <v>0</v>
-      </c>
-      <c r="I595" t="inlineStr"/>
-      <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L595" t="n">
-        <v>1</v>
-      </c>
-      <c r="M595" t="inlineStr"/>
-    </row>
-    <row r="596">
-      <c r="A596" s="1" t="n">
-        <v>594</v>
-      </c>
-      <c r="B596" t="n">
-        <v>8.35</v>
-      </c>
-      <c r="C596" t="n">
-        <v>8.35</v>
-      </c>
-      <c r="D596" t="n">
-        <v>8.35</v>
-      </c>
-      <c r="E596" t="n">
-        <v>8.35</v>
-      </c>
-      <c r="F596" t="n">
-        <v>71881.67660000001</v>
-      </c>
-      <c r="G596" t="n">
-        <v>-20486651.53087423</v>
-      </c>
-      <c r="H596" t="n">
-        <v>0</v>
-      </c>
-      <c r="I596" t="inlineStr"/>
-      <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L596" t="n">
-        <v>1</v>
-      </c>
-      <c r="M596" t="inlineStr"/>
-    </row>
-    <row r="597">
-      <c r="A597" s="1" t="n">
-        <v>595</v>
-      </c>
-      <c r="B597" t="n">
-        <v>8.26</v>
-      </c>
-      <c r="C597" t="n">
-        <v>8.220000000000001</v>
-      </c>
-      <c r="D597" t="n">
-        <v>8.26</v>
-      </c>
-      <c r="E597" t="n">
-        <v>8.220000000000001</v>
-      </c>
-      <c r="F597" t="n">
-        <v>1309790</v>
-      </c>
-      <c r="G597" t="n">
-        <v>-21796441.53087423</v>
-      </c>
-      <c r="H597" t="n">
-        <v>0</v>
-      </c>
-      <c r="I597" t="inlineStr"/>
-      <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L597" t="n">
-        <v>1</v>
-      </c>
-      <c r="M597" t="inlineStr"/>
-    </row>
-    <row r="598">
-      <c r="A598" s="1" t="n">
-        <v>596</v>
-      </c>
-      <c r="B598" t="n">
-        <v>8.24</v>
-      </c>
-      <c r="C598" t="n">
-        <v>8.23</v>
-      </c>
-      <c r="D598" t="n">
-        <v>8.24</v>
-      </c>
-      <c r="E598" t="n">
-        <v>8.23</v>
-      </c>
-      <c r="F598" t="n">
-        <v>51796.9449</v>
-      </c>
-      <c r="G598" t="n">
-        <v>-21744644.58597423</v>
-      </c>
-      <c r="H598" t="n">
-        <v>0</v>
-      </c>
-      <c r="I598" t="inlineStr"/>
-      <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L598" t="n">
-        <v>1</v>
-      </c>
-      <c r="M598" t="inlineStr"/>
-    </row>
-    <row r="599">
-      <c r="A599" s="1" t="n">
-        <v>597</v>
-      </c>
-      <c r="B599" t="n">
-        <v>8.220000000000001</v>
-      </c>
-      <c r="C599" t="n">
-        <v>8.220000000000001</v>
-      </c>
-      <c r="D599" t="n">
-        <v>8.220000000000001</v>
-      </c>
-      <c r="E599" t="n">
-        <v>8.220000000000001</v>
-      </c>
-      <c r="F599" t="n">
-        <v>90402.99649999999</v>
-      </c>
-      <c r="G599" t="n">
-        <v>-21835047.58247423</v>
-      </c>
-      <c r="H599" t="n">
-        <v>0</v>
-      </c>
-      <c r="I599" t="inlineStr"/>
-      <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L599" t="n">
-        <v>1</v>
-      </c>
-      <c r="M599" t="inlineStr"/>
-    </row>
-    <row r="600">
-      <c r="A600" s="1" t="n">
-        <v>598</v>
-      </c>
-      <c r="B600" t="n">
-        <v>8.220000000000001</v>
-      </c>
-      <c r="C600" t="n">
-        <v>8.220000000000001</v>
-      </c>
-      <c r="D600" t="n">
-        <v>8.220000000000001</v>
-      </c>
-      <c r="E600" t="n">
-        <v>8.220000000000001</v>
-      </c>
-      <c r="F600" t="n">
-        <v>6529.3278</v>
-      </c>
-      <c r="G600" t="n">
-        <v>-21835047.58247423</v>
-      </c>
-      <c r="H600" t="n">
-        <v>0</v>
-      </c>
-      <c r="I600" t="inlineStr"/>
-      <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L600" t="n">
-        <v>1</v>
-      </c>
-      <c r="M600" t="inlineStr"/>
-    </row>
-    <row r="601">
-      <c r="A601" s="1" t="n">
-        <v>599</v>
-      </c>
-      <c r="B601" t="n">
-        <v>8.26</v>
-      </c>
-      <c r="C601" t="n">
-        <v>8.26</v>
-      </c>
-      <c r="D601" t="n">
-        <v>8.26</v>
-      </c>
-      <c r="E601" t="n">
-        <v>8.26</v>
-      </c>
-      <c r="F601" t="n">
-        <v>65.67789999999999</v>
-      </c>
-      <c r="G601" t="n">
-        <v>-21834981.90457423</v>
-      </c>
-      <c r="H601" t="n">
-        <v>0</v>
-      </c>
-      <c r="I601" t="inlineStr"/>
-      <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L601" t="n">
-        <v>1</v>
-      </c>
-      <c r="M601" t="inlineStr"/>
-    </row>
-    <row r="602">
-      <c r="A602" s="1" t="n">
-        <v>600</v>
-      </c>
-      <c r="B602" t="n">
-        <v>8.26</v>
-      </c>
-      <c r="C602" t="n">
-        <v>8.26</v>
-      </c>
-      <c r="D602" t="n">
-        <v>8.26</v>
-      </c>
-      <c r="E602" t="n">
-        <v>8.26</v>
-      </c>
-      <c r="F602" t="n">
-        <v>125804.6722</v>
-      </c>
-      <c r="G602" t="n">
-        <v>-21834981.90457423</v>
-      </c>
-      <c r="H602" t="n">
-        <v>0</v>
-      </c>
-      <c r="I602" t="inlineStr"/>
-      <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L602" t="n">
-        <v>1</v>
-      </c>
-      <c r="M602" t="inlineStr"/>
-    </row>
-    <row r="603">
-      <c r="A603" s="1" t="n">
-        <v>601</v>
-      </c>
-      <c r="B603" t="n">
-        <v>8.31</v>
-      </c>
-      <c r="C603" t="n">
-        <v>8.31</v>
-      </c>
-      <c r="D603" t="n">
-        <v>8.31</v>
-      </c>
-      <c r="E603" t="n">
-        <v>8.31</v>
-      </c>
-      <c r="F603" t="n">
-        <v>49794.098</v>
-      </c>
-      <c r="G603" t="n">
-        <v>-21785187.80657423</v>
-      </c>
-      <c r="H603" t="n">
-        <v>0</v>
-      </c>
-      <c r="I603" t="inlineStr"/>
-      <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L603" t="n">
-        <v>1</v>
-      </c>
-      <c r="M603" t="inlineStr"/>
-    </row>
-    <row r="604">
-      <c r="A604" s="1" t="n">
-        <v>602</v>
-      </c>
-      <c r="B604" t="n">
-        <v>8.34</v>
-      </c>
-      <c r="C604" t="n">
-        <v>8.34</v>
-      </c>
-      <c r="D604" t="n">
-        <v>8.34</v>
-      </c>
-      <c r="E604" t="n">
-        <v>8.34</v>
-      </c>
-      <c r="F604" t="n">
-        <v>5936.1791</v>
-      </c>
-      <c r="G604" t="n">
-        <v>-21779251.62747423</v>
-      </c>
-      <c r="H604" t="n">
-        <v>0</v>
-      </c>
-      <c r="I604" t="inlineStr"/>
-      <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L604" t="n">
-        <v>1</v>
-      </c>
-      <c r="M604" t="inlineStr"/>
-    </row>
-    <row r="605">
-      <c r="A605" s="1" t="n">
-        <v>603</v>
-      </c>
-      <c r="B605" t="n">
-        <v>8.35</v>
-      </c>
-      <c r="C605" t="n">
-        <v>8.369999999999999</v>
-      </c>
-      <c r="D605" t="n">
-        <v>8.369999999999999</v>
-      </c>
-      <c r="E605" t="n">
-        <v>8.34</v>
-      </c>
-      <c r="F605" t="n">
-        <v>726071.2789</v>
-      </c>
-      <c r="G605" t="n">
-        <v>-21053180.34857423</v>
-      </c>
-      <c r="H605" t="n">
-        <v>0</v>
-      </c>
-      <c r="I605" t="inlineStr"/>
-      <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L605" t="n">
-        <v>1</v>
-      </c>
-      <c r="M605" t="inlineStr"/>
-    </row>
-    <row r="606">
-      <c r="A606" s="1" t="n">
-        <v>604</v>
-      </c>
-      <c r="B606" t="n">
-        <v>8.369999999999999</v>
-      </c>
-      <c r="C606" t="n">
-        <v>8.369999999999999</v>
-      </c>
-      <c r="D606" t="n">
-        <v>8.369999999999999</v>
-      </c>
-      <c r="E606" t="n">
-        <v>8.369999999999999</v>
-      </c>
-      <c r="F606" t="n">
-        <v>38209.124</v>
-      </c>
-      <c r="G606" t="n">
-        <v>-21053180.34857423</v>
-      </c>
-      <c r="H606" t="n">
-        <v>0</v>
-      </c>
-      <c r="I606" t="inlineStr"/>
-      <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L606" t="n">
-        <v>1</v>
-      </c>
-      <c r="M606" t="inlineStr"/>
-    </row>
-    <row r="607">
-      <c r="A607" s="1" t="n">
-        <v>605</v>
-      </c>
-      <c r="B607" t="n">
-        <v>8.42</v>
-      </c>
-      <c r="C607" t="n">
-        <v>8.42</v>
-      </c>
-      <c r="D607" t="n">
-        <v>8.42</v>
-      </c>
-      <c r="E607" t="n">
-        <v>8.42</v>
-      </c>
-      <c r="F607" t="n">
-        <v>55</v>
-      </c>
-      <c r="G607" t="n">
-        <v>-21053125.34857423</v>
-      </c>
-      <c r="H607" t="n">
-        <v>0</v>
-      </c>
-      <c r="I607" t="inlineStr"/>
-      <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L607" t="n">
-        <v>1</v>
-      </c>
-      <c r="M607" t="inlineStr"/>
-    </row>
-    <row r="608">
-      <c r="A608" s="1" t="n">
-        <v>606</v>
-      </c>
-      <c r="B608" t="n">
-        <v>8.42</v>
-      </c>
-      <c r="C608" t="n">
-        <v>8.42</v>
-      </c>
-      <c r="D608" t="n">
-        <v>8.42</v>
-      </c>
-      <c r="E608" t="n">
-        <v>8.42</v>
-      </c>
-      <c r="F608" t="n">
-        <v>2105</v>
-      </c>
-      <c r="G608" t="n">
-        <v>-21053125.34857423</v>
-      </c>
-      <c r="H608" t="n">
-        <v>0</v>
-      </c>
-      <c r="I608" t="inlineStr"/>
-      <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L608" t="n">
-        <v>1</v>
-      </c>
-      <c r="M608" t="inlineStr"/>
-    </row>
-    <row r="609">
-      <c r="A609" s="1" t="n">
-        <v>607</v>
-      </c>
-      <c r="B609" t="n">
-        <v>8.369999999999999</v>
-      </c>
-      <c r="C609" t="n">
-        <v>8.34</v>
-      </c>
-      <c r="D609" t="n">
-        <v>8.369999999999999</v>
-      </c>
-      <c r="E609" t="n">
-        <v>8.34</v>
-      </c>
-      <c r="F609" t="n">
-        <v>25182.2234</v>
-      </c>
-      <c r="G609" t="n">
-        <v>-21078307.57197423</v>
-      </c>
-      <c r="H609" t="n">
-        <v>0</v>
-      </c>
-      <c r="I609" t="inlineStr"/>
-      <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L609" t="n">
-        <v>1</v>
-      </c>
-      <c r="M609" t="inlineStr"/>
-    </row>
-    <row r="610">
-      <c r="A610" s="1" t="n">
-        <v>608</v>
-      </c>
-      <c r="B610" t="n">
-        <v>8.32</v>
-      </c>
-      <c r="C610" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="D610" t="n">
-        <v>8.34</v>
-      </c>
-      <c r="E610" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="F610" t="n">
-        <v>1965859.112</v>
-      </c>
-      <c r="G610" t="n">
-        <v>-23044166.68397423</v>
-      </c>
-      <c r="H610" t="n">
-        <v>0</v>
-      </c>
-      <c r="I610" t="inlineStr"/>
-      <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L610" t="n">
-        <v>1</v>
-      </c>
-      <c r="M610" t="inlineStr"/>
-    </row>
-    <row r="611">
-      <c r="A611" s="1" t="n">
-        <v>609</v>
-      </c>
-      <c r="B611" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="C611" t="n">
-        <v>8.31</v>
-      </c>
-      <c r="D611" t="n">
-        <v>8.34</v>
-      </c>
-      <c r="E611" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="F611" t="n">
-        <v>1084.5897</v>
-      </c>
-      <c r="G611" t="n">
-        <v>-23043082.09427423</v>
-      </c>
-      <c r="H611" t="n">
-        <v>0</v>
-      </c>
-      <c r="I611" t="inlineStr"/>
-      <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L611" t="n">
-        <v>1</v>
-      </c>
-      <c r="M611" t="inlineStr"/>
-    </row>
-    <row r="612">
-      <c r="A612" s="1" t="n">
-        <v>610</v>
-      </c>
-      <c r="B612" t="n">
-        <v>8.33</v>
-      </c>
-      <c r="C612" t="n">
-        <v>8.34</v>
-      </c>
-      <c r="D612" t="n">
-        <v>8.34</v>
-      </c>
-      <c r="E612" t="n">
-        <v>8.33</v>
-      </c>
-      <c r="F612" t="n">
-        <v>20000</v>
-      </c>
-      <c r="G612" t="n">
-        <v>-23023082.09427423</v>
-      </c>
-      <c r="H612" t="n">
-        <v>0</v>
-      </c>
-      <c r="I612" t="inlineStr"/>
-      <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L612" t="n">
-        <v>1</v>
-      </c>
-      <c r="M612" t="inlineStr"/>
-    </row>
-    <row r="613">
-      <c r="A613" s="1" t="n">
-        <v>611</v>
-      </c>
-      <c r="B613" t="n">
-        <v>8.34</v>
-      </c>
-      <c r="C613" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="D613" t="n">
-        <v>8.34</v>
-      </c>
-      <c r="E613" t="n">
-        <v>8.279999999999999</v>
-      </c>
-      <c r="F613" t="n">
-        <v>344221.3562</v>
-      </c>
-      <c r="G613" t="n">
-        <v>-23367303.45047423</v>
-      </c>
-      <c r="H613" t="n">
-        <v>0</v>
-      </c>
-      <c r="I613" t="inlineStr"/>
-      <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L613" t="n">
-        <v>1</v>
-      </c>
-      <c r="M613" t="inlineStr"/>
-    </row>
-    <row r="614">
-      <c r="A614" s="1" t="n">
-        <v>612</v>
-      </c>
-      <c r="B614" t="n">
-        <v>8.31</v>
-      </c>
-      <c r="C614" t="n">
-        <v>8.33</v>
-      </c>
-      <c r="D614" t="n">
-        <v>8.33</v>
-      </c>
-      <c r="E614" t="n">
-        <v>8.31</v>
-      </c>
-      <c r="F614" t="n">
-        <v>1698.5954</v>
-      </c>
-      <c r="G614" t="n">
-        <v>-23365604.85507423</v>
-      </c>
-      <c r="H614" t="n">
-        <v>0</v>
-      </c>
-      <c r="I614" t="inlineStr"/>
-      <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L614" t="n">
-        <v>1</v>
-      </c>
-      <c r="M614" t="inlineStr"/>
-    </row>
-    <row r="615">
-      <c r="A615" s="1" t="n">
-        <v>613</v>
-      </c>
-      <c r="B615" t="n">
-        <v>8.34</v>
-      </c>
-      <c r="C615" t="n">
-        <v>8.32</v>
-      </c>
-      <c r="D615" t="n">
-        <v>8.34</v>
-      </c>
-      <c r="E615" t="n">
-        <v>8.32</v>
-      </c>
-      <c r="F615" t="n">
-        <v>122749.2472</v>
-      </c>
-      <c r="G615" t="n">
-        <v>-23488354.10227423</v>
-      </c>
-      <c r="H615" t="n">
-        <v>0</v>
-      </c>
-      <c r="I615" t="inlineStr"/>
-      <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L615" t="n">
-        <v>1</v>
-      </c>
-      <c r="M615" t="inlineStr"/>
-    </row>
-    <row r="616">
-      <c r="A616" s="1" t="n">
-        <v>614</v>
-      </c>
-      <c r="B616" t="n">
-        <v>8.32</v>
-      </c>
-      <c r="C616" t="n">
-        <v>8.32</v>
-      </c>
-      <c r="D616" t="n">
-        <v>8.32</v>
-      </c>
-      <c r="E616" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="F616" t="n">
-        <v>3566</v>
-      </c>
-      <c r="G616" t="n">
-        <v>-23488354.10227423</v>
-      </c>
-      <c r="H616" t="n">
-        <v>0</v>
-      </c>
-      <c r="I616" t="inlineStr"/>
-      <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L616" t="n">
-        <v>1</v>
-      </c>
-      <c r="M616" t="inlineStr"/>
-    </row>
-    <row r="617">
-      <c r="A617" s="1" t="n">
-        <v>615</v>
-      </c>
-      <c r="B617" t="n">
-        <v>8.33</v>
-      </c>
-      <c r="C617" t="n">
-        <v>8.34</v>
-      </c>
-      <c r="D617" t="n">
-        <v>8.34</v>
-      </c>
-      <c r="E617" t="n">
-        <v>8.33</v>
-      </c>
-      <c r="F617" t="n">
-        <v>2834.9184</v>
-      </c>
-      <c r="G617" t="n">
-        <v>-23485519.18387423</v>
-      </c>
-      <c r="H617" t="n">
-        <v>0</v>
-      </c>
-      <c r="I617" t="inlineStr"/>
-      <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L617" t="n">
-        <v>1</v>
-      </c>
-      <c r="M617" t="inlineStr"/>
-    </row>
-    <row r="618">
-      <c r="A618" s="1" t="n">
-        <v>616</v>
-      </c>
-      <c r="B618" t="n">
-        <v>8.33</v>
-      </c>
-      <c r="C618" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="D618" t="n">
-        <v>8.33</v>
-      </c>
-      <c r="E618" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="F618" t="n">
-        <v>18068.0342</v>
-      </c>
-      <c r="G618" t="n">
-        <v>-23503587.21807423</v>
-      </c>
-      <c r="H618" t="n">
-        <v>0</v>
-      </c>
-      <c r="I618" t="inlineStr"/>
-      <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -21036,10 +20840,14 @@
         <v>-23215019.38637423</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
-      </c>
-      <c r="I619" t="inlineStr"/>
-      <c r="J619" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I619" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="J619" t="n">
+        <v>8.32</v>
+      </c>
       <c r="K619" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21073,10 +20881,14 @@
         <v>-23234091.80797423</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
-      </c>
-      <c r="I620" t="inlineStr"/>
-      <c r="J620" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I620" t="n">
+        <v>8.34</v>
+      </c>
+      <c r="J620" t="n">
+        <v>8.32</v>
+      </c>
       <c r="K620" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21110,10 +20922,14 @@
         <v>-23234091.80797423</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
-      </c>
-      <c r="I621" t="inlineStr"/>
-      <c r="J621" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I621" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="J621" t="n">
+        <v>8.32</v>
+      </c>
       <c r="K621" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21150,7 +20966,9 @@
         <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="inlineStr"/>
+      <c r="J622" t="n">
+        <v>8.32</v>
+      </c>
       <c r="K622" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21184,10 +21002,14 @@
         <v>-23041226.12477423</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
-      </c>
-      <c r="I623" t="inlineStr"/>
-      <c r="J623" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I623" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="J623" t="n">
+        <v>8.32</v>
+      </c>
       <c r="K623" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21221,10 +21043,14 @@
         <v>-23036427.69957422</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
-      </c>
-      <c r="I624" t="inlineStr"/>
-      <c r="J624" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I624" t="n">
+        <v>8.35</v>
+      </c>
+      <c r="J624" t="n">
+        <v>8.32</v>
+      </c>
       <c r="K624" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21258,10 +21084,14 @@
         <v>-23041630.54467423</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
-      </c>
-      <c r="I625" t="inlineStr"/>
-      <c r="J625" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I625" t="n">
+        <v>8.42</v>
+      </c>
+      <c r="J625" t="n">
+        <v>8.32</v>
+      </c>
       <c r="K625" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21295,10 +21125,14 @@
         <v>-23041630.54467423</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
-      </c>
-      <c r="I626" t="inlineStr"/>
-      <c r="J626" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I626" t="n">
+        <v>8.34</v>
+      </c>
+      <c r="J626" t="n">
+        <v>8.32</v>
+      </c>
       <c r="K626" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21332,10 +21166,14 @@
         <v>-23041630.54467423</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
-      </c>
-      <c r="I627" t="inlineStr"/>
-      <c r="J627" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I627" t="n">
+        <v>8.34</v>
+      </c>
+      <c r="J627" t="n">
+        <v>8.32</v>
+      </c>
       <c r="K627" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21369,10 +21207,14 @@
         <v>-23017160.11867423</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
-      </c>
-      <c r="I628" t="inlineStr"/>
-      <c r="J628" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I628" t="n">
+        <v>8.34</v>
+      </c>
+      <c r="J628" t="n">
+        <v>8.32</v>
+      </c>
       <c r="K628" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21406,10 +21248,14 @@
         <v>-23032142.01277423</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
-      </c>
-      <c r="I629" t="inlineStr"/>
-      <c r="J629" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I629" t="n">
+        <v>8.42</v>
+      </c>
+      <c r="J629" t="n">
+        <v>8.32</v>
+      </c>
       <c r="K629" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21443,10 +21289,14 @@
         <v>-23032142.01277423</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
-      </c>
-      <c r="I630" t="inlineStr"/>
-      <c r="J630" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I630" t="n">
+        <v>8.35</v>
+      </c>
+      <c r="J630" t="n">
+        <v>8.32</v>
+      </c>
       <c r="K630" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21480,10 +21330,14 @@
         <v>-23032142.01277423</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
-      </c>
-      <c r="I631" t="inlineStr"/>
-      <c r="J631" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I631" t="n">
+        <v>8.35</v>
+      </c>
+      <c r="J631" t="n">
+        <v>8.32</v>
+      </c>
       <c r="K631" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21517,10 +21371,14 @@
         <v>-23029825.55387422</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
-      </c>
-      <c r="I632" t="inlineStr"/>
-      <c r="J632" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I632" t="n">
+        <v>8.35</v>
+      </c>
+      <c r="J632" t="n">
+        <v>8.32</v>
+      </c>
       <c r="K632" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21554,10 +21412,14 @@
         <v>-23029825.55387422</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
-      </c>
-      <c r="I633" t="inlineStr"/>
-      <c r="J633" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I633" t="n">
+        <v>8.44</v>
+      </c>
+      <c r="J633" t="n">
+        <v>8.32</v>
+      </c>
       <c r="K633" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21591,10 +21453,14 @@
         <v>-23029825.55387422</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
-      </c>
-      <c r="I634" t="inlineStr"/>
-      <c r="J634" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I634" t="n">
+        <v>8.44</v>
+      </c>
+      <c r="J634" t="n">
+        <v>8.32</v>
+      </c>
       <c r="K634" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21628,10 +21494,14 @@
         <v>-23029936.55387422</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
-      </c>
-      <c r="I635" t="inlineStr"/>
-      <c r="J635" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I635" t="n">
+        <v>8.44</v>
+      </c>
+      <c r="J635" t="n">
+        <v>8.32</v>
+      </c>
       <c r="K635" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21665,10 +21535,14 @@
         <v>-23029936.55387422</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
-      </c>
-      <c r="I636" t="inlineStr"/>
-      <c r="J636" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I636" t="n">
+        <v>8.35</v>
+      </c>
+      <c r="J636" t="n">
+        <v>8.32</v>
+      </c>
       <c r="K636" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21702,10 +21576,14 @@
         <v>-23028010.45537423</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
-      </c>
-      <c r="I637" t="inlineStr"/>
-      <c r="J637" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I637" t="n">
+        <v>8.35</v>
+      </c>
+      <c r="J637" t="n">
+        <v>8.32</v>
+      </c>
       <c r="K637" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21739,10 +21617,14 @@
         <v>-23033050.16407423</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
-      </c>
-      <c r="I638" t="inlineStr"/>
-      <c r="J638" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I638" t="n">
+        <v>8.42</v>
+      </c>
+      <c r="J638" t="n">
+        <v>8.32</v>
+      </c>
       <c r="K638" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21776,10 +21658,14 @@
         <v>-23033050.16407423</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
-      </c>
-      <c r="I639" t="inlineStr"/>
-      <c r="J639" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I639" t="n">
+        <v>8.35</v>
+      </c>
+      <c r="J639" t="n">
+        <v>8.32</v>
+      </c>
       <c r="K639" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21813,10 +21699,14 @@
         <v>-23060387.62677423</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
-      </c>
-      <c r="I640" t="inlineStr"/>
-      <c r="J640" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I640" t="n">
+        <v>8.35</v>
+      </c>
+      <c r="J640" t="n">
+        <v>8.32</v>
+      </c>
       <c r="K640" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21850,10 +21740,14 @@
         <v>-23060387.62677423</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
-      </c>
-      <c r="I641" t="inlineStr"/>
-      <c r="J641" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I641" t="n">
+        <v>8.32</v>
+      </c>
+      <c r="J641" t="n">
+        <v>8.32</v>
+      </c>
       <c r="K641" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21887,10 +21781,14 @@
         <v>-23060387.62677423</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
-      </c>
-      <c r="I642" t="inlineStr"/>
-      <c r="J642" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I642" t="n">
+        <v>8.32</v>
+      </c>
+      <c r="J642" t="n">
+        <v>8.32</v>
+      </c>
       <c r="K642" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21924,10 +21822,14 @@
         <v>-23060387.62677423</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
-      </c>
-      <c r="I643" t="inlineStr"/>
-      <c r="J643" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I643" t="n">
+        <v>8.32</v>
+      </c>
+      <c r="J643" t="n">
+        <v>8.32</v>
+      </c>
       <c r="K643" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21961,10 +21863,14 @@
         <v>-23060387.62677423</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
-      </c>
-      <c r="I644" t="inlineStr"/>
-      <c r="J644" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I644" t="n">
+        <v>8.32</v>
+      </c>
+      <c r="J644" t="n">
+        <v>8.32</v>
+      </c>
       <c r="K644" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21998,10 +21904,14 @@
         <v>-23226743.80247423</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
-      </c>
-      <c r="I645" t="inlineStr"/>
-      <c r="J645" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I645" t="n">
+        <v>8.32</v>
+      </c>
+      <c r="J645" t="n">
+        <v>8.32</v>
+      </c>
       <c r="K645" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22035,10 +21945,14 @@
         <v>-23774271.30567423</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
-      </c>
-      <c r="I646" t="inlineStr"/>
-      <c r="J646" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I646" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="J646" t="n">
+        <v>8.32</v>
+      </c>
       <c r="K646" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22072,10 +21986,14 @@
         <v>-23765559.64707423</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
-      </c>
-      <c r="I647" t="inlineStr"/>
-      <c r="J647" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I647" t="n">
+        <v>8.26</v>
+      </c>
+      <c r="J647" t="n">
+        <v>8.32</v>
+      </c>
       <c r="K647" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22109,10 +22027,14 @@
         <v>-23765559.64707423</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
-      </c>
-      <c r="I648" t="inlineStr"/>
-      <c r="J648" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I648" t="n">
+        <v>8.32</v>
+      </c>
+      <c r="J648" t="n">
+        <v>8.32</v>
+      </c>
       <c r="K648" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22146,10 +22068,14 @@
         <v>-23765559.64707423</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
-      </c>
-      <c r="I649" t="inlineStr"/>
-      <c r="J649" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I649" t="n">
+        <v>8.32</v>
+      </c>
+      <c r="J649" t="n">
+        <v>8.32</v>
+      </c>
       <c r="K649" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22183,10 +22109,14 @@
         <v>-23765559.64707423</v>
       </c>
       <c r="H650" t="n">
-        <v>0</v>
-      </c>
-      <c r="I650" t="inlineStr"/>
-      <c r="J650" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I650" t="n">
+        <v>8.32</v>
+      </c>
+      <c r="J650" t="n">
+        <v>8.32</v>
+      </c>
       <c r="K650" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22220,10 +22150,14 @@
         <v>-23765559.64707423</v>
       </c>
       <c r="H651" t="n">
-        <v>0</v>
-      </c>
-      <c r="I651" t="inlineStr"/>
-      <c r="J651" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I651" t="n">
+        <v>8.32</v>
+      </c>
+      <c r="J651" t="n">
+        <v>8.32</v>
+      </c>
       <c r="K651" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22262,7 +22196,9 @@
       <c r="I652" t="n">
         <v>8.32</v>
       </c>
-      <c r="J652" t="inlineStr"/>
+      <c r="J652" t="n">
+        <v>8.32</v>
+      </c>
       <c r="K652" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22301,7 +22237,9 @@
       <c r="I653" t="n">
         <v>8.289999999999999</v>
       </c>
-      <c r="J653" t="inlineStr"/>
+      <c r="J653" t="n">
+        <v>8.32</v>
+      </c>
       <c r="K653" t="inlineStr">
         <is>
           <t>매도 대기</t>
